--- a/csv/taikoSongs/谱面生成器.xlsx
+++ b/csv/taikoSongs/谱面生成器.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\csv\taikoSongs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F461D-A71E-43BC-B41E-1A88D8C457AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE33F9E-5810-4E66-9BAE-01597ECECD44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="0" windowWidth="27645" windowHeight="12540" xr2:uid="{915F0882-252E-4FB9-BEA3-EEC9BD447592}"/>
+    <workbookView xWindow="8115" yWindow="2985" windowWidth="27645" windowHeight="12540" xr2:uid="{915F0882-252E-4FB9-BEA3-EEC9BD447592}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="翻译对照" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">生成!$A$2:$B$466</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">生成!$D$1:$J$401</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7719,10 +7719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 选择事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 点击查询，按下图选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7736,6 +7732,10 @@
   </si>
   <si>
     <t>ps. 国际服的技能名称，在右侧有对应的自动翻译。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 选择事件,施法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7746,7 +7746,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7809,6 +7809,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -7883,7 +7891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7911,13 +7919,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="47" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -7961,15 +7975,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>418988</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>199913</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>619055</xdr:rowOff>
+      <xdr:rowOff>590480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7992,7 +8006,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895350" y="581025"/>
+          <a:off x="1362075" y="552450"/>
           <a:ext cx="895238" cy="561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8126,6 +8140,50 @@
         <a:xfrm>
           <a:off x="0" y="13582650"/>
           <a:ext cx="2828571" cy="2161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390426</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>18971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DF303E-AFA5-41A3-A22A-94003391CEE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="561975"/>
+          <a:ext cx="790476" cy="628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8450,12 +8508,12 @@
     </row>
     <row r="2" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>2559</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8465,23 +8523,24 @@
     </row>
     <row r="35" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8504,24 +8563,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>2556</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="11" t="s">
         <v>2554</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="14" t="s">
         <v>2555</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="D2" s="5" t="str">
         <f>IF(TEXT(A2,"ss.0")+MINUTE(A2)*60=0,"/",TEXT(A2,"ss.0")+MINUTE(A2)*60)</f>
         <v>/</v>
@@ -8552,7 +8612,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D66" si="0">IF(TEXT(A3,"ss.0")+MINUTE(A3)*60=0,"/",TEXT(A3,"ss.0")+MINUTE(A3)*60)</f>
         <v>/</v>
@@ -8583,7 +8644,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>/</v>
@@ -8614,7 +8676,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="D5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>/</v>
@@ -9236,11 +9299,11 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="D25" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D25:D31" si="2">IF(TEXT(A25,"ss.0")+MINUTE(A25)*60=0,"/",TEXT(A25,"ss.0")+MINUTE(A25)*60)</f>
         <v>/</v>
       </c>
       <c r="E25" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E25:E31" si="3">IFERROR(MID(B25,FIND(" casts ",B25,1)+7,IFERROR(FIND(" on ",B25,1)-FIND(" casts ",B25,1)-7,99)),"/")</f>
         <v>/</v>
       </c>
       <c r="F25" s="3" t="str">
@@ -9267,11 +9330,11 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="D26" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>/</v>
       </c>
       <c r="E26" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>/</v>
       </c>
       <c r="F26" s="3" t="str">
@@ -9298,11 +9361,11 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="D27" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>/</v>
       </c>
       <c r="E27" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>/</v>
       </c>
       <c r="F27" s="3" t="str">
@@ -9329,11 +9392,11 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="D28" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>/</v>
       </c>
       <c r="E28" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>/</v>
       </c>
       <c r="F28" s="3" t="str">
@@ -9360,11 +9423,11 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="D29" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>/</v>
       </c>
       <c r="E29" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>/</v>
       </c>
       <c r="F29" s="3" t="str">
@@ -9391,11 +9454,11 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="D30" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>/</v>
       </c>
       <c r="E30" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>/</v>
       </c>
       <c r="F30" s="3" t="str">
@@ -9422,11 +9485,11 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="D31" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>/</v>
       </c>
       <c r="E31" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>/</v>
       </c>
       <c r="F31" s="3" t="str">
@@ -10538,11 +10601,11 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="D67" s="5" t="str">
-        <f t="shared" ref="D67:D130" si="2">IF(TEXT(A67,"ss.0")+MINUTE(A67)*60=0,"/",TEXT(A67,"ss.0")+MINUTE(A67)*60)</f>
+        <f t="shared" ref="D67:D130" si="4">IF(TEXT(A67,"ss.0")+MINUTE(A67)*60=0,"/",TEXT(A67,"ss.0")+MINUTE(A67)*60)</f>
         <v>/</v>
       </c>
       <c r="E67" s="6" t="str">
-        <f t="shared" ref="E67:E130" si="3">IFERROR(MID(B67,FIND(" casts ",B67,1)+7,IFERROR(FIND(" on ",B67,1)-FIND(" casts ",B67,1)-7,99)),"/")</f>
+        <f t="shared" ref="E67:E130" si="5">IFERROR(MID(B67,FIND(" casts ",B67,1)+7,IFERROR(FIND(" on ",B67,1)-FIND(" casts ",B67,1)-7,99)),"/")</f>
         <v>/</v>
       </c>
       <c r="F67" s="3" t="str">
@@ -10569,11 +10632,11 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="D68" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E68" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F68" s="3" t="str">
@@ -10600,11 +10663,11 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="D69" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E69" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F69" s="3" t="str">
@@ -10631,11 +10694,11 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="D70" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E70" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F70" s="3" t="str">
@@ -10662,11 +10725,11 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="D71" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E71" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F71" s="3" t="str">
@@ -10693,11 +10756,11 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="D72" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E72" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F72" s="3" t="str">
@@ -10724,11 +10787,11 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="D73" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E73" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F73" s="3" t="str">
@@ -10755,11 +10818,11 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="D74" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E74" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F74" s="3" t="str">
@@ -10786,11 +10849,11 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="D75" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E75" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F75" s="3" t="str">
@@ -10817,11 +10880,11 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="D76" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E76" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F76" s="3" t="str">
@@ -10848,11 +10911,11 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="D77" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E77" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F77" s="3" t="str">
@@ -10879,11 +10942,11 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="D78" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E78" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F78" s="3" t="str">
@@ -10910,11 +10973,11 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="D79" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E79" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F79" s="3" t="str">
@@ -10941,11 +11004,11 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="D80" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E80" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F80" s="3" t="str">
@@ -10972,11 +11035,11 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="D81" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E81" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F81" s="3" t="str">
@@ -11003,11 +11066,11 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="D82" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E82" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F82" s="3" t="str">
@@ -11034,11 +11097,11 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="D83" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E83" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F83" s="3" t="str">
@@ -11065,11 +11128,11 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="D84" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E84" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F84" s="3" t="str">
@@ -11096,11 +11159,11 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="D85" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E85" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F85" s="3" t="str">
@@ -11127,11 +11190,11 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="D86" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E86" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F86" s="3" t="str">
@@ -11158,11 +11221,11 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="D87" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E87" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F87" s="3" t="str">
@@ -11189,11 +11252,11 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="D88" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E88" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F88" s="3" t="str">
@@ -11220,11 +11283,11 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="D89" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E89" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F89" s="3" t="str">
@@ -11251,11 +11314,11 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="D90" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E90" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F90" s="3" t="str">
@@ -11282,11 +11345,11 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="D91" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E91" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F91" s="3" t="str">
@@ -11313,11 +11376,11 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="D92" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E92" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F92" s="3" t="str">
@@ -11344,11 +11407,11 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="D93" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E93" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F93" s="3" t="str">
@@ -11375,11 +11438,11 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="D94" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E94" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F94" s="3" t="str">
@@ -11406,11 +11469,11 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="D95" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E95" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F95" s="3" t="str">
@@ -11437,11 +11500,11 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="D96" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E96" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F96" s="3" t="str">
@@ -11468,11 +11531,11 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="D97" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E97" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F97" s="3" t="str">
@@ -11499,11 +11562,11 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="D98" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E98" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F98" s="3" t="str">
@@ -11530,11 +11593,11 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="D99" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E99" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F99" s="3" t="str">
@@ -11561,11 +11624,11 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="D100" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E100" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F100" s="3" t="str">
@@ -11592,11 +11655,11 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="D101" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E101" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F101" s="3" t="str">
@@ -11623,11 +11686,11 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="D102" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E102" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F102" s="3" t="str">
@@ -11654,11 +11717,11 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="D103" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E103" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F103" s="3" t="str">
@@ -11685,11 +11748,11 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="D104" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E104" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F104" s="3" t="str">
@@ -11716,11 +11779,11 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="D105" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E105" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F105" s="3" t="str">
@@ -11747,11 +11810,11 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="D106" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E106" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F106" s="3" t="str">
@@ -11778,11 +11841,11 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="D107" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E107" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F107" s="3" t="str">
@@ -11809,11 +11872,11 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="D108" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E108" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F108" s="3" t="str">
@@ -11840,11 +11903,11 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="D109" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E109" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F109" s="3" t="str">
@@ -11871,11 +11934,11 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="D110" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E110" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F110" s="3" t="str">
@@ -11902,11 +11965,11 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="D111" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E111" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F111" s="3" t="str">
@@ -11933,11 +11996,11 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="D112" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E112" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F112" s="3" t="str">
@@ -11964,11 +12027,11 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="D113" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E113" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F113" s="3" t="str">
@@ -11995,11 +12058,11 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="D114" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E114" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F114" s="3" t="str">
@@ -12026,11 +12089,11 @@
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="D115" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E115" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F115" s="3" t="str">
@@ -12057,11 +12120,11 @@
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="D116" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E116" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F116" s="3" t="str">
@@ -12088,11 +12151,11 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="D117" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E117" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F117" s="3" t="str">
@@ -12119,11 +12182,11 @@
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="D118" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E118" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F118" s="3" t="str">
@@ -12150,11 +12213,11 @@
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="D119" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E119" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F119" s="3" t="str">
@@ -12181,11 +12244,11 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="D120" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E120" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F120" s="3" t="str">
@@ -12212,11 +12275,11 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="D121" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E121" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F121" s="3" t="str">
@@ -12243,11 +12306,11 @@
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="D122" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E122" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F122" s="3" t="str">
@@ -12274,11 +12337,11 @@
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="D123" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E123" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F123" s="3" t="str">
@@ -12305,11 +12368,11 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="D124" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E124" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F124" s="3" t="str">
@@ -12336,11 +12399,11 @@
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="D125" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E125" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F125" s="3" t="str">
@@ -12367,11 +12430,11 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="D126" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E126" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F126" s="3" t="str">
@@ -12398,11 +12461,11 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="D127" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E127" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F127" s="3" t="str">
@@ -12429,11 +12492,11 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="D128" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E128" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F128" s="3" t="str">
@@ -12460,11 +12523,11 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="D129" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E129" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F129" s="3" t="str">
@@ -12491,11 +12554,11 @@
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="D130" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="E130" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>/</v>
       </c>
       <c r="F130" s="3" t="str">
@@ -12522,11 +12585,11 @@
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="D131" s="5" t="str">
-        <f t="shared" ref="D131:D194" si="4">IF(TEXT(A131,"ss.0")+MINUTE(A131)*60=0,"/",TEXT(A131,"ss.0")+MINUTE(A131)*60)</f>
+        <f t="shared" ref="D131:D194" si="6">IF(TEXT(A131,"ss.0")+MINUTE(A131)*60=0,"/",TEXT(A131,"ss.0")+MINUTE(A131)*60)</f>
         <v>/</v>
       </c>
       <c r="E131" s="6" t="str">
-        <f t="shared" ref="E131:E194" si="5">IFERROR(MID(B131,FIND(" casts ",B131,1)+7,IFERROR(FIND(" on ",B131,1)-FIND(" casts ",B131,1)-7,99)),"/")</f>
+        <f t="shared" ref="E131:E194" si="7">IFERROR(MID(B131,FIND(" casts ",B131,1)+7,IFERROR(FIND(" on ",B131,1)-FIND(" casts ",B131,1)-7,99)),"/")</f>
         <v>/</v>
       </c>
       <c r="F131" s="3" t="str">
@@ -12553,11 +12616,11 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="D132" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E132" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F132" s="3" t="str">
@@ -12584,11 +12647,11 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="D133" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E133" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F133" s="3" t="str">
@@ -12615,11 +12678,11 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="D134" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E134" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F134" s="3" t="str">
@@ -12646,11 +12709,11 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="D135" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E135" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F135" s="3" t="str">
@@ -12677,11 +12740,11 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="D136" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E136" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F136" s="3" t="str">
@@ -12708,11 +12771,11 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="D137" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E137" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F137" s="3" t="str">
@@ -12739,11 +12802,11 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="D138" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E138" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F138" s="3" t="str">
@@ -12770,11 +12833,11 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="D139" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E139" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F139" s="3" t="str">
@@ -12801,11 +12864,11 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="D140" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E140" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F140" s="3" t="str">
@@ -12832,11 +12895,11 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="D141" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E141" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F141" s="3" t="str">
@@ -12863,11 +12926,11 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="D142" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E142" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F142" s="3" t="str">
@@ -12894,11 +12957,11 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="D143" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E143" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F143" s="3" t="str">
@@ -12925,11 +12988,11 @@
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="D144" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E144" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F144" s="3" t="str">
@@ -12956,11 +13019,11 @@
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="D145" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E145" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F145" s="3" t="str">
@@ -12987,11 +13050,11 @@
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="D146" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E146" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F146" s="3" t="str">
@@ -13018,11 +13081,11 @@
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="D147" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E147" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F147" s="3" t="str">
@@ -13049,11 +13112,11 @@
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="D148" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E148" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F148" s="3" t="str">
@@ -13080,11 +13143,11 @@
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="D149" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E149" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F149" s="3" t="str">
@@ -13111,11 +13174,11 @@
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="D150" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E150" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F150" s="3" t="str">
@@ -13142,11 +13205,11 @@
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="D151" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E151" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F151" s="3" t="str">
@@ -13173,11 +13236,11 @@
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="D152" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E152" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F152" s="3" t="str">
@@ -13204,11 +13267,11 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="D153" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E153" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F153" s="3" t="str">
@@ -13235,11 +13298,11 @@
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="D154" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E154" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F154" s="3" t="str">
@@ -13266,11 +13329,11 @@
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="D155" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E155" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F155" s="3" t="str">
@@ -13297,11 +13360,11 @@
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="D156" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E156" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F156" s="3" t="str">
@@ -13328,11 +13391,11 @@
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="D157" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E157" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F157" s="3" t="str">
@@ -13359,11 +13422,11 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="D158" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E158" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F158" s="3" t="str">
@@ -13390,11 +13453,11 @@
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="D159" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E159" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F159" s="3" t="str">
@@ -13421,11 +13484,11 @@
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="D160" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E160" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F160" s="3" t="str">
@@ -13452,11 +13515,11 @@
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="D161" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E161" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F161" s="3" t="str">
@@ -13483,11 +13546,11 @@
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="D162" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E162" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F162" s="3" t="str">
@@ -13514,11 +13577,11 @@
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="D163" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E163" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F163" s="3" t="str">
@@ -13545,11 +13608,11 @@
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="D164" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E164" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F164" s="3" t="str">
@@ -13576,11 +13639,11 @@
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="D165" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E165" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F165" s="3" t="str">
@@ -13607,11 +13670,11 @@
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="D166" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E166" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F166" s="3" t="str">
@@ -13638,11 +13701,11 @@
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="D167" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E167" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F167" s="3" t="str">
@@ -13669,11 +13732,11 @@
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="D168" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E168" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F168" s="3" t="str">
@@ -13700,11 +13763,11 @@
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="D169" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E169" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F169" s="3" t="str">
@@ -13731,11 +13794,11 @@
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="D170" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E170" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F170" s="3" t="str">
@@ -13762,11 +13825,11 @@
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="D171" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E171" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F171" s="3" t="str">
@@ -13793,11 +13856,11 @@
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="D172" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E172" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F172" s="3" t="str">
@@ -13824,11 +13887,11 @@
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="D173" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E173" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F173" s="3" t="str">
@@ -13855,11 +13918,11 @@
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="D174" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E174" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F174" s="3" t="str">
@@ -13886,11 +13949,11 @@
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="D175" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E175" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F175" s="3" t="str">
@@ -13917,11 +13980,11 @@
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="D176" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E176" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F176" s="3" t="str">
@@ -13948,11 +14011,11 @@
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="D177" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E177" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F177" s="3" t="str">
@@ -13979,11 +14042,11 @@
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="D178" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E178" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F178" s="3" t="str">
@@ -14010,11 +14073,11 @@
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="D179" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E179" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F179" s="3" t="str">
@@ -14041,11 +14104,11 @@
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="D180" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E180" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F180" s="3" t="str">
@@ -14072,11 +14135,11 @@
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="D181" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E181" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F181" s="3" t="str">
@@ -14103,11 +14166,11 @@
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="D182" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E182" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F182" s="3" t="str">
@@ -14134,11 +14197,11 @@
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="D183" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E183" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F183" s="3" t="str">
@@ -14165,11 +14228,11 @@
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="D184" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E184" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F184" s="3" t="str">
@@ -14196,11 +14259,11 @@
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="D185" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E185" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F185" s="3" t="str">
@@ -14227,11 +14290,11 @@
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="D186" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E186" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F186" s="3" t="str">
@@ -14258,11 +14321,11 @@
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="D187" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E187" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F187" s="3" t="str">
@@ -14289,11 +14352,11 @@
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="D188" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E188" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F188" s="3" t="str">
@@ -14320,11 +14383,11 @@
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="D189" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E189" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F189" s="3" t="str">
@@ -14351,11 +14414,11 @@
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="D190" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E190" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F190" s="3" t="str">
@@ -14382,11 +14445,11 @@
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="D191" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E191" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F191" s="3" t="str">
@@ -14413,11 +14476,11 @@
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="D192" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E192" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F192" s="3" t="str">
@@ -14444,11 +14507,11 @@
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="D193" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E193" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F193" s="3" t="str">
@@ -14475,11 +14538,11 @@
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="D194" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="E194" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
       <c r="F194" s="3" t="str">
@@ -14506,11 +14569,11 @@
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="D195" s="5" t="str">
-        <f t="shared" ref="D195:D258" si="6">IF(TEXT(A195,"ss.0")+MINUTE(A195)*60=0,"/",TEXT(A195,"ss.0")+MINUTE(A195)*60)</f>
+        <f t="shared" ref="D195:D258" si="8">IF(TEXT(A195,"ss.0")+MINUTE(A195)*60=0,"/",TEXT(A195,"ss.0")+MINUTE(A195)*60)</f>
         <v>/</v>
       </c>
       <c r="E195" s="6" t="str">
-        <f t="shared" ref="E195:E258" si="7">IFERROR(MID(B195,FIND(" casts ",B195,1)+7,IFERROR(FIND(" on ",B195,1)-FIND(" casts ",B195,1)-7,99)),"/")</f>
+        <f t="shared" ref="E195:E258" si="9">IFERROR(MID(B195,FIND(" casts ",B195,1)+7,IFERROR(FIND(" on ",B195,1)-FIND(" casts ",B195,1)-7,99)),"/")</f>
         <v>/</v>
       </c>
       <c r="F195" s="3" t="str">
@@ -14537,11 +14600,11 @@
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="D196" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E196" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F196" s="3" t="str">
@@ -14568,11 +14631,11 @@
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="D197" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E197" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F197" s="3" t="str">
@@ -14599,11 +14662,11 @@
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="D198" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E198" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F198" s="3" t="str">
@@ -14630,11 +14693,11 @@
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="D199" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E199" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F199" s="3" t="str">
@@ -14661,11 +14724,11 @@
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="D200" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E200" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F200" s="3" t="str">
@@ -14692,11 +14755,11 @@
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="D201" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E201" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F201" s="3" t="str">
@@ -14723,11 +14786,11 @@
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="D202" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E202" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F202" s="3" t="str">
@@ -14754,11 +14817,11 @@
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="D203" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E203" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F203" s="3" t="str">
@@ -14785,11 +14848,11 @@
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="D204" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E204" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F204" s="3" t="str">
@@ -14816,11 +14879,11 @@
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="D205" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E205" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F205" s="3" t="str">
@@ -14847,11 +14910,11 @@
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="D206" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E206" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F206" s="3" t="str">
@@ -14878,11 +14941,11 @@
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="D207" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E207" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F207" s="3" t="str">
@@ -14909,11 +14972,11 @@
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="D208" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E208" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F208" s="3" t="str">
@@ -14940,11 +15003,11 @@
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="D209" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E209" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F209" s="3" t="str">
@@ -14971,11 +15034,11 @@
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="D210" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E210" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F210" s="3" t="str">
@@ -15002,11 +15065,11 @@
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="D211" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E211" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F211" s="3" t="str">
@@ -15033,11 +15096,11 @@
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="D212" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E212" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F212" s="3" t="str">
@@ -15064,11 +15127,11 @@
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="D213" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E213" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F213" s="3" t="str">
@@ -15095,11 +15158,11 @@
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="D214" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E214" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F214" s="3" t="str">
@@ -15126,11 +15189,11 @@
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="D215" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E215" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F215" s="3" t="str">
@@ -15157,11 +15220,11 @@
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="D216" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E216" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F216" s="3" t="str">
@@ -15188,11 +15251,11 @@
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="D217" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E217" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F217" s="3" t="str">
@@ -15219,11 +15282,11 @@
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="D218" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E218" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F218" s="3" t="str">
@@ -15250,11 +15313,11 @@
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="D219" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E219" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F219" s="3" t="str">
@@ -15281,11 +15344,11 @@
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="D220" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E220" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F220" s="3" t="str">
@@ -15312,11 +15375,11 @@
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="D221" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E221" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F221" s="3" t="str">
@@ -15343,11 +15406,11 @@
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="D222" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E222" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F222" s="3" t="str">
@@ -15374,11 +15437,11 @@
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="D223" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E223" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F223" s="3" t="str">
@@ -15405,11 +15468,11 @@
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="D224" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E224" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F224" s="3" t="str">
@@ -15436,11 +15499,11 @@
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="D225" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E225" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F225" s="3" t="str">
@@ -15467,11 +15530,11 @@
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="D226" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E226" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F226" s="3" t="str">
@@ -15498,11 +15561,11 @@
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="D227" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E227" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F227" s="3" t="str">
@@ -15529,11 +15592,11 @@
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="D228" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E228" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F228" s="3" t="str">
@@ -15560,11 +15623,11 @@
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="D229" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E229" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F229" s="3" t="str">
@@ -15591,11 +15654,11 @@
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="D230" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E230" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F230" s="3" t="str">
@@ -15622,11 +15685,11 @@
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="D231" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E231" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F231" s="3" t="str">
@@ -15653,11 +15716,11 @@
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="D232" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E232" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F232" s="3" t="str">
@@ -15684,11 +15747,11 @@
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="D233" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E233" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F233" s="3" t="str">
@@ -15715,11 +15778,11 @@
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="D234" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E234" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F234" s="3" t="str">
@@ -15746,11 +15809,11 @@
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="D235" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E235" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F235" s="3" t="str">
@@ -15777,11 +15840,11 @@
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="D236" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E236" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F236" s="3" t="str">
@@ -15808,11 +15871,11 @@
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="D237" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E237" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F237" s="3" t="str">
@@ -15839,11 +15902,11 @@
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="D238" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E238" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F238" s="3" t="str">
@@ -15870,11 +15933,11 @@
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="D239" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E239" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F239" s="3" t="str">
@@ -15901,11 +15964,11 @@
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="D240" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E240" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F240" s="3" t="str">
@@ -15932,11 +15995,11 @@
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="D241" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E241" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F241" s="3" t="str">
@@ -15963,11 +16026,11 @@
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="D242" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E242" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F242" s="3" t="str">
@@ -15994,11 +16057,11 @@
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="D243" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E243" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F243" s="3" t="str">
@@ -16025,11 +16088,11 @@
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="D244" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E244" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F244" s="3" t="str">
@@ -16056,11 +16119,11 @@
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="D245" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E245" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F245" s="3" t="str">
@@ -16087,11 +16150,11 @@
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="D246" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E246" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F246" s="3" t="str">
@@ -16118,11 +16181,11 @@
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="D247" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E247" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F247" s="3" t="str">
@@ -16149,11 +16212,11 @@
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="D248" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E248" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F248" s="3" t="str">
@@ -16180,11 +16243,11 @@
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="D249" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E249" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F249" s="3" t="str">
@@ -16211,11 +16274,11 @@
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="D250" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E250" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F250" s="3" t="str">
@@ -16242,11 +16305,11 @@
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="D251" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E251" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F251" s="3" t="str">
@@ -16273,11 +16336,11 @@
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="D252" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E252" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F252" s="3" t="str">
@@ -16304,11 +16367,11 @@
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="D253" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E253" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F253" s="3" t="str">
@@ -16335,11 +16398,11 @@
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="D254" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E254" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F254" s="3" t="str">
@@ -16366,11 +16429,11 @@
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="D255" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E255" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F255" s="3" t="str">
@@ -16397,11 +16460,11 @@
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="D256" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E256" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F256" s="3" t="str">
@@ -16428,11 +16491,11 @@
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="D257" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E257" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F257" s="3" t="str">
@@ -16459,11 +16522,11 @@
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="D258" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>/</v>
       </c>
       <c r="E258" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="F258" s="3" t="str">
@@ -16490,11 +16553,11 @@
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="D259" s="5" t="str">
-        <f t="shared" ref="D259:D322" si="8">IF(TEXT(A259,"ss.0")+MINUTE(A259)*60=0,"/",TEXT(A259,"ss.0")+MINUTE(A259)*60)</f>
+        <f t="shared" ref="D259:D322" si="10">IF(TEXT(A259,"ss.0")+MINUTE(A259)*60=0,"/",TEXT(A259,"ss.0")+MINUTE(A259)*60)</f>
         <v>/</v>
       </c>
       <c r="E259" s="6" t="str">
-        <f t="shared" ref="E259:E322" si="9">IFERROR(MID(B259,FIND(" casts ",B259,1)+7,IFERROR(FIND(" on ",B259,1)-FIND(" casts ",B259,1)-7,99)),"/")</f>
+        <f t="shared" ref="E259:E322" si="11">IFERROR(MID(B259,FIND(" casts ",B259,1)+7,IFERROR(FIND(" on ",B259,1)-FIND(" casts ",B259,1)-7,99)),"/")</f>
         <v>/</v>
       </c>
       <c r="F259" s="3" t="str">
@@ -16521,11 +16584,11 @@
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="D260" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E260" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F260" s="3" t="str">
@@ -16552,11 +16615,11 @@
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="D261" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E261" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F261" s="3" t="str">
@@ -16583,11 +16646,11 @@
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="D262" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E262" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F262" s="3" t="str">
@@ -16614,11 +16677,11 @@
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="D263" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E263" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F263" s="3" t="str">
@@ -16645,11 +16708,11 @@
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="D264" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E264" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F264" s="3" t="str">
@@ -16676,11 +16739,11 @@
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="D265" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E265" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F265" s="3" t="str">
@@ -16707,11 +16770,11 @@
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="D266" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E266" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F266" s="3" t="str">
@@ -16738,11 +16801,11 @@
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="D267" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E267" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F267" s="3" t="str">
@@ -16769,11 +16832,11 @@
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="D268" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E268" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F268" s="3" t="str">
@@ -16800,11 +16863,11 @@
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="D269" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E269" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F269" s="3" t="str">
@@ -16831,11 +16894,11 @@
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="D270" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E270" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F270" s="3" t="str">
@@ -16862,11 +16925,11 @@
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="D271" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E271" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F271" s="3" t="str">
@@ -16893,11 +16956,11 @@
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="D272" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E272" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F272" s="3" t="str">
@@ -16924,11 +16987,11 @@
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="D273" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E273" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F273" s="3" t="str">
@@ -16955,11 +17018,11 @@
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="D274" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E274" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F274" s="3" t="str">
@@ -16986,11 +17049,11 @@
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="D275" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E275" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F275" s="3" t="str">
@@ -17017,11 +17080,11 @@
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="D276" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E276" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F276" s="3" t="str">
@@ -17048,11 +17111,11 @@
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="D277" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E277" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F277" s="3" t="str">
@@ -17079,11 +17142,11 @@
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="D278" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E278" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F278" s="3" t="str">
@@ -17110,11 +17173,11 @@
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="D279" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E279" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F279" s="3" t="str">
@@ -17141,11 +17204,11 @@
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="D280" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E280" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F280" s="3" t="str">
@@ -17172,11 +17235,11 @@
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="D281" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E281" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F281" s="3" t="str">
@@ -17203,11 +17266,11 @@
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="D282" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E282" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F282" s="3" t="str">
@@ -17234,11 +17297,11 @@
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="D283" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E283" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F283" s="3" t="str">
@@ -17265,11 +17328,11 @@
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="D284" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E284" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F284" s="3" t="str">
@@ -17296,11 +17359,11 @@
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="D285" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E285" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F285" s="3" t="str">
@@ -17327,11 +17390,11 @@
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="D286" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E286" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F286" s="3" t="str">
@@ -17358,11 +17421,11 @@
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="D287" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E287" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F287" s="3" t="str">
@@ -17389,11 +17452,11 @@
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="D288" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E288" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F288" s="3" t="str">
@@ -17420,11 +17483,11 @@
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="D289" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E289" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F289" s="3" t="str">
@@ -17451,11 +17514,11 @@
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="D290" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E290" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F290" s="3" t="str">
@@ -17482,11 +17545,11 @@
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="D291" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E291" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F291" s="3" t="str">
@@ -17513,11 +17576,11 @@
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="D292" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E292" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F292" s="3" t="str">
@@ -17544,11 +17607,11 @@
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="D293" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E293" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F293" s="3" t="str">
@@ -17575,11 +17638,11 @@
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="D294" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E294" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F294" s="3" t="str">
@@ -17606,11 +17669,11 @@
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="D295" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E295" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F295" s="3" t="str">
@@ -17637,11 +17700,11 @@
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="D296" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E296" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F296" s="3" t="str">
@@ -17668,11 +17731,11 @@
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="D297" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E297" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F297" s="3" t="str">
@@ -17699,11 +17762,11 @@
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="D298" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E298" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F298" s="3" t="str">
@@ -17730,11 +17793,11 @@
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="D299" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E299" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F299" s="3" t="str">
@@ -17761,11 +17824,11 @@
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="D300" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E300" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F300" s="3" t="str">
@@ -17792,11 +17855,11 @@
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="D301" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E301" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F301" s="3" t="str">
@@ -17823,11 +17886,11 @@
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="D302" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E302" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F302" s="3" t="str">
@@ -17854,11 +17917,11 @@
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="D303" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E303" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F303" s="3" t="str">
@@ -17885,11 +17948,11 @@
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="D304" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E304" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F304" s="3" t="str">
@@ -17916,11 +17979,11 @@
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="D305" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E305" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F305" s="3" t="str">
@@ -17947,11 +18010,11 @@
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="D306" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E306" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F306" s="3" t="str">
@@ -17978,11 +18041,11 @@
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="D307" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E307" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F307" s="3" t="str">
@@ -18009,11 +18072,11 @@
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="D308" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E308" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F308" s="3" t="str">
@@ -18040,11 +18103,11 @@
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="D309" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E309" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F309" s="3" t="str">
@@ -18071,11 +18134,11 @@
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="D310" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E310" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F310" s="3" t="str">
@@ -18102,11 +18165,11 @@
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="D311" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E311" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F311" s="3" t="str">
@@ -18133,11 +18196,11 @@
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="D312" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E312" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F312" s="3" t="str">
@@ -18164,11 +18227,11 @@
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="D313" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E313" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F313" s="3" t="str">
@@ -18195,11 +18258,11 @@
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="D314" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E314" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F314" s="3" t="str">
@@ -18226,11 +18289,11 @@
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="D315" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E315" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F315" s="3" t="str">
@@ -18257,11 +18320,11 @@
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="D316" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E316" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F316" s="3" t="str">
@@ -18288,11 +18351,11 @@
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="D317" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E317" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F317" s="3" t="str">
@@ -18319,11 +18382,11 @@
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="D318" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E318" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F318" s="3" t="str">
@@ -18350,11 +18413,11 @@
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="D319" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E319" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F319" s="3" t="str">
@@ -18381,11 +18444,11 @@
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="D320" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E320" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F320" s="3" t="str">
@@ -18412,11 +18475,11 @@
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="D321" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E321" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F321" s="3" t="str">
@@ -18443,11 +18506,11 @@
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="D322" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="E322" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>/</v>
       </c>
       <c r="F322" s="3" t="str">
@@ -18474,11 +18537,11 @@
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="D323" s="5" t="str">
-        <f t="shared" ref="D323:D386" si="10">IF(TEXT(A323,"ss.0")+MINUTE(A323)*60=0,"/",TEXT(A323,"ss.0")+MINUTE(A323)*60)</f>
+        <f t="shared" ref="D323:D386" si="12">IF(TEXT(A323,"ss.0")+MINUTE(A323)*60=0,"/",TEXT(A323,"ss.0")+MINUTE(A323)*60)</f>
         <v>/</v>
       </c>
       <c r="E323" s="6" t="str">
-        <f t="shared" ref="E323:E386" si="11">IFERROR(MID(B323,FIND(" casts ",B323,1)+7,IFERROR(FIND(" on ",B323,1)-FIND(" casts ",B323,1)-7,99)),"/")</f>
+        <f t="shared" ref="E323:E386" si="13">IFERROR(MID(B323,FIND(" casts ",B323,1)+7,IFERROR(FIND(" on ",B323,1)-FIND(" casts ",B323,1)-7,99)),"/")</f>
         <v>/</v>
       </c>
       <c r="F323" s="3" t="str">
@@ -18505,11 +18568,11 @@
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="D324" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E324" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F324" s="3" t="str">
@@ -18536,11 +18599,11 @@
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="D325" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E325" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F325" s="3" t="str">
@@ -18567,11 +18630,11 @@
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="D326" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E326" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F326" s="3" t="str">
@@ -18598,11 +18661,11 @@
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="D327" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E327" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F327" s="3" t="str">
@@ -18629,11 +18692,11 @@
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="D328" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E328" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F328" s="3" t="str">
@@ -18660,11 +18723,11 @@
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="D329" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E329" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F329" s="3" t="str">
@@ -18691,11 +18754,11 @@
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="D330" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E330" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F330" s="3" t="str">
@@ -18722,11 +18785,11 @@
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="D331" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E331" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F331" s="3" t="str">
@@ -18753,11 +18816,11 @@
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="D332" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E332" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F332" s="3" t="str">
@@ -18784,11 +18847,11 @@
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="D333" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E333" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F333" s="3" t="str">
@@ -18815,11 +18878,11 @@
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="D334" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E334" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F334" s="3" t="str">
@@ -18846,11 +18909,11 @@
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="D335" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E335" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F335" s="3" t="str">
@@ -18877,11 +18940,11 @@
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="D336" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E336" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F336" s="3" t="str">
@@ -18908,11 +18971,11 @@
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="D337" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E337" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F337" s="3" t="str">
@@ -18939,11 +19002,11 @@
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="D338" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E338" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F338" s="3" t="str">
@@ -18970,11 +19033,11 @@
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="D339" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E339" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F339" s="3" t="str">
@@ -19001,11 +19064,11 @@
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="D340" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E340" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F340" s="3" t="str">
@@ -19032,11 +19095,11 @@
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="D341" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E341" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F341" s="3" t="str">
@@ -19063,11 +19126,11 @@
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="D342" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E342" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F342" s="3" t="str">
@@ -19094,11 +19157,11 @@
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="D343" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E343" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F343" s="3" t="str">
@@ -19125,11 +19188,11 @@
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="D344" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E344" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F344" s="3" t="str">
@@ -19156,11 +19219,11 @@
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="D345" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E345" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F345" s="3" t="str">
@@ -19187,11 +19250,11 @@
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="D346" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E346" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F346" s="3" t="str">
@@ -19218,11 +19281,11 @@
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="D347" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E347" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F347" s="3" t="str">
@@ -19249,11 +19312,11 @@
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="D348" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E348" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F348" s="3" t="str">
@@ -19280,11 +19343,11 @@
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="D349" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E349" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F349" s="3" t="str">
@@ -19311,11 +19374,11 @@
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="D350" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E350" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F350" s="3" t="str">
@@ -19342,11 +19405,11 @@
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="D351" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E351" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F351" s="3" t="str">
@@ -19373,11 +19436,11 @@
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="D352" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E352" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F352" s="3" t="str">
@@ -19404,11 +19467,11 @@
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="D353" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E353" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F353" s="3" t="str">
@@ -19435,11 +19498,11 @@
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="D354" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E354" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F354" s="3" t="str">
@@ -19466,11 +19529,11 @@
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="D355" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E355" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F355" s="3" t="str">
@@ -19497,11 +19560,11 @@
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="D356" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E356" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F356" s="3" t="str">
@@ -19528,11 +19591,11 @@
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="D357" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E357" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F357" s="3" t="str">
@@ -19559,11 +19622,11 @@
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="D358" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E358" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F358" s="3" t="str">
@@ -19590,11 +19653,11 @@
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="D359" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E359" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F359" s="3" t="str">
@@ -19621,11 +19684,11 @@
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="D360" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E360" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F360" s="3" t="str">
@@ -19652,11 +19715,11 @@
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="D361" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E361" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F361" s="3" t="str">
@@ -19683,11 +19746,11 @@
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="D362" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E362" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F362" s="3" t="str">
@@ -19714,11 +19777,11 @@
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="D363" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E363" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F363" s="3" t="str">
@@ -19745,11 +19808,11 @@
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="D364" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E364" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F364" s="3" t="str">
@@ -19776,11 +19839,11 @@
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="D365" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E365" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F365" s="3" t="str">
@@ -19807,11 +19870,11 @@
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="D366" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E366" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F366" s="3" t="str">
@@ -19838,11 +19901,11 @@
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="D367" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E367" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F367" s="3" t="str">
@@ -19869,11 +19932,11 @@
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="D368" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E368" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F368" s="3" t="str">
@@ -19900,11 +19963,11 @@
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="D369" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E369" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F369" s="3" t="str">
@@ -19931,11 +19994,11 @@
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="D370" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E370" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F370" s="3" t="str">
@@ -19962,11 +20025,11 @@
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="D371" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E371" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F371" s="3" t="str">
@@ -19993,11 +20056,11 @@
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="D372" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E372" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F372" s="3" t="str">
@@ -20024,11 +20087,11 @@
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="D373" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E373" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F373" s="3" t="str">
@@ -20055,11 +20118,11 @@
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="D374" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E374" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F374" s="3" t="str">
@@ -20086,11 +20149,11 @@
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="D375" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E375" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F375" s="3" t="str">
@@ -20117,11 +20180,11 @@
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="D376" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E376" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F376" s="3" t="str">
@@ -20148,11 +20211,11 @@
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="D377" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E377" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F377" s="3" t="str">
@@ -20179,11 +20242,11 @@
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="D378" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E378" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F378" s="3" t="str">
@@ -20210,11 +20273,11 @@
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="D379" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E379" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F379" s="3" t="str">
@@ -20241,11 +20304,11 @@
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="D380" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E380" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F380" s="3" t="str">
@@ -20272,11 +20335,11 @@
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="D381" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E381" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F381" s="3" t="str">
@@ -20303,11 +20366,11 @@
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="D382" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E382" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F382" s="3" t="str">
@@ -20334,11 +20397,11 @@
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="D383" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E383" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F383" s="3" t="str">
@@ -20365,11 +20428,11 @@
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="D384" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E384" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F384" s="3" t="str">
@@ -20396,11 +20459,11 @@
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="D385" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E385" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F385" s="3" t="str">
@@ -20427,11 +20490,11 @@
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="D386" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="E386" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>/</v>
       </c>
       <c r="F386" s="3" t="str">
@@ -20458,11 +20521,11 @@
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="D387" s="5" t="str">
-        <f t="shared" ref="D387:D401" si="12">IF(TEXT(A387,"ss.0")+MINUTE(A387)*60=0,"/",TEXT(A387,"ss.0")+MINUTE(A387)*60)</f>
+        <f t="shared" ref="D387:D401" si="14">IF(TEXT(A387,"ss.0")+MINUTE(A387)*60=0,"/",TEXT(A387,"ss.0")+MINUTE(A387)*60)</f>
         <v>/</v>
       </c>
       <c r="E387" s="6" t="str">
-        <f t="shared" ref="E387:E401" si="13">IFERROR(MID(B387,FIND(" casts ",B387,1)+7,IFERROR(FIND(" on ",B387,1)-FIND(" casts ",B387,1)-7,99)),"/")</f>
+        <f t="shared" ref="E387:E401" si="15">IFERROR(MID(B387,FIND(" casts ",B387,1)+7,IFERROR(FIND(" on ",B387,1)-FIND(" casts ",B387,1)-7,99)),"/")</f>
         <v>/</v>
       </c>
       <c r="F387" s="3" t="str">
@@ -20489,11 +20552,11 @@
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="D388" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E388" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F388" s="3" t="str">
@@ -20520,11 +20583,11 @@
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="D389" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E389" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F389" s="3" t="str">
@@ -20551,11 +20614,11 @@
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="D390" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E390" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F390" s="3" t="str">
@@ -20582,11 +20645,11 @@
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="D391" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E391" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F391" s="3" t="str">
@@ -20613,11 +20676,11 @@
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="D392" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E392" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F392" s="3" t="str">
@@ -20644,11 +20707,11 @@
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="D393" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E393" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F393" s="3" t="str">
@@ -20675,11 +20738,11 @@
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="D394" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E394" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F394" s="3" t="str">
@@ -20706,11 +20769,11 @@
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="D395" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E395" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F395" s="3" t="str">
@@ -20737,11 +20800,11 @@
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="D396" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E396" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F396" s="3" t="str">
@@ -20768,11 +20831,11 @@
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="D397" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E397" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F397" s="3" t="str">
@@ -20799,11 +20862,11 @@
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="D398" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E398" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F398" s="3" t="str">
@@ -20830,11 +20893,11 @@
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="D399" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E399" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F399" s="3" t="str">
@@ -20861,11 +20924,11 @@
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="D400" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E400" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
       <c r="F400" s="3" t="str">
@@ -20892,11 +20955,11 @@
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="D401" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>/</v>
       </c>
       <c r="E401" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>/</v>
       </c>
     </row>
@@ -21096,15 +21159,20 @@
       <c r="A466" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="D1:J401" xr:uid="{9C7FAD20-8AA3-4555-9EB9-E9CFAE50656D}">
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B25:C1048576 A2:A24">
+  <conditionalFormatting sqref="A1:B1048576">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="begins">
-      <formula>NOT(ISERROR(SEARCH("begins",A2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("begins",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/taikoSongs/谱面生成器.xlsx
+++ b/csv/taikoSongs/谱面生成器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\csv\taikoSongs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9662F-7CA7-4067-AD4E-507B144452E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA5DB1E-8B32-4C4A-B109-2CA4AD3B8EF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="36360" windowHeight="16440" xr2:uid="{915F0882-252E-4FB9-BEA3-EEC9BD447592}"/>
   </bookViews>
@@ -7743,6 +7743,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7879,7 +7882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7915,6 +7918,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8528,7 +8534,7 @@
   <dimension ref="A1:I466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8539,7 +8545,7 @@
     <col min="4" max="4" width="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="33.875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="12" customWidth="1"/>
     <col min="8" max="8" width="33.875" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.25" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
@@ -8573,7 +8579,7 @@
         <f t="shared" ref="F2:F65" si="1">IFERROR(MID(B2,FIND(" casts ",B2,1)+7,IFERROR(FIND(" on ",B2,1)-FIND(" casts ",B2,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="12">
         <f t="array" ref="G2">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E1)))</f>
         <v>0</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F2,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F2,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F2,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F2,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F2,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H2,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H2,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H2,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H2,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H2,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8601,7 +8607,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="12">
         <f t="array" ref="G3">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E2)))</f>
         <v>0</v>
       </c>
@@ -8610,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F3,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F3,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F3,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F3,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F3,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H3,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H3,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H3,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H3,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H3,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8629,7 +8635,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="12">
         <f t="array" ref="G4">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E3)))</f>
         <v>0</v>
       </c>
@@ -8638,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F4,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F4,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F4,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F4,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F4,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H4,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H4,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H4,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H4,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H4,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8657,7 +8663,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="12">
         <f t="array" ref="G5">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E4)))</f>
         <v>0</v>
       </c>
@@ -8666,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F5,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F5,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F5,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F5,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F5,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H5,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H5,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H5,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H5,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H5,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8684,7 +8690,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="12">
         <f t="array" ref="G6">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E5)))</f>
         <v>0</v>
       </c>
@@ -8693,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F6,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F6,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F6,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F6,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F6,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H6,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H6,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H6,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H6,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H6,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8711,7 +8717,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="12">
         <f t="array" ref="G7">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E6)))</f>
         <v>0</v>
       </c>
@@ -8720,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F7,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F7,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F7,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F7,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F7,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H7,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H7,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H7,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H7,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H7,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8738,7 +8744,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="12">
         <f t="array" ref="G8">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E7)))</f>
         <v>0</v>
       </c>
@@ -8747,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F8,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F8,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F8,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F8,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F8,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H8,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H8,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H8,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H8,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H8,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8765,7 +8771,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="12">
         <f t="array" ref="G9">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E8)))</f>
         <v>0</v>
       </c>
@@ -8774,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F9,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F9,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F9,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F9,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F9,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H9,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H9,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H9,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H9,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H9,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8792,7 +8798,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="12">
         <f t="array" ref="G10">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E9)))</f>
         <v>0</v>
       </c>
@@ -8801,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F10,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F10,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F10,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F10,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F10,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H10,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H10,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H10,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H10,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H10,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8819,7 +8825,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="12">
         <f t="array" ref="G11">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E10)))</f>
         <v>0</v>
       </c>
@@ -8828,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F11,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F11,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F11,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F11,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F11,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H11,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H11,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H11,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H11,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H11,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8846,7 +8852,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="12">
         <f t="array" ref="G12">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E11)))</f>
         <v>0</v>
       </c>
@@ -8855,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F12,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F12,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F12,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F12,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F12,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H12,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H12,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H12,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H12,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H12,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8873,7 +8879,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="12">
         <f t="array" ref="G13">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E12)))</f>
         <v>0</v>
       </c>
@@ -8882,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F13,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F13,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F13,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F13,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F13,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H13,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H13,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H13,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H13,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H13,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8900,7 +8906,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="12">
         <f t="array" ref="G14">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E13)))</f>
         <v>0</v>
       </c>
@@ -8909,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F14,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F14,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F14,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F14,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F14,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H14,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H14,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H14,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H14,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H14,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8927,7 +8933,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="12">
         <f t="array" ref="G15">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E14)))</f>
         <v>0</v>
       </c>
@@ -8936,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F15,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F15,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F15,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F15,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F15,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H15,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H15,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H15,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H15,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H15,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8954,7 +8960,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="12">
         <f t="array" ref="G16">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E15)))</f>
         <v>0</v>
       </c>
@@ -8963,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F16,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F16,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F16,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F16,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F16,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H16,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H16,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H16,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H16,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H16,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -8981,7 +8987,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="12">
         <f t="array" ref="G17">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E16)))</f>
         <v>0</v>
       </c>
@@ -8990,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F17,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F17,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F17,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F17,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F17,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H17,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H17,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H17,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H17,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H17,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9008,7 +9014,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="12">
         <f t="array" ref="G18">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E17)))</f>
         <v>0</v>
       </c>
@@ -9017,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F18,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F18,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F18,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F18,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F18,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H18,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H18,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H18,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H18,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H18,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9035,7 +9041,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="12">
         <f t="array" ref="G19">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E18)))</f>
         <v>0</v>
       </c>
@@ -9044,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F19,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F19,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F19,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F19,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F19,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H19,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H19,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H19,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H19,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H19,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9062,7 +9068,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="12">
         <f t="array" ref="G20">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E19)))</f>
         <v>0</v>
       </c>
@@ -9071,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F20,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F20,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F20,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F20,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F20,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H20,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H20,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H20,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H20,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H20,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9089,7 +9095,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="12">
         <f t="array" ref="G21">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E20)))</f>
         <v>0</v>
       </c>
@@ -9098,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F21,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F21,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F21,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F21,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F21,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H21,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H21,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H21,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H21,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H21,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9116,7 +9122,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="12">
         <f t="array" ref="G22">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E21)))</f>
         <v>0</v>
       </c>
@@ -9125,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F22,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F22,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F22,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F22,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F22,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H22,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H22,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H22,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H22,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H22,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9143,7 +9149,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="12">
         <f t="array" ref="G23">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E22)))</f>
         <v>0</v>
       </c>
@@ -9152,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F23,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F23,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F23,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F23,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F23,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H23,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H23,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H23,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H23,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H23,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9170,7 +9176,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="12">
         <f t="array" ref="G24">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E23)))</f>
         <v>0</v>
       </c>
@@ -9179,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F24,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F24,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F24,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F24,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F24,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H24,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H24,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H24,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H24,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H24,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9197,7 +9203,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="12">
         <f t="array" ref="G25">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E24)))</f>
         <v>0</v>
       </c>
@@ -9206,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F25,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F25,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F25,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F25,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F25,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H25,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H25,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H25,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H25,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H25,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9224,7 +9230,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="12">
         <f t="array" ref="G26">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E25)))</f>
         <v>0</v>
       </c>
@@ -9233,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F26,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F26,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F26,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F26,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F26,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H26,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H26,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H26,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H26,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H26,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9251,7 +9257,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="12">
         <f t="array" ref="G27">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E26)))</f>
         <v>0</v>
       </c>
@@ -9260,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F27,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F27,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F27,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F27,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F27,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H27,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H27,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H27,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H27,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H27,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9278,7 +9284,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="12">
         <f t="array" ref="G28">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E27)))</f>
         <v>0</v>
       </c>
@@ -9287,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F28,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F28,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F28,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F28,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F28,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H28,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H28,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H28,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H28,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H28,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9305,7 +9311,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="12">
         <f t="array" ref="G29">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E28)))</f>
         <v>0</v>
       </c>
@@ -9314,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F29,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F29,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F29,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F29,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F29,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H29,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H29,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H29,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H29,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H29,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9332,7 +9338,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="12">
         <f t="array" ref="G30">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E29)))</f>
         <v>0</v>
       </c>
@@ -9341,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F30,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F30,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F30,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F30,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F30,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H30,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H30,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H30,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H30,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H30,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9359,7 +9365,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="12">
         <f t="array" ref="G31">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E30)))</f>
         <v>0</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F31,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F31,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F31,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F31,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F31,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H31,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H31,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H31,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H31,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H31,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9386,7 +9392,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="12">
         <f t="array" ref="G32">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E31)))</f>
         <v>0</v>
       </c>
@@ -9395,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F32,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F32,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F32,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F32,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F32,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H32,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H32,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H32,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H32,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H32,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9413,7 +9419,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="12">
         <f t="array" ref="G33">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E32)))</f>
         <v>0</v>
       </c>
@@ -9422,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F33,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F33,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F33,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F33,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F33,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H33,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H33,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H33,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H33,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H33,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9440,7 +9446,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="12">
         <f t="array" ref="G34">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E33)))</f>
         <v>0</v>
       </c>
@@ -9449,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F34,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F34,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F34,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F34,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F34,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H34,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H34,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H34,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H34,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H34,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9467,7 +9473,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="12">
         <f t="array" ref="G35">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E34)))</f>
         <v>0</v>
       </c>
@@ -9476,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F35,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F35,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F35,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F35,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F35,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H35,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H35,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H35,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H35,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H35,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9494,7 +9500,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="12">
         <f t="array" ref="G36">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E35)))</f>
         <v>0</v>
       </c>
@@ -9503,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F36,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F36,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F36,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F36,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F36,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H36,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H36,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H36,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H36,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H36,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9521,7 +9527,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="12">
         <f t="array" ref="G37">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E36)))</f>
         <v>0</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F37,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F37,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F37,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F37,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F37,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H37,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H37,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H37,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H37,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H37,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9548,7 +9554,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="12">
         <f t="array" ref="G38">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E37)))</f>
         <v>0</v>
       </c>
@@ -9557,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F38,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F38,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F38,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F38,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F38,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H38,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H38,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H38,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H38,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H38,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9575,7 +9581,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="12">
         <f t="array" ref="G39">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E38)))</f>
         <v>0</v>
       </c>
@@ -9584,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F39,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F39,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F39,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F39,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F39,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H39,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H39,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H39,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H39,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H39,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9602,7 +9608,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="12">
         <f t="array" ref="G40">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E39)))</f>
         <v>0</v>
       </c>
@@ -9611,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F40,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F40,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F40,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F40,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F40,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H40,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H40,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H40,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H40,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H40,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9629,7 +9635,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="12">
         <f t="array" ref="G41">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E40)))</f>
         <v>0</v>
       </c>
@@ -9638,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F41,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F41,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F41,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F41,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F41,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H41,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H41,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H41,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H41,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H41,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9656,7 +9662,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="12">
         <f t="array" ref="G42">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E41)))</f>
         <v>0</v>
       </c>
@@ -9665,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F42,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F42,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F42,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F42,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F42,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H42,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H42,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H42,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H42,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H42,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9683,7 +9689,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="12">
         <f t="array" ref="G43">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E42)))</f>
         <v>0</v>
       </c>
@@ -9692,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F43,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F43,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F43,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F43,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F43,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H43,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H43,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H43,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H43,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H43,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9710,7 +9716,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="12">
         <f t="array" ref="G44">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E43)))</f>
         <v>0</v>
       </c>
@@ -9719,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F44,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F44,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F44,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F44,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F44,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H44,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H44,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H44,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H44,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H44,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9737,7 +9743,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="12">
         <f t="array" ref="G45">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E44)))</f>
         <v>0</v>
       </c>
@@ -9746,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F45,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F45,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F45,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F45,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F45,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H45,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H45,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H45,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H45,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H45,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9764,7 +9770,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="12">
         <f t="array" ref="G46">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E45)))</f>
         <v>0</v>
       </c>
@@ -9773,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F46,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F46,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F46,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F46,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F46,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H46,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H46,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H46,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H46,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H46,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9791,7 +9797,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="12">
         <f t="array" ref="G47">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E46)))</f>
         <v>0</v>
       </c>
@@ -9800,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F47,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F47,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F47,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F47,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F47,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H47,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H47,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H47,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H47,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H47,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9818,7 +9824,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="12">
         <f t="array" ref="G48">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E47)))</f>
         <v>0</v>
       </c>
@@ -9827,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F48,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F48,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F48,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F48,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F48,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H48,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H48,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H48,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H48,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H48,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9845,7 +9851,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="12">
         <f t="array" ref="G49">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E48)))</f>
         <v>0</v>
       </c>
@@ -9854,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F49,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F49,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F49,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F49,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F49,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H49,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H49,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H49,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H49,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H49,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9872,7 +9878,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="12">
         <f t="array" ref="G50">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E49)))</f>
         <v>0</v>
       </c>
@@ -9881,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F50,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F50,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F50,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F50,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F50,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H50,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H50,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H50,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H50,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H50,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9899,7 +9905,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="12">
         <f t="array" ref="G51">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E50)))</f>
         <v>0</v>
       </c>
@@ -9908,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F51,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F51,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F51,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F51,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F51,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H51,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H51,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H51,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H51,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H51,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9926,7 +9932,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="12">
         <f t="array" ref="G52">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E51)))</f>
         <v>0</v>
       </c>
@@ -9935,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F52,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F52,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F52,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F52,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F52,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H52,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H52,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H52,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H52,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H52,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9953,7 +9959,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="12">
         <f t="array" ref="G53">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E52)))</f>
         <v>0</v>
       </c>
@@ -9962,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F53,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F53,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F53,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F53,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F53,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H53,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H53,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H53,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H53,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H53,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -9980,7 +9986,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="12">
         <f t="array" ref="G54">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E53)))</f>
         <v>0</v>
       </c>
@@ -9989,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F54,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F54,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F54,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F54,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F54,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H54,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H54,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H54,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H54,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H54,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10007,7 +10013,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="12">
         <f t="array" ref="G55">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E54)))</f>
         <v>0</v>
       </c>
@@ -10016,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F55,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F55,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F55,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F55,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F55,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H55,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H55,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H55,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H55,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H55,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10034,7 +10040,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="12">
         <f t="array" ref="G56">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E55)))</f>
         <v>0</v>
       </c>
@@ -10043,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F56,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F56,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F56,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F56,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F56,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H56,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H56,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H56,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H56,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H56,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10061,7 +10067,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="12">
         <f t="array" ref="G57">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E56)))</f>
         <v>0</v>
       </c>
@@ -10070,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F57,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F57,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F57,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F57,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F57,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H57,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H57,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H57,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H57,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H57,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10088,7 +10094,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="12">
         <f t="array" ref="G58">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E57)))</f>
         <v>0</v>
       </c>
@@ -10097,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F58,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F58,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F58,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F58,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F58,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H58,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H58,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H58,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H58,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H58,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10115,7 +10121,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="12">
         <f t="array" ref="G59">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E58)))</f>
         <v>0</v>
       </c>
@@ -10124,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F59,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F59,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F59,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F59,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F59,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H59,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H59,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H59,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H59,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H59,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10142,7 +10148,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="12">
         <f t="array" ref="G60">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E59)))</f>
         <v>0</v>
       </c>
@@ -10151,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F60,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F60,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F60,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F60,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F60,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H60,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H60,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H60,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H60,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H60,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10169,7 +10175,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="12">
         <f t="array" ref="G61">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E60)))</f>
         <v>0</v>
       </c>
@@ -10178,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F61,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F61,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F61,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F61,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F61,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H61,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H61,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H61,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H61,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H61,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10196,7 +10202,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="12">
         <f t="array" ref="G62">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E61)))</f>
         <v>0</v>
       </c>
@@ -10205,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F62,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F62,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F62,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F62,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F62,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H62,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H62,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H62,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H62,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H62,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10223,7 +10229,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="12">
         <f t="array" ref="G63">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E62)))</f>
         <v>0</v>
       </c>
@@ -10232,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F63,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F63,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F63,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F63,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F63,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H63,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H63,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H63,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H63,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H63,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10250,7 +10256,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="12">
         <f t="array" ref="G64">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E63)))</f>
         <v>0</v>
       </c>
@@ -10259,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F64,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F64,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F64,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F64,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F64,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H64,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H64,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H64,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H64,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H64,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10277,7 +10283,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="12">
         <f t="array" ref="G65">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E64)))</f>
         <v>0</v>
       </c>
@@ -10286,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F65,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F65,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F65,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F65,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F65,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H65,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H65,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H65,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H65,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H65,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10304,7 +10310,7 @@
         <f t="shared" ref="F66:F129" si="4">IFERROR(MID(B66,FIND(" casts ",B66,1)+7,IFERROR(FIND(" on ",B66,1)-FIND(" casts ",B66,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="12">
         <f t="array" ref="G66">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E65)))</f>
         <v>0</v>
       </c>
@@ -10313,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F66,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F66,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F66,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F66,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F66,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H66,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H66,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H66,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H66,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H66,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10331,7 +10337,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="12">
         <f t="array" ref="G67">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E66)))</f>
         <v>0</v>
       </c>
@@ -10340,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F67,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F67,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F67,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F67,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F67,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H67,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H67,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H67,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H67,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H67,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10358,7 +10364,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="12">
         <f t="array" ref="G68">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E67)))</f>
         <v>0</v>
       </c>
@@ -10367,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F68,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F68,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F68,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F68,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F68,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H68,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H68,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H68,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H68,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H68,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10385,7 +10391,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="12">
         <f t="array" ref="G69">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E68)))</f>
         <v>0</v>
       </c>
@@ -10394,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F69,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F69,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F69,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F69,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F69,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H69,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H69,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H69,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H69,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H69,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10412,7 +10418,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="12">
         <f t="array" ref="G70">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E69)))</f>
         <v>0</v>
       </c>
@@ -10421,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F70,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F70,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F70,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F70,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F70,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H70,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H70,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H70,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H70,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H70,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10439,7 +10445,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="12">
         <f t="array" ref="G71">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E70)))</f>
         <v>0</v>
       </c>
@@ -10448,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F71,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F71,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F71,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F71,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F71,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H71,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H71,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H71,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H71,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H71,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10466,7 +10472,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="12">
         <f t="array" ref="G72">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E71)))</f>
         <v>0</v>
       </c>
@@ -10475,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F72,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F72,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F72,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F72,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F72,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H72,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H72,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H72,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H72,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H72,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10493,7 +10499,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="12">
         <f t="array" ref="G73">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E72)))</f>
         <v>0</v>
       </c>
@@ -10502,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F73,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F73,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F73,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F73,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F73,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H73,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H73,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H73,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H73,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H73,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10520,7 +10526,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="12">
         <f t="array" ref="G74">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E73)))</f>
         <v>0</v>
       </c>
@@ -10529,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F74,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F74,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F74,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F74,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F74,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H74,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H74,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H74,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H74,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H74,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10547,7 +10553,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="12">
         <f t="array" ref="G75">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E74)))</f>
         <v>0</v>
       </c>
@@ -10556,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F75,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F75,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F75,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F75,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F75,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H75,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H75,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H75,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H75,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H75,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10574,7 +10580,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="12">
         <f t="array" ref="G76">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E75)))</f>
         <v>0</v>
       </c>
@@ -10583,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F76,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F76,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F76,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F76,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F76,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H76,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H76,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H76,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H76,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H76,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10601,7 +10607,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="12">
         <f t="array" ref="G77">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E76)))</f>
         <v>0</v>
       </c>
@@ -10610,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F77,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F77,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F77,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F77,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F77,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H77,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H77,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H77,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H77,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H77,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10628,7 +10634,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="12">
         <f t="array" ref="G78">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E77)))</f>
         <v>0</v>
       </c>
@@ -10637,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F78,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F78,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F78,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F78,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F78,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H78,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H78,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H78,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H78,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H78,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10655,7 +10661,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="12">
         <f t="array" ref="G79">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E78)))</f>
         <v>0</v>
       </c>
@@ -10664,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F79,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F79,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F79,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F79,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F79,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H79,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H79,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H79,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H79,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H79,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10682,7 +10688,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="12">
         <f t="array" ref="G80">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E79)))</f>
         <v>0</v>
       </c>
@@ -10691,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F80,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F80,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F80,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F80,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F80,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H80,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H80,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H80,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H80,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H80,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10709,7 +10715,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="12">
         <f t="array" ref="G81">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E80)))</f>
         <v>0</v>
       </c>
@@ -10718,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F81,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F81,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F81,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F81,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F81,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H81,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H81,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H81,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H81,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H81,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10736,7 +10742,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="12">
         <f t="array" ref="G82">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E81)))</f>
         <v>0</v>
       </c>
@@ -10745,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F82,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F82,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F82,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F82,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F82,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H82,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H82,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H82,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H82,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H82,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10763,7 +10769,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="12">
         <f t="array" ref="G83">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E82)))</f>
         <v>0</v>
       </c>
@@ -10772,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F83,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F83,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F83,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F83,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F83,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H83,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H83,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H83,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H83,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H83,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10790,7 +10796,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="12">
         <f t="array" ref="G84">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E83)))</f>
         <v>0</v>
       </c>
@@ -10799,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F84,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F84,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F84,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F84,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F84,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H84,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H84,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H84,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H84,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H84,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10817,7 +10823,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="12">
         <f t="array" ref="G85">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E84)))</f>
         <v>0</v>
       </c>
@@ -10826,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F85,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F85,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F85,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F85,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F85,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H85,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H85,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H85,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H85,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H85,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10844,7 +10850,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="12">
         <f t="array" ref="G86">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E85)))</f>
         <v>0</v>
       </c>
@@ -10853,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F86,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F86,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F86,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F86,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F86,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H86,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H86,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H86,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H86,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H86,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10871,7 +10877,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="12">
         <f t="array" ref="G87">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E86)))</f>
         <v>0</v>
       </c>
@@ -10880,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F87,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F87,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F87,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F87,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F87,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H87,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H87,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H87,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H87,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H87,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10898,7 +10904,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="12">
         <f t="array" ref="G88">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E87)))</f>
         <v>0</v>
       </c>
@@ -10907,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F88,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F88,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F88,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F88,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F88,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H88,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H88,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H88,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H88,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H88,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10925,7 +10931,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="12">
         <f t="array" ref="G89">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E88)))</f>
         <v>0</v>
       </c>
@@ -10934,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F89,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F89,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F89,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F89,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F89,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H89,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H89,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H89,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H89,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H89,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10952,7 +10958,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="12">
         <f t="array" ref="G90">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E89)))</f>
         <v>0</v>
       </c>
@@ -10961,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F90,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F90,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F90,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F90,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F90,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H90,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H90,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H90,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H90,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H90,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -10979,7 +10985,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="12">
         <f t="array" ref="G91">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E90)))</f>
         <v>0</v>
       </c>
@@ -10988,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F91,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F91,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F91,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F91,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F91,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H91,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H91,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H91,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H91,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H91,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11006,7 +11012,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="12">
         <f t="array" ref="G92">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E91)))</f>
         <v>0</v>
       </c>
@@ -11015,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F92,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F92,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F92,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F92,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F92,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H92,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H92,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H92,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H92,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H92,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11033,7 +11039,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="12">
         <f t="array" ref="G93">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E92)))</f>
         <v>0</v>
       </c>
@@ -11042,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F93,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F93,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F93,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F93,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F93,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H93,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H93,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H93,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H93,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H93,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11060,7 +11066,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="12">
         <f t="array" ref="G94">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E93)))</f>
         <v>0</v>
       </c>
@@ -11069,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F94,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F94,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F94,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F94,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F94,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H94,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H94,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H94,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H94,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H94,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11087,7 +11093,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="12">
         <f t="array" ref="G95">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E94)))</f>
         <v>0</v>
       </c>
@@ -11096,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F95,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F95,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F95,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F95,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F95,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H95,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H95,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H95,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H95,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H95,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11114,7 +11120,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="12">
         <f t="array" ref="G96">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E95)))</f>
         <v>0</v>
       </c>
@@ -11123,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F96,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F96,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F96,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F96,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F96,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H96,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H96,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H96,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H96,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H96,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11141,7 +11147,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="12">
         <f t="array" ref="G97">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E96)))</f>
         <v>0</v>
       </c>
@@ -11150,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F97,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F97,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F97,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F97,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F97,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H97,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H97,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H97,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H97,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H97,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11168,7 +11174,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="12">
         <f t="array" ref="G98">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E97)))</f>
         <v>0</v>
       </c>
@@ -11177,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F98,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F98,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F98,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F98,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F98,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H98,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H98,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H98,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H98,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H98,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11195,7 +11201,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="12">
         <f t="array" ref="G99">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E98)))</f>
         <v>0</v>
       </c>
@@ -11204,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F99,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F99,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F99,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F99,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F99,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H99,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H99,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H99,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H99,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H99,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11222,7 +11228,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="12">
         <f t="array" ref="G100">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E99)))</f>
         <v>0</v>
       </c>
@@ -11231,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F100,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F100,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F100,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F100,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F100,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H100,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H100,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H100,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H100,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H100,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11249,7 +11255,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="12">
         <f t="array" ref="G101">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E100)))</f>
         <v>0</v>
       </c>
@@ -11258,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F101,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F101,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F101,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F101,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F101,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H101,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H101,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H101,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H101,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H101,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11276,7 +11282,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="12">
         <f t="array" ref="G102">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E101)))</f>
         <v>0</v>
       </c>
@@ -11285,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F102,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F102,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F102,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F102,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F102,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H102,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H102,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H102,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H102,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H102,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11303,7 +11309,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="12">
         <f t="array" ref="G103">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E102)))</f>
         <v>0</v>
       </c>
@@ -11312,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F103,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F103,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F103,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F103,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F103,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H103,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H103,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H103,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H103,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H103,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11330,7 +11336,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="12">
         <f t="array" ref="G104">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E103)))</f>
         <v>0</v>
       </c>
@@ -11339,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F104,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F104,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F104,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F104,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F104,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H104,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H104,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H104,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H104,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H104,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11357,7 +11363,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="12">
         <f t="array" ref="G105">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E104)))</f>
         <v>0</v>
       </c>
@@ -11366,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F105,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F105,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F105,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F105,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F105,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H105,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H105,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H105,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H105,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H105,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11384,7 +11390,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="12">
         <f t="array" ref="G106">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E105)))</f>
         <v>0</v>
       </c>
@@ -11393,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F106,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F106,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F106,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F106,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F106,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H106,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H106,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H106,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H106,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H106,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11411,7 +11417,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="12">
         <f t="array" ref="G107">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E106)))</f>
         <v>0</v>
       </c>
@@ -11420,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F107,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F107,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F107,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F107,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F107,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H107,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H107,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H107,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H107,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H107,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11438,7 +11444,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="12">
         <f t="array" ref="G108">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E107)))</f>
         <v>0</v>
       </c>
@@ -11447,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F108,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F108,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F108,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F108,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F108,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H108,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H108,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H108,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H108,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H108,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11465,7 +11471,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="12">
         <f t="array" ref="G109">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E108)))</f>
         <v>0</v>
       </c>
@@ -11474,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F109,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F109,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F109,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F109,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F109,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H109,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H109,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H109,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H109,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H109,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11492,7 +11498,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="12">
         <f t="array" ref="G110">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E109)))</f>
         <v>0</v>
       </c>
@@ -11501,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F110,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F110,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F110,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F110,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F110,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H110,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H110,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H110,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H110,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H110,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11519,7 +11525,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="12">
         <f t="array" ref="G111">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E110)))</f>
         <v>0</v>
       </c>
@@ -11528,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F111,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F111,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F111,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F111,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F111,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H111,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H111,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H111,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H111,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H111,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11546,7 +11552,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="12">
         <f t="array" ref="G112">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E111)))</f>
         <v>0</v>
       </c>
@@ -11555,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F112,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F112,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F112,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F112,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F112,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H112,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H112,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H112,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H112,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H112,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11573,7 +11579,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="12">
         <f t="array" ref="G113">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E112)))</f>
         <v>0</v>
       </c>
@@ -11582,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F113,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F113,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F113,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F113,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F113,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H113,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H113,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H113,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H113,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H113,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11600,7 +11606,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="12">
         <f t="array" ref="G114">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E113)))</f>
         <v>0</v>
       </c>
@@ -11609,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F114,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F114,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F114,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F114,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F114,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H114,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H114,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H114,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H114,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H114,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11627,7 +11633,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="12">
         <f t="array" ref="G115">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E114)))</f>
         <v>0</v>
       </c>
@@ -11636,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F115,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F115,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F115,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F115,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F115,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H115,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H115,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H115,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H115,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H115,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11654,7 +11660,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G116" s="5">
+      <c r="G116" s="12">
         <f t="array" ref="G116">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E115)))</f>
         <v>0</v>
       </c>
@@ -11663,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F116,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F116,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F116,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F116,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F116,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H116,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H116,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H116,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H116,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H116,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11681,7 +11687,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="12">
         <f t="array" ref="G117">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E116)))</f>
         <v>0</v>
       </c>
@@ -11690,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F117,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F117,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F117,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F117,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F117,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H117,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H117,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H117,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H117,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H117,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11708,7 +11714,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G118" s="5">
+      <c r="G118" s="12">
         <f t="array" ref="G118">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E117)))</f>
         <v>0</v>
       </c>
@@ -11717,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F118,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F118,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F118,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F118,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F118,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H118,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H118,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H118,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H118,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H118,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11735,7 +11741,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="12">
         <f t="array" ref="G119">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E118)))</f>
         <v>0</v>
       </c>
@@ -11744,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F119,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F119,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F119,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F119,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F119,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H119,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H119,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H119,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H119,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H119,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11762,7 +11768,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="12">
         <f t="array" ref="G120">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E119)))</f>
         <v>0</v>
       </c>
@@ -11771,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F120,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F120,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F120,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F120,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F120,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H120,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H120,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H120,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H120,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H120,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11789,7 +11795,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="12">
         <f t="array" ref="G121">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E120)))</f>
         <v>0</v>
       </c>
@@ -11798,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F121,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F121,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F121,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F121,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F121,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H121,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H121,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H121,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H121,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H121,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11816,7 +11822,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="12">
         <f t="array" ref="G122">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E121)))</f>
         <v>0</v>
       </c>
@@ -11825,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F122,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F122,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F122,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F122,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F122,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H122,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H122,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H122,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H122,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H122,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11843,7 +11849,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="12">
         <f t="array" ref="G123">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E122)))</f>
         <v>0</v>
       </c>
@@ -11852,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F123,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F123,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F123,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F123,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F123,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H123,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H123,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H123,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H123,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H123,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11870,7 +11876,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G124" s="5">
+      <c r="G124" s="12">
         <f t="array" ref="G124">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E123)))</f>
         <v>0</v>
       </c>
@@ -11879,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F124,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F124,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F124,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F124,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F124,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H124,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H124,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H124,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H124,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H124,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11897,7 +11903,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="12">
         <f t="array" ref="G125">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E124)))</f>
         <v>0</v>
       </c>
@@ -11906,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F125,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F125,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F125,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F125,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F125,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H125,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H125,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H125,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H125,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H125,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11924,7 +11930,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="12">
         <f t="array" ref="G126">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E125)))</f>
         <v>0</v>
       </c>
@@ -11933,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F126,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F126,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F126,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F126,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F126,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H126,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H126,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H126,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H126,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H126,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11951,7 +11957,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="12">
         <f t="array" ref="G127">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E126)))</f>
         <v>0</v>
       </c>
@@ -11960,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F127,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F127,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F127,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F127,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F127,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H127,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H127,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H127,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H127,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H127,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -11978,7 +11984,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="12">
         <f t="array" ref="G128">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E127)))</f>
         <v>0</v>
       </c>
@@ -11987,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F128,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F128,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F128,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F128,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F128,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H128,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H128,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H128,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H128,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H128,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12005,7 +12011,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="12">
         <f t="array" ref="G129">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E128)))</f>
         <v>0</v>
       </c>
@@ -12014,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F129,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F129,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F129,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F129,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F129,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H129,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H129,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H129,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H129,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H129,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12032,7 +12038,7 @@
         <f t="shared" ref="F130:F193" si="7">IFERROR(MID(B130,FIND(" casts ",B130,1)+7,IFERROR(FIND(" on ",B130,1)-FIND(" casts ",B130,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G130" s="5">
+      <c r="G130" s="12">
         <f t="array" ref="G130">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E129)))</f>
         <v>0</v>
       </c>
@@ -12041,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F130,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F130,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F130,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F130,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F130,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H130,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H130,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H130,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H130,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H130,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12059,7 +12065,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="12">
         <f t="array" ref="G131">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E130)))</f>
         <v>0</v>
       </c>
@@ -12068,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F131,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F131,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F131,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F131,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F131,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H131,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H131,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H131,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H131,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H131,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12086,7 +12092,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G132" s="5">
+      <c r="G132" s="12">
         <f t="array" ref="G132">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E131)))</f>
         <v>0</v>
       </c>
@@ -12095,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F132,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F132,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F132,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F132,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F132,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H132,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H132,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H132,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H132,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H132,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12113,7 +12119,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G133" s="5">
+      <c r="G133" s="12">
         <f t="array" ref="G133">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E132)))</f>
         <v>0</v>
       </c>
@@ -12122,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F133,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F133,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F133,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F133,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F133,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H133,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H133,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H133,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H133,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H133,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12140,7 +12146,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="12">
         <f t="array" ref="G134">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E133)))</f>
         <v>0</v>
       </c>
@@ -12149,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F134,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F134,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F134,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F134,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F134,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H134,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H134,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H134,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H134,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H134,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12167,7 +12173,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G135" s="5">
+      <c r="G135" s="12">
         <f t="array" ref="G135">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E134)))</f>
         <v>0</v>
       </c>
@@ -12176,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F135,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F135,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F135,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F135,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F135,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H135,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H135,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H135,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H135,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H135,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12194,7 +12200,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G136" s="5">
+      <c r="G136" s="12">
         <f t="array" ref="G136">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E135)))</f>
         <v>0</v>
       </c>
@@ -12203,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F136,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F136,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F136,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F136,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F136,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H136,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H136,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H136,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H136,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H136,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12221,7 +12227,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G137" s="5">
+      <c r="G137" s="12">
         <f t="array" ref="G137">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E136)))</f>
         <v>0</v>
       </c>
@@ -12230,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F137,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F137,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F137,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F137,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F137,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H137,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H137,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H137,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H137,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H137,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12248,7 +12254,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G138" s="5">
+      <c r="G138" s="12">
         <f t="array" ref="G138">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E137)))</f>
         <v>0</v>
       </c>
@@ -12257,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F138,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F138,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F138,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F138,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F138,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H138,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H138,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H138,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H138,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H138,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12275,7 +12281,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G139" s="5">
+      <c r="G139" s="12">
         <f t="array" ref="G139">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E138)))</f>
         <v>0</v>
       </c>
@@ -12284,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F139,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F139,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F139,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F139,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F139,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H139,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H139,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H139,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H139,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H139,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12302,7 +12308,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G140" s="5">
+      <c r="G140" s="12">
         <f t="array" ref="G140">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E139)))</f>
         <v>0</v>
       </c>
@@ -12311,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F140,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F140,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F140,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F140,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F140,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H140,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H140,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H140,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H140,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H140,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12329,7 +12335,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G141" s="5">
+      <c r="G141" s="12">
         <f t="array" ref="G141">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E140)))</f>
         <v>0</v>
       </c>
@@ -12338,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F141,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F141,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F141,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F141,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F141,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H141,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H141,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H141,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H141,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H141,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12356,7 +12362,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G142" s="5">
+      <c r="G142" s="12">
         <f t="array" ref="G142">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E141)))</f>
         <v>0</v>
       </c>
@@ -12365,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="I142" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F142,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F142,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F142,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F142,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F142,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H142,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H142,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H142,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H142,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H142,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12383,7 +12389,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G143" s="5">
+      <c r="G143" s="12">
         <f t="array" ref="G143">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E142)))</f>
         <v>0</v>
       </c>
@@ -12392,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F143,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F143,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F143,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F143,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F143,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H143,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H143,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H143,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H143,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H143,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12410,7 +12416,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G144" s="5">
+      <c r="G144" s="12">
         <f t="array" ref="G144">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E143)))</f>
         <v>0</v>
       </c>
@@ -12419,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="I144" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F144,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F144,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F144,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F144,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F144,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H144,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H144,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H144,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H144,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H144,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12437,7 +12443,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G145" s="5">
+      <c r="G145" s="12">
         <f t="array" ref="G145">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E144)))</f>
         <v>0</v>
       </c>
@@ -12446,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F145,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F145,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F145,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F145,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F145,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H145,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H145,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H145,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H145,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H145,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12464,7 +12470,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G146" s="5">
+      <c r="G146" s="12">
         <f t="array" ref="G146">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E145)))</f>
         <v>0</v>
       </c>
@@ -12473,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F146,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F146,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F146,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F146,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F146,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H146,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H146,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H146,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H146,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H146,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12491,7 +12497,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G147" s="5">
+      <c r="G147" s="12">
         <f t="array" ref="G147">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E146)))</f>
         <v>0</v>
       </c>
@@ -12500,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F147,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F147,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F147,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F147,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F147,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H147,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H147,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H147,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H147,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H147,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12518,7 +12524,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G148" s="5">
+      <c r="G148" s="12">
         <f t="array" ref="G148">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E147)))</f>
         <v>0</v>
       </c>
@@ -12527,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F148,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F148,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F148,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F148,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F148,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H148,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H148,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H148,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H148,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H148,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12545,7 +12551,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G149" s="5">
+      <c r="G149" s="12">
         <f t="array" ref="G149">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E148)))</f>
         <v>0</v>
       </c>
@@ -12554,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F149,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F149,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F149,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F149,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F149,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H149,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H149,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H149,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H149,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H149,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12572,7 +12578,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G150" s="5">
+      <c r="G150" s="12">
         <f t="array" ref="G150">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E149)))</f>
         <v>0</v>
       </c>
@@ -12581,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F150,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F150,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F150,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F150,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F150,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H150,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H150,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H150,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H150,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H150,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12599,7 +12605,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G151" s="5">
+      <c r="G151" s="12">
         <f t="array" ref="G151">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E150)))</f>
         <v>0</v>
       </c>
@@ -12608,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F151,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F151,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F151,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F151,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F151,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H151,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H151,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H151,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H151,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H151,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12626,7 +12632,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G152" s="5">
+      <c r="G152" s="12">
         <f t="array" ref="G152">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E151)))</f>
         <v>0</v>
       </c>
@@ -12635,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F152,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F152,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F152,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F152,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F152,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H152,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H152,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H152,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H152,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H152,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12653,7 +12659,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G153" s="5">
+      <c r="G153" s="12">
         <f t="array" ref="G153">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E152)))</f>
         <v>0</v>
       </c>
@@ -12662,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F153,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F153,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F153,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F153,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F153,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H153,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H153,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H153,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H153,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H153,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12680,7 +12686,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G154" s="5">
+      <c r="G154" s="12">
         <f t="array" ref="G154">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E153)))</f>
         <v>0</v>
       </c>
@@ -12689,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F154,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F154,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F154,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F154,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F154,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H154,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H154,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H154,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H154,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H154,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12707,7 +12713,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G155" s="5">
+      <c r="G155" s="12">
         <f t="array" ref="G155">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E154)))</f>
         <v>0</v>
       </c>
@@ -12716,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F155,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F155,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F155,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F155,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F155,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H155,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H155,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H155,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H155,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H155,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12734,7 +12740,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G156" s="5">
+      <c r="G156" s="12">
         <f t="array" ref="G156">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E155)))</f>
         <v>0</v>
       </c>
@@ -12743,7 +12749,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F156,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F156,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F156,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F156,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F156,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H156,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H156,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H156,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H156,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H156,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12761,7 +12767,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G157" s="5">
+      <c r="G157" s="12">
         <f t="array" ref="G157">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E156)))</f>
         <v>0</v>
       </c>
@@ -12770,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F157,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F157,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F157,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F157,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F157,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H157,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H157,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H157,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H157,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H157,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12788,7 +12794,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G158" s="5">
+      <c r="G158" s="12">
         <f t="array" ref="G158">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E157)))</f>
         <v>0</v>
       </c>
@@ -12797,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F158,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F158,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F158,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F158,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F158,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H158,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H158,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H158,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H158,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H158,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12815,7 +12821,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G159" s="5">
+      <c r="G159" s="12">
         <f t="array" ref="G159">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E158)))</f>
         <v>0</v>
       </c>
@@ -12824,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F159,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F159,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F159,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F159,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F159,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H159,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H159,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H159,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H159,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H159,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12842,7 +12848,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G160" s="5">
+      <c r="G160" s="12">
         <f t="array" ref="G160">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E159)))</f>
         <v>0</v>
       </c>
@@ -12851,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F160,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F160,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F160,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F160,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F160,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H160,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H160,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H160,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H160,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H160,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12869,7 +12875,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G161" s="5">
+      <c r="G161" s="12">
         <f t="array" ref="G161">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E160)))</f>
         <v>0</v>
       </c>
@@ -12878,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F161,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F161,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F161,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F161,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F161,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H161,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H161,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H161,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H161,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H161,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12896,7 +12902,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G162" s="5">
+      <c r="G162" s="12">
         <f t="array" ref="G162">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E161)))</f>
         <v>0</v>
       </c>
@@ -12905,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F162,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F162,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F162,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F162,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F162,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H162,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H162,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H162,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H162,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H162,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12923,7 +12929,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G163" s="5">
+      <c r="G163" s="12">
         <f t="array" ref="G163">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E162)))</f>
         <v>0</v>
       </c>
@@ -12932,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F163,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F163,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F163,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F163,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F163,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H163,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H163,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H163,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H163,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H163,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12950,7 +12956,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G164" s="5">
+      <c r="G164" s="12">
         <f t="array" ref="G164">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E163)))</f>
         <v>0</v>
       </c>
@@ -12959,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F164,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F164,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F164,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F164,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F164,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H164,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H164,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H164,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H164,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H164,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -12977,7 +12983,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G165" s="5">
+      <c r="G165" s="12">
         <f t="array" ref="G165">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E164)))</f>
         <v>0</v>
       </c>
@@ -12986,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F165,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F165,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F165,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F165,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F165,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H165,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H165,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H165,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H165,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H165,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13004,7 +13010,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G166" s="5">
+      <c r="G166" s="12">
         <f t="array" ref="G166">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E165)))</f>
         <v>0</v>
       </c>
@@ -13013,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="I166" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F166,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F166,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F166,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F166,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F166,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H166,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H166,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H166,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H166,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H166,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13031,7 +13037,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G167" s="5">
+      <c r="G167" s="12">
         <f t="array" ref="G167">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E166)))</f>
         <v>0</v>
       </c>
@@ -13040,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F167,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F167,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F167,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F167,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F167,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H167,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H167,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H167,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H167,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H167,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13058,7 +13064,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G168" s="5">
+      <c r="G168" s="12">
         <f t="array" ref="G168">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E167)))</f>
         <v>0</v>
       </c>
@@ -13067,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F168,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F168,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F168,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F168,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F168,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H168,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H168,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H168,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H168,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H168,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13085,7 +13091,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G169" s="5">
+      <c r="G169" s="12">
         <f t="array" ref="G169">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E168)))</f>
         <v>0</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F169,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F169,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F169,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F169,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F169,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H169,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H169,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H169,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H169,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H169,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13112,7 +13118,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G170" s="5">
+      <c r="G170" s="12">
         <f t="array" ref="G170">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E169)))</f>
         <v>0</v>
       </c>
@@ -13121,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="I170" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F170,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F170,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F170,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F170,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F170,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H170,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H170,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H170,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H170,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H170,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13139,7 +13145,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G171" s="5">
+      <c r="G171" s="12">
         <f t="array" ref="G171">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E170)))</f>
         <v>0</v>
       </c>
@@ -13148,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="I171" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F171,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F171,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F171,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F171,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F171,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H171,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H171,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H171,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H171,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H171,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13166,7 +13172,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G172" s="5">
+      <c r="G172" s="12">
         <f t="array" ref="G172">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E171)))</f>
         <v>0</v>
       </c>
@@ -13175,7 +13181,7 @@
         <v>0</v>
       </c>
       <c r="I172" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F172,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F172,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F172,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F172,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F172,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H172,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H172,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H172,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H172,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H172,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13193,7 +13199,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G173" s="5">
+      <c r="G173" s="12">
         <f t="array" ref="G173">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E172)))</f>
         <v>0</v>
       </c>
@@ -13202,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F173,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F173,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F173,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F173,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F173,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H173,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H173,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H173,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H173,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H173,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13220,7 +13226,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G174" s="5">
+      <c r="G174" s="12">
         <f t="array" ref="G174">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E173)))</f>
         <v>0</v>
       </c>
@@ -13229,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F174,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F174,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F174,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F174,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F174,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H174,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H174,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H174,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H174,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H174,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13247,7 +13253,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G175" s="5">
+      <c r="G175" s="12">
         <f t="array" ref="G175">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E174)))</f>
         <v>0</v>
       </c>
@@ -13256,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="I175" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F175,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F175,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F175,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F175,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F175,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H175,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H175,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H175,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H175,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H175,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13274,7 +13280,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G176" s="5">
+      <c r="G176" s="12">
         <f t="array" ref="G176">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E175)))</f>
         <v>0</v>
       </c>
@@ -13283,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F176,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F176,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F176,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F176,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F176,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H176,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H176,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H176,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H176,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H176,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13301,7 +13307,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G177" s="5">
+      <c r="G177" s="12">
         <f t="array" ref="G177">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E176)))</f>
         <v>0</v>
       </c>
@@ -13310,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="I177" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F177,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F177,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F177,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F177,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F177,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H177,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H177,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H177,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H177,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H177,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13328,7 +13334,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G178" s="5">
+      <c r="G178" s="12">
         <f t="array" ref="G178">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E177)))</f>
         <v>0</v>
       </c>
@@ -13337,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="I178" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F178,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F178,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F178,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F178,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F178,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H178,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H178,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H178,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H178,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H178,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13355,7 +13361,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G179" s="5">
+      <c r="G179" s="12">
         <f t="array" ref="G179">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E178)))</f>
         <v>0</v>
       </c>
@@ -13364,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F179,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F179,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F179,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F179,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F179,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H179,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H179,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H179,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H179,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H179,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13382,7 +13388,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G180" s="5">
+      <c r="G180" s="12">
         <f t="array" ref="G180">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E179)))</f>
         <v>0</v>
       </c>
@@ -13391,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F180,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F180,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F180,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F180,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F180,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H180,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H180,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H180,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H180,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H180,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13409,7 +13415,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G181" s="5">
+      <c r="G181" s="12">
         <f t="array" ref="G181">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E180)))</f>
         <v>0</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F181,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F181,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F181,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F181,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F181,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H181,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H181,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H181,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H181,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H181,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13436,7 +13442,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G182" s="5">
+      <c r="G182" s="12">
         <f t="array" ref="G182">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E181)))</f>
         <v>0</v>
       </c>
@@ -13445,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F182,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F182,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F182,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F182,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F182,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H182,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H182,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H182,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H182,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H182,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13463,7 +13469,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G183" s="5">
+      <c r="G183" s="12">
         <f t="array" ref="G183">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E182)))</f>
         <v>0</v>
       </c>
@@ -13472,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F183,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F183,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F183,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F183,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F183,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H183,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H183,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H183,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H183,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H183,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13490,7 +13496,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G184" s="5">
+      <c r="G184" s="12">
         <f t="array" ref="G184">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E183)))</f>
         <v>0</v>
       </c>
@@ -13499,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F184,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F184,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F184,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F184,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F184,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H184,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H184,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H184,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H184,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H184,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13517,7 +13523,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G185" s="5">
+      <c r="G185" s="12">
         <f t="array" ref="G185">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E184)))</f>
         <v>0</v>
       </c>
@@ -13526,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F185,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F185,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F185,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F185,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F185,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H185,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H185,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H185,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H185,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H185,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13544,7 +13550,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G186" s="5">
+      <c r="G186" s="12">
         <f t="array" ref="G186">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E185)))</f>
         <v>0</v>
       </c>
@@ -13553,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F186,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F186,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F186,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F186,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F186,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H186,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H186,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H186,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H186,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H186,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13571,7 +13577,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G187" s="5">
+      <c r="G187" s="12">
         <f t="array" ref="G187">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E186)))</f>
         <v>0</v>
       </c>
@@ -13580,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F187,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F187,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F187,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F187,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F187,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H187,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H187,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H187,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H187,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H187,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13598,7 +13604,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G188" s="5">
+      <c r="G188" s="12">
         <f t="array" ref="G188">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E187)))</f>
         <v>0</v>
       </c>
@@ -13607,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F188,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F188,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F188,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F188,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F188,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H188,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H188,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H188,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H188,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H188,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13625,7 +13631,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G189" s="5">
+      <c r="G189" s="12">
         <f t="array" ref="G189">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E188)))</f>
         <v>0</v>
       </c>
@@ -13634,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F189,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F189,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F189,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F189,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F189,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H189,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H189,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H189,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H189,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H189,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13652,7 +13658,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G190" s="5">
+      <c r="G190" s="12">
         <f t="array" ref="G190">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E189)))</f>
         <v>0</v>
       </c>
@@ -13661,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F190,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F190,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F190,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F190,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F190,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H190,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H190,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H190,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H190,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H190,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13679,7 +13685,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G191" s="5">
+      <c r="G191" s="12">
         <f t="array" ref="G191">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E190)))</f>
         <v>0</v>
       </c>
@@ -13688,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F191,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F191,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F191,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F191,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F191,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H191,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H191,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H191,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H191,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H191,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13706,7 +13712,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G192" s="5">
+      <c r="G192" s="12">
         <f t="array" ref="G192">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E191)))</f>
         <v>0</v>
       </c>
@@ -13715,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F192,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F192,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F192,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F192,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F192,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H192,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H192,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H192,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H192,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H192,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13733,7 +13739,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G193" s="5">
+      <c r="G193" s="12">
         <f t="array" ref="G193">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E192)))</f>
         <v>0</v>
       </c>
@@ -13742,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F193,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F193,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F193,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F193,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F193,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H193,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H193,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H193,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H193,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H193,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13760,7 +13766,7 @@
         <f t="shared" ref="F194:F257" si="10">IFERROR(MID(B194,FIND(" casts ",B194,1)+7,IFERROR(FIND(" on ",B194,1)-FIND(" casts ",B194,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G194" s="5">
+      <c r="G194" s="12">
         <f t="array" ref="G194">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E193)))</f>
         <v>0</v>
       </c>
@@ -13769,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F194,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F194,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F194,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F194,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F194,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H194,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H194,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H194,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H194,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H194,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13787,7 +13793,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G195" s="5">
+      <c r="G195" s="12">
         <f t="array" ref="G195">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E194)))</f>
         <v>0</v>
       </c>
@@ -13796,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F195,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F195,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F195,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F195,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F195,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H195,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H195,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H195,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H195,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H195,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13814,7 +13820,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G196" s="5">
+      <c r="G196" s="12">
         <f t="array" ref="G196">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E195)))</f>
         <v>0</v>
       </c>
@@ -13823,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F196,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F196,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F196,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F196,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F196,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H196,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H196,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H196,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H196,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H196,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13841,7 +13847,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G197" s="5">
+      <c r="G197" s="12">
         <f t="array" ref="G197">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E196)))</f>
         <v>0</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F197,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F197,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F197,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F197,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F197,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H197,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H197,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H197,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H197,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H197,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13868,7 +13874,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G198" s="5">
+      <c r="G198" s="12">
         <f t="array" ref="G198">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E197)))</f>
         <v>0</v>
       </c>
@@ -13877,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F198,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F198,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F198,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F198,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F198,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H198,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H198,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H198,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H198,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H198,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13895,7 +13901,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G199" s="5">
+      <c r="G199" s="12">
         <f t="array" ref="G199">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E198)))</f>
         <v>0</v>
       </c>
@@ -13904,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F199,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F199,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F199,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F199,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F199,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H199,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H199,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H199,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H199,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H199,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13922,7 +13928,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G200" s="5">
+      <c r="G200" s="12">
         <f t="array" ref="G200">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E199)))</f>
         <v>0</v>
       </c>
@@ -13931,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F200,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F200,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F200,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F200,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F200,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H200,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H200,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H200,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H200,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H200,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13949,7 +13955,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G201" s="5">
+      <c r="G201" s="12">
         <f t="array" ref="G201">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E200)))</f>
         <v>0</v>
       </c>
@@ -13958,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F201,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F201,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F201,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F201,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F201,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H201,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H201,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H201,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H201,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H201,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -13976,7 +13982,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G202" s="5">
+      <c r="G202" s="12">
         <f t="array" ref="G202">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E201)))</f>
         <v>0</v>
       </c>
@@ -13985,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F202,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F202,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F202,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F202,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F202,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H202,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H202,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H202,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H202,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H202,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14003,7 +14009,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G203" s="5">
+      <c r="G203" s="12">
         <f t="array" ref="G203">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E202)))</f>
         <v>0</v>
       </c>
@@ -14012,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F203,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F203,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F203,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F203,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F203,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H203,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H203,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H203,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H203,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H203,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14030,7 +14036,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G204" s="5">
+      <c r="G204" s="12">
         <f t="array" ref="G204">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E203)))</f>
         <v>0</v>
       </c>
@@ -14039,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F204,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F204,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F204,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F204,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F204,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H204,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H204,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H204,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H204,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H204,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14057,7 +14063,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G205" s="5">
+      <c r="G205" s="12">
         <f t="array" ref="G205">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E204)))</f>
         <v>0</v>
       </c>
@@ -14066,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="I205" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F205,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F205,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F205,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F205,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F205,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H205,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H205,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H205,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H205,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H205,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14084,7 +14090,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G206" s="5">
+      <c r="G206" s="12">
         <f t="array" ref="G206">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E205)))</f>
         <v>0</v>
       </c>
@@ -14093,7 +14099,7 @@
         <v>0</v>
       </c>
       <c r="I206" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F206,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F206,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F206,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F206,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F206,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H206,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H206,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H206,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H206,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H206,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14111,7 +14117,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G207" s="5">
+      <c r="G207" s="12">
         <f t="array" ref="G207">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E206)))</f>
         <v>0</v>
       </c>
@@ -14120,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F207,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F207,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F207,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F207,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F207,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H207,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H207,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H207,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H207,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H207,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14138,7 +14144,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G208" s="5">
+      <c r="G208" s="12">
         <f t="array" ref="G208">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E207)))</f>
         <v>0</v>
       </c>
@@ -14147,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F208,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F208,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F208,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F208,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F208,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H208,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H208,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H208,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H208,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H208,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14165,7 +14171,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G209" s="5">
+      <c r="G209" s="12">
         <f t="array" ref="G209">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E208)))</f>
         <v>0</v>
       </c>
@@ -14174,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F209,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F209,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F209,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F209,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F209,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H209,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H209,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H209,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H209,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H209,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14192,7 +14198,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G210" s="5">
+      <c r="G210" s="12">
         <f t="array" ref="G210">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E209)))</f>
         <v>0</v>
       </c>
@@ -14201,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F210,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F210,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F210,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F210,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F210,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H210,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H210,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H210,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H210,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H210,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14219,7 +14225,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G211" s="5">
+      <c r="G211" s="12">
         <f t="array" ref="G211">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E210)))</f>
         <v>0</v>
       </c>
@@ -14228,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="I211" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F211,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F211,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F211,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F211,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F211,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H211,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H211,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H211,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H211,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H211,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14246,7 +14252,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G212" s="5">
+      <c r="G212" s="12">
         <f t="array" ref="G212">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E211)))</f>
         <v>0</v>
       </c>
@@ -14255,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="I212" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F212,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F212,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F212,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F212,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F212,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H212,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H212,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H212,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H212,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H212,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14273,7 +14279,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G213" s="5">
+      <c r="G213" s="12">
         <f t="array" ref="G213">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E212)))</f>
         <v>0</v>
       </c>
@@ -14282,7 +14288,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F213,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F213,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F213,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F213,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F213,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H213,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H213,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H213,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H213,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H213,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14300,7 +14306,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G214" s="5">
+      <c r="G214" s="12">
         <f t="array" ref="G214">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E213)))</f>
         <v>0</v>
       </c>
@@ -14309,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F214,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F214,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F214,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F214,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F214,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H214,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H214,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H214,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H214,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H214,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14327,7 +14333,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G215" s="5">
+      <c r="G215" s="12">
         <f t="array" ref="G215">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E214)))</f>
         <v>0</v>
       </c>
@@ -14336,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F215,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F215,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F215,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F215,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F215,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H215,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H215,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H215,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H215,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H215,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14354,7 +14360,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G216" s="5">
+      <c r="G216" s="12">
         <f t="array" ref="G216">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E215)))</f>
         <v>0</v>
       </c>
@@ -14363,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F216,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F216,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F216,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F216,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F216,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H216,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H216,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H216,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H216,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H216,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14381,7 +14387,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G217" s="5">
+      <c r="G217" s="12">
         <f t="array" ref="G217">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E216)))</f>
         <v>0</v>
       </c>
@@ -14390,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F217,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F217,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F217,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F217,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F217,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H217,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H217,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H217,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H217,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H217,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14408,7 +14414,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G218" s="5">
+      <c r="G218" s="12">
         <f t="array" ref="G218">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E217)))</f>
         <v>0</v>
       </c>
@@ -14417,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F218,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F218,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F218,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F218,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F218,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H218,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H218,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H218,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H218,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H218,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14435,7 +14441,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G219" s="5">
+      <c r="G219" s="12">
         <f t="array" ref="G219">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E218)))</f>
         <v>0</v>
       </c>
@@ -14444,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F219,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F219,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F219,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F219,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F219,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H219,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H219,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H219,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H219,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H219,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14462,7 +14468,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G220" s="5">
+      <c r="G220" s="12">
         <f t="array" ref="G220">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E219)))</f>
         <v>0</v>
       </c>
@@ -14471,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F220,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F220,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F220,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F220,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F220,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H220,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H220,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H220,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H220,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H220,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14489,7 +14495,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G221" s="5">
+      <c r="G221" s="12">
         <f t="array" ref="G221">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E220)))</f>
         <v>0</v>
       </c>
@@ -14498,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F221,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F221,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F221,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F221,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F221,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H221,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H221,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H221,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H221,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H221,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14516,7 +14522,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G222" s="5">
+      <c r="G222" s="12">
         <f t="array" ref="G222">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E221)))</f>
         <v>0</v>
       </c>
@@ -14525,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F222,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F222,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F222,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F222,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F222,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H222,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H222,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H222,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H222,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H222,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14543,7 +14549,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G223" s="5">
+      <c r="G223" s="12">
         <f t="array" ref="G223">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E222)))</f>
         <v>0</v>
       </c>
@@ -14552,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F223,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F223,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F223,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F223,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F223,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H223,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H223,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H223,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H223,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H223,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14570,7 +14576,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G224" s="5">
+      <c r="G224" s="12">
         <f t="array" ref="G224">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E223)))</f>
         <v>0</v>
       </c>
@@ -14579,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F224,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F224,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F224,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F224,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F224,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H224,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H224,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H224,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H224,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H224,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14597,7 +14603,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G225" s="5">
+      <c r="G225" s="12">
         <f t="array" ref="G225">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E224)))</f>
         <v>0</v>
       </c>
@@ -14606,7 +14612,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F225,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F225,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F225,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F225,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F225,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H225,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H225,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H225,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H225,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H225,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14624,7 +14630,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G226" s="5">
+      <c r="G226" s="12">
         <f t="array" ref="G226">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E225)))</f>
         <v>0</v>
       </c>
@@ -14633,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="I226" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F226,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F226,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F226,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F226,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F226,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H226,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H226,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H226,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H226,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H226,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14651,7 +14657,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G227" s="5">
+      <c r="G227" s="12">
         <f t="array" ref="G227">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E226)))</f>
         <v>0</v>
       </c>
@@ -14660,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="I227" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F227,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F227,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F227,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F227,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F227,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H227,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H227,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H227,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H227,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H227,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14678,7 +14684,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G228" s="5">
+      <c r="G228" s="12">
         <f t="array" ref="G228">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E227)))</f>
         <v>0</v>
       </c>
@@ -14687,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="I228" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F228,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F228,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F228,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F228,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F228,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H228,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H228,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H228,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H228,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H228,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14705,7 +14711,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G229" s="5">
+      <c r="G229" s="12">
         <f t="array" ref="G229">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E228)))</f>
         <v>0</v>
       </c>
@@ -14714,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="I229" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F229,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F229,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F229,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F229,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F229,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H229,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H229,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H229,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H229,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H229,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14732,7 +14738,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G230" s="5">
+      <c r="G230" s="12">
         <f t="array" ref="G230">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E229)))</f>
         <v>0</v>
       </c>
@@ -14741,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="I230" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F230,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F230,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F230,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F230,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F230,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H230,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H230,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H230,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H230,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H230,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14759,7 +14765,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G231" s="5">
+      <c r="G231" s="12">
         <f t="array" ref="G231">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E230)))</f>
         <v>0</v>
       </c>
@@ -14768,7 +14774,7 @@
         <v>0</v>
       </c>
       <c r="I231" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F231,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F231,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F231,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F231,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F231,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H231,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H231,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H231,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H231,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H231,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14786,7 +14792,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G232" s="5">
+      <c r="G232" s="12">
         <f t="array" ref="G232">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E231)))</f>
         <v>0</v>
       </c>
@@ -14795,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="I232" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F232,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F232,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F232,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F232,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F232,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H232,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H232,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H232,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H232,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H232,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14813,7 +14819,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G233" s="5">
+      <c r="G233" s="12">
         <f t="array" ref="G233">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E232)))</f>
         <v>0</v>
       </c>
@@ -14822,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="I233" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F233,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F233,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F233,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F233,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F233,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H233,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H233,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H233,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H233,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H233,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14840,7 +14846,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G234" s="5">
+      <c r="G234" s="12">
         <f t="array" ref="G234">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E233)))</f>
         <v>0</v>
       </c>
@@ -14849,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="I234" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F234,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F234,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F234,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F234,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F234,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H234,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H234,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H234,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H234,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H234,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14867,7 +14873,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G235" s="5">
+      <c r="G235" s="12">
         <f t="array" ref="G235">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E234)))</f>
         <v>0</v>
       </c>
@@ -14876,7 +14882,7 @@
         <v>0</v>
       </c>
       <c r="I235" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F235,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F235,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F235,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F235,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F235,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H235,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H235,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H235,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H235,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H235,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14894,7 +14900,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G236" s="5">
+      <c r="G236" s="12">
         <f t="array" ref="G236">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E235)))</f>
         <v>0</v>
       </c>
@@ -14903,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F236,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F236,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F236,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F236,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F236,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H236,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H236,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H236,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H236,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H236,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14921,7 +14927,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G237" s="5">
+      <c r="G237" s="12">
         <f t="array" ref="G237">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E236)))</f>
         <v>0</v>
       </c>
@@ -14930,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="I237" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F237,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F237,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F237,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F237,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F237,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H237,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H237,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H237,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H237,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H237,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14948,7 +14954,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G238" s="5">
+      <c r="G238" s="12">
         <f t="array" ref="G238">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E237)))</f>
         <v>0</v>
       </c>
@@ -14957,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="I238" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F238,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F238,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F238,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F238,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F238,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H238,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H238,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H238,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H238,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H238,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -14975,7 +14981,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G239" s="5">
+      <c r="G239" s="12">
         <f t="array" ref="G239">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E238)))</f>
         <v>0</v>
       </c>
@@ -14984,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="I239" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F239,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F239,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F239,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F239,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F239,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H239,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H239,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H239,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H239,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H239,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15002,7 +15008,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G240" s="5">
+      <c r="G240" s="12">
         <f t="array" ref="G240">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E239)))</f>
         <v>0</v>
       </c>
@@ -15011,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="I240" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F240,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F240,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F240,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F240,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F240,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H240,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H240,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H240,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H240,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H240,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15029,7 +15035,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G241" s="5">
+      <c r="G241" s="12">
         <f t="array" ref="G241">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E240)))</f>
         <v>0</v>
       </c>
@@ -15038,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="I241" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F241,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F241,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F241,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F241,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F241,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H241,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H241,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H241,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H241,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H241,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15056,7 +15062,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G242" s="5">
+      <c r="G242" s="12">
         <f t="array" ref="G242">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E241)))</f>
         <v>0</v>
       </c>
@@ -15065,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="I242" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F242,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F242,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F242,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F242,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F242,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H242,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H242,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H242,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H242,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H242,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15083,7 +15089,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G243" s="5">
+      <c r="G243" s="12">
         <f t="array" ref="G243">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E242)))</f>
         <v>0</v>
       </c>
@@ -15092,7 +15098,7 @@
         <v>0</v>
       </c>
       <c r="I243" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F243,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F243,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F243,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F243,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F243,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H243,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H243,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H243,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H243,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H243,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15110,7 +15116,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G244" s="5">
+      <c r="G244" s="12">
         <f t="array" ref="G244">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E243)))</f>
         <v>0</v>
       </c>
@@ -15119,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="I244" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F244,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F244,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F244,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F244,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F244,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H244,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H244,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H244,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H244,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H244,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15137,7 +15143,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G245" s="5">
+      <c r="G245" s="12">
         <f t="array" ref="G245">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E244)))</f>
         <v>0</v>
       </c>
@@ -15146,7 +15152,7 @@
         <v>0</v>
       </c>
       <c r="I245" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F245,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F245,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F245,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F245,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F245,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H245,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H245,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H245,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H245,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H245,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15164,7 +15170,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G246" s="5">
+      <c r="G246" s="12">
         <f t="array" ref="G246">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E245)))</f>
         <v>0</v>
       </c>
@@ -15173,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="I246" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F246,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F246,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F246,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F246,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F246,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H246,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H246,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H246,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H246,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H246,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15191,7 +15197,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G247" s="5">
+      <c r="G247" s="12">
         <f t="array" ref="G247">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E246)))</f>
         <v>0</v>
       </c>
@@ -15200,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="I247" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F247,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F247,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F247,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F247,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F247,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H247,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H247,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H247,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H247,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H247,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15218,7 +15224,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G248" s="5">
+      <c r="G248" s="12">
         <f t="array" ref="G248">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E247)))</f>
         <v>0</v>
       </c>
@@ -15227,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="I248" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F248,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F248,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F248,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F248,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F248,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H248,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H248,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H248,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H248,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H248,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15245,7 +15251,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G249" s="5">
+      <c r="G249" s="12">
         <f t="array" ref="G249">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E248)))</f>
         <v>0</v>
       </c>
@@ -15254,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="I249" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F249,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F249,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F249,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F249,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F249,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H249,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H249,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H249,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H249,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H249,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15272,7 +15278,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G250" s="5">
+      <c r="G250" s="12">
         <f t="array" ref="G250">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E249)))</f>
         <v>0</v>
       </c>
@@ -15281,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="I250" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F250,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F250,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F250,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F250,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F250,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H250,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H250,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H250,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H250,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H250,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15299,7 +15305,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G251" s="5">
+      <c r="G251" s="12">
         <f t="array" ref="G251">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E250)))</f>
         <v>0</v>
       </c>
@@ -15308,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="I251" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F251,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F251,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F251,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F251,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F251,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H251,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H251,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H251,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H251,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H251,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15326,7 +15332,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G252" s="5">
+      <c r="G252" s="12">
         <f t="array" ref="G252">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E251)))</f>
         <v>0</v>
       </c>
@@ -15335,7 +15341,7 @@
         <v>0</v>
       </c>
       <c r="I252" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F252,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F252,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F252,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F252,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F252,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H252,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H252,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H252,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H252,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H252,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15353,7 +15359,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G253" s="5">
+      <c r="G253" s="12">
         <f t="array" ref="G253">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E252)))</f>
         <v>0</v>
       </c>
@@ -15362,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="I253" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F253,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F253,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F253,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F253,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F253,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H253,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H253,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H253,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H253,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H253,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15380,7 +15386,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G254" s="5">
+      <c r="G254" s="12">
         <f t="array" ref="G254">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E253)))</f>
         <v>0</v>
       </c>
@@ -15389,7 +15395,7 @@
         <v>0</v>
       </c>
       <c r="I254" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F254,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F254,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F254,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F254,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F254,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H254,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H254,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H254,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H254,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H254,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15407,7 +15413,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G255" s="5">
+      <c r="G255" s="12">
         <f t="array" ref="G255">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E254)))</f>
         <v>0</v>
       </c>
@@ -15416,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="I255" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F255,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F255,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F255,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F255,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F255,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H255,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H255,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H255,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H255,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H255,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15434,7 +15440,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G256" s="5">
+      <c r="G256" s="12">
         <f t="array" ref="G256">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E255)))</f>
         <v>0</v>
       </c>
@@ -15443,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F256,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F256,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F256,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F256,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F256,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H256,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H256,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H256,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H256,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H256,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15461,7 +15467,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G257" s="5">
+      <c r="G257" s="12">
         <f t="array" ref="G257">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E256)))</f>
         <v>0</v>
       </c>
@@ -15470,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="I257" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F257,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F257,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F257,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F257,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F257,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H257,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H257,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H257,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H257,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H257,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15488,7 +15494,7 @@
         <f t="shared" ref="F258:F321" si="13">IFERROR(MID(B258,FIND(" casts ",B258,1)+7,IFERROR(FIND(" on ",B258,1)-FIND(" casts ",B258,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G258" s="5">
+      <c r="G258" s="12">
         <f t="array" ref="G258">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E257)))</f>
         <v>0</v>
       </c>
@@ -15497,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="I258" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F258,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F258,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F258,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F258,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F258,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H258,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H258,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H258,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H258,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H258,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15515,7 +15521,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G259" s="5">
+      <c r="G259" s="12">
         <f t="array" ref="G259">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E258)))</f>
         <v>0</v>
       </c>
@@ -15524,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="I259" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F259,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F259,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F259,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F259,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F259,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H259,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H259,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H259,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H259,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H259,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15542,7 +15548,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G260" s="5">
+      <c r="G260" s="12">
         <f t="array" ref="G260">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E259)))</f>
         <v>0</v>
       </c>
@@ -15551,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="I260" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F260,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F260,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F260,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F260,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F260,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H260,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H260,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H260,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H260,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H260,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15569,7 +15575,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G261" s="5">
+      <c r="G261" s="12">
         <f t="array" ref="G261">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E260)))</f>
         <v>0</v>
       </c>
@@ -15578,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="I261" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F261,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F261,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F261,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F261,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F261,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H261,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H261,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H261,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H261,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H261,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15596,7 +15602,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G262" s="5">
+      <c r="G262" s="12">
         <f t="array" ref="G262">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E261)))</f>
         <v>0</v>
       </c>
@@ -15605,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="I262" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F262,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F262,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F262,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F262,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F262,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H262,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H262,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H262,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H262,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H262,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15623,7 +15629,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G263" s="5">
+      <c r="G263" s="12">
         <f t="array" ref="G263">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E262)))</f>
         <v>0</v>
       </c>
@@ -15632,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="I263" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F263,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F263,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F263,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F263,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F263,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H263,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H263,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H263,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H263,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H263,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15650,7 +15656,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G264" s="5">
+      <c r="G264" s="12">
         <f t="array" ref="G264">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E263)))</f>
         <v>0</v>
       </c>
@@ -15659,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="I264" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F264,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F264,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F264,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F264,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F264,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H264,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H264,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H264,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H264,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H264,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15677,7 +15683,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G265" s="5">
+      <c r="G265" s="12">
         <f t="array" ref="G265">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E264)))</f>
         <v>0</v>
       </c>
@@ -15686,7 +15692,7 @@
         <v>0</v>
       </c>
       <c r="I265" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F265,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F265,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F265,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F265,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F265,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H265,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H265,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H265,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H265,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H265,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15704,7 +15710,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G266" s="5">
+      <c r="G266" s="12">
         <f t="array" ref="G266">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E265)))</f>
         <v>0</v>
       </c>
@@ -15713,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="I266" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F266,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F266,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F266,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F266,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F266,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H266,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H266,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H266,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H266,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H266,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15731,7 +15737,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G267" s="5">
+      <c r="G267" s="12">
         <f t="array" ref="G267">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E266)))</f>
         <v>0</v>
       </c>
@@ -15740,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F267,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F267,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F267,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F267,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F267,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H267,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H267,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H267,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H267,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H267,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15758,7 +15764,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G268" s="5">
+      <c r="G268" s="12">
         <f t="array" ref="G268">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E267)))</f>
         <v>0</v>
       </c>
@@ -15767,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="I268" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F268,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F268,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F268,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F268,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F268,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H268,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H268,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H268,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H268,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H268,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15785,7 +15791,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G269" s="5">
+      <c r="G269" s="12">
         <f t="array" ref="G269">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E268)))</f>
         <v>0</v>
       </c>
@@ -15794,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F269,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F269,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F269,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F269,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F269,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H269,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H269,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H269,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H269,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H269,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15812,7 +15818,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G270" s="5">
+      <c r="G270" s="12">
         <f t="array" ref="G270">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E269)))</f>
         <v>0</v>
       </c>
@@ -15821,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="I270" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F270,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F270,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F270,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F270,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F270,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H270,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H270,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H270,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H270,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H270,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15839,7 +15845,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G271" s="5">
+      <c r="G271" s="12">
         <f t="array" ref="G271">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E270)))</f>
         <v>0</v>
       </c>
@@ -15848,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="I271" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F271,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F271,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F271,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F271,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F271,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H271,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H271,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H271,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H271,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H271,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15866,7 +15872,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G272" s="5">
+      <c r="G272" s="12">
         <f t="array" ref="G272">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E271)))</f>
         <v>0</v>
       </c>
@@ -15875,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="I272" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F272,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F272,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F272,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F272,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F272,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H272,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H272,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H272,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H272,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H272,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15893,7 +15899,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G273" s="5">
+      <c r="G273" s="12">
         <f t="array" ref="G273">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E272)))</f>
         <v>0</v>
       </c>
@@ -15902,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="I273" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F273,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F273,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F273,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F273,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F273,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H273,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H273,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H273,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H273,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H273,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15920,7 +15926,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G274" s="5">
+      <c r="G274" s="12">
         <f t="array" ref="G274">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E273)))</f>
         <v>0</v>
       </c>
@@ -15929,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="I274" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F274,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F274,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F274,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F274,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F274,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H274,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H274,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H274,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H274,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H274,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15947,7 +15953,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G275" s="5">
+      <c r="G275" s="12">
         <f t="array" ref="G275">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E274)))</f>
         <v>0</v>
       </c>
@@ -15956,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F275,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F275,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F275,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F275,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F275,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H275,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H275,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H275,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H275,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H275,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -15974,7 +15980,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G276" s="5">
+      <c r="G276" s="12">
         <f t="array" ref="G276">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E275)))</f>
         <v>0</v>
       </c>
@@ -15983,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="I276" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F276,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F276,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F276,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F276,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F276,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H276,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H276,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H276,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H276,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H276,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16001,7 +16007,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G277" s="5">
+      <c r="G277" s="12">
         <f t="array" ref="G277">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E276)))</f>
         <v>0</v>
       </c>
@@ -16010,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="I277" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F277,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F277,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F277,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F277,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F277,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H277,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H277,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H277,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H277,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H277,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16028,7 +16034,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G278" s="5">
+      <c r="G278" s="12">
         <f t="array" ref="G278">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E277)))</f>
         <v>0</v>
       </c>
@@ -16037,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F278,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F278,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F278,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F278,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F278,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H278,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H278,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H278,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H278,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H278,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16055,7 +16061,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G279" s="5">
+      <c r="G279" s="12">
         <f t="array" ref="G279">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E278)))</f>
         <v>0</v>
       </c>
@@ -16064,7 +16070,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F279,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F279,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F279,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F279,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F279,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H279,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H279,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H279,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H279,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H279,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16082,7 +16088,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G280" s="5">
+      <c r="G280" s="12">
         <f t="array" ref="G280">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E279)))</f>
         <v>0</v>
       </c>
@@ -16091,7 +16097,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F280,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F280,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F280,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F280,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F280,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H280,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H280,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H280,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H280,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H280,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16109,7 +16115,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G281" s="5">
+      <c r="G281" s="12">
         <f t="array" ref="G281">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E280)))</f>
         <v>0</v>
       </c>
@@ -16118,7 +16124,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F281,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F281,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F281,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F281,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F281,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H281,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H281,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H281,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H281,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H281,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16136,7 +16142,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G282" s="5">
+      <c r="G282" s="12">
         <f t="array" ref="G282">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E281)))</f>
         <v>0</v>
       </c>
@@ -16145,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F282,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F282,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F282,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F282,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F282,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H282,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H282,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H282,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H282,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H282,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16163,7 +16169,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G283" s="5">
+      <c r="G283" s="12">
         <f t="array" ref="G283">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E282)))</f>
         <v>0</v>
       </c>
@@ -16172,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F283,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F283,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F283,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F283,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F283,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H283,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H283,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H283,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H283,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H283,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16190,7 +16196,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G284" s="5">
+      <c r="G284" s="12">
         <f t="array" ref="G284">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E283)))</f>
         <v>0</v>
       </c>
@@ -16199,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="I284" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F284,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F284,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F284,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F284,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F284,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H284,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H284,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H284,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H284,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H284,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16217,7 +16223,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G285" s="5">
+      <c r="G285" s="12">
         <f t="array" ref="G285">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E284)))</f>
         <v>0</v>
       </c>
@@ -16226,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="I285" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F285,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F285,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F285,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F285,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F285,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H285,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H285,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H285,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H285,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H285,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16244,7 +16250,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G286" s="5">
+      <c r="G286" s="12">
         <f t="array" ref="G286">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E285)))</f>
         <v>0</v>
       </c>
@@ -16253,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="I286" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F286,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F286,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F286,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F286,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F286,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H286,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H286,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H286,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H286,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H286,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16271,7 +16277,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G287" s="5">
+      <c r="G287" s="12">
         <f t="array" ref="G287">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E286)))</f>
         <v>0</v>
       </c>
@@ -16280,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="I287" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F287,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F287,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F287,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F287,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F287,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H287,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H287,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H287,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H287,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H287,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16298,7 +16304,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G288" s="5">
+      <c r="G288" s="12">
         <f t="array" ref="G288">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E287)))</f>
         <v>0</v>
       </c>
@@ -16307,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="I288" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F288,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F288,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F288,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F288,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F288,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H288,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H288,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H288,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H288,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H288,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16325,7 +16331,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G289" s="5">
+      <c r="G289" s="12">
         <f t="array" ref="G289">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E288)))</f>
         <v>0</v>
       </c>
@@ -16334,7 +16340,7 @@
         <v>0</v>
       </c>
       <c r="I289" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F289,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F289,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F289,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F289,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F289,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H289,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H289,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H289,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H289,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H289,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16352,7 +16358,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G290" s="5">
+      <c r="G290" s="12">
         <f t="array" ref="G290">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E289)))</f>
         <v>0</v>
       </c>
@@ -16361,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="I290" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F290,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F290,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F290,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F290,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F290,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H290,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H290,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H290,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H290,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H290,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16379,7 +16385,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G291" s="5">
+      <c r="G291" s="12">
         <f t="array" ref="G291">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E290)))</f>
         <v>0</v>
       </c>
@@ -16388,7 +16394,7 @@
         <v>0</v>
       </c>
       <c r="I291" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F291,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F291,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F291,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F291,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F291,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H291,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H291,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H291,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H291,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H291,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16406,7 +16412,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G292" s="5">
+      <c r="G292" s="12">
         <f t="array" ref="G292">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E291)))</f>
         <v>0</v>
       </c>
@@ -16415,7 +16421,7 @@
         <v>0</v>
       </c>
       <c r="I292" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F292,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F292,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F292,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F292,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F292,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H292,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H292,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H292,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H292,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H292,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16433,7 +16439,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G293" s="5">
+      <c r="G293" s="12">
         <f t="array" ref="G293">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E292)))</f>
         <v>0</v>
       </c>
@@ -16442,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="I293" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F293,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F293,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F293,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F293,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F293,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H293,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H293,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H293,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H293,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H293,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16460,7 +16466,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G294" s="5">
+      <c r="G294" s="12">
         <f t="array" ref="G294">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E293)))</f>
         <v>0</v>
       </c>
@@ -16469,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="I294" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F294,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F294,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F294,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F294,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F294,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H294,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H294,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H294,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H294,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H294,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16487,7 +16493,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G295" s="5">
+      <c r="G295" s="12">
         <f t="array" ref="G295">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E294)))</f>
         <v>0</v>
       </c>
@@ -16496,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="I295" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F295,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F295,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F295,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F295,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F295,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H295,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H295,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H295,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H295,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H295,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16514,7 +16520,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G296" s="5">
+      <c r="G296" s="12">
         <f t="array" ref="G296">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E295)))</f>
         <v>0</v>
       </c>
@@ -16523,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F296,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F296,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F296,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F296,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F296,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H296,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H296,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H296,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H296,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H296,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16541,7 +16547,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G297" s="5">
+      <c r="G297" s="12">
         <f t="array" ref="G297">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E296)))</f>
         <v>0</v>
       </c>
@@ -16550,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F297,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F297,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F297,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F297,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F297,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H297,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H297,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H297,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H297,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H297,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16568,7 +16574,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G298" s="5">
+      <c r="G298" s="12">
         <f t="array" ref="G298">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E297)))</f>
         <v>0</v>
       </c>
@@ -16577,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F298,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F298,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F298,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F298,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F298,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H298,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H298,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H298,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H298,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H298,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16595,7 +16601,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G299" s="5">
+      <c r="G299" s="12">
         <f t="array" ref="G299">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E298)))</f>
         <v>0</v>
       </c>
@@ -16604,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F299,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F299,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F299,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F299,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F299,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H299,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H299,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H299,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H299,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H299,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16622,7 +16628,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G300" s="5">
+      <c r="G300" s="12">
         <f t="array" ref="G300">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E299)))</f>
         <v>0</v>
       </c>
@@ -16631,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="I300" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F300,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F300,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F300,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F300,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F300,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H300,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H300,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H300,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H300,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H300,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16649,7 +16655,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G301" s="5">
+      <c r="G301" s="12">
         <f t="array" ref="G301">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E300)))</f>
         <v>0</v>
       </c>
@@ -16658,7 +16664,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F301,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F301,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F301,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F301,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F301,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H301,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H301,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H301,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H301,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H301,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16676,7 +16682,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G302" s="5">
+      <c r="G302" s="12">
         <f t="array" ref="G302">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E301)))</f>
         <v>0</v>
       </c>
@@ -16685,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F302,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F302,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F302,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F302,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F302,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H302,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H302,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H302,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H302,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H302,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16703,7 +16709,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G303" s="5">
+      <c r="G303" s="12">
         <f t="array" ref="G303">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E302)))</f>
         <v>0</v>
       </c>
@@ -16712,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="I303" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F303,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F303,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F303,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F303,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F303,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H303,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H303,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H303,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H303,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H303,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16730,7 +16736,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G304" s="5">
+      <c r="G304" s="12">
         <f t="array" ref="G304">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E303)))</f>
         <v>0</v>
       </c>
@@ -16739,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="I304" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F304,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F304,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F304,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F304,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F304,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H304,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H304,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H304,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H304,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H304,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16757,7 +16763,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G305" s="5">
+      <c r="G305" s="12">
         <f t="array" ref="G305">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E304)))</f>
         <v>0</v>
       </c>
@@ -16766,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="I305" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F305,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F305,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F305,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F305,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F305,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H305,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H305,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H305,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H305,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H305,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16784,7 +16790,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G306" s="5">
+      <c r="G306" s="12">
         <f t="array" ref="G306">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E305)))</f>
         <v>0</v>
       </c>
@@ -16793,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="I306" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F306,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F306,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F306,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F306,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F306,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H306,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H306,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H306,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H306,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H306,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16811,7 +16817,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G307" s="5">
+      <c r="G307" s="12">
         <f t="array" ref="G307">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E306)))</f>
         <v>0</v>
       </c>
@@ -16820,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="I307" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F307,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F307,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F307,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F307,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F307,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H307,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H307,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H307,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H307,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H307,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16838,7 +16844,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G308" s="5">
+      <c r="G308" s="12">
         <f t="array" ref="G308">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E307)))</f>
         <v>0</v>
       </c>
@@ -16847,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="I308" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F308,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F308,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F308,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F308,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F308,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H308,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H308,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H308,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H308,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H308,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16865,7 +16871,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G309" s="5">
+      <c r="G309" s="12">
         <f t="array" ref="G309">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E308)))</f>
         <v>0</v>
       </c>
@@ -16874,7 +16880,7 @@
         <v>0</v>
       </c>
       <c r="I309" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F309,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F309,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F309,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F309,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F309,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H309,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H309,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H309,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H309,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H309,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16892,7 +16898,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G310" s="5">
+      <c r="G310" s="12">
         <f t="array" ref="G310">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E309)))</f>
         <v>0</v>
       </c>
@@ -16901,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="I310" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F310,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F310,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F310,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F310,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F310,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H310,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H310,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H310,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H310,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H310,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16919,7 +16925,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G311" s="5">
+      <c r="G311" s="12">
         <f t="array" ref="G311">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E310)))</f>
         <v>0</v>
       </c>
@@ -16928,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F311,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F311,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F311,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F311,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F311,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H311,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H311,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H311,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H311,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H311,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16946,7 +16952,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G312" s="5">
+      <c r="G312" s="12">
         <f t="array" ref="G312">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E311)))</f>
         <v>0</v>
       </c>
@@ -16955,7 +16961,7 @@
         <v>0</v>
       </c>
       <c r="I312" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F312,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F312,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F312,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F312,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F312,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H312,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H312,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H312,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H312,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H312,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -16973,7 +16979,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G313" s="5">
+      <c r="G313" s="12">
         <f t="array" ref="G313">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E312)))</f>
         <v>0</v>
       </c>
@@ -16982,7 +16988,7 @@
         <v>0</v>
       </c>
       <c r="I313" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F313,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F313,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F313,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F313,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F313,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H313,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H313,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H313,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H313,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H313,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17000,7 +17006,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G314" s="5">
+      <c r="G314" s="12">
         <f t="array" ref="G314">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E313)))</f>
         <v>0</v>
       </c>
@@ -17009,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="I314" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F314,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F314,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F314,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F314,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F314,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H314,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H314,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H314,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H314,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H314,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17027,7 +17033,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G315" s="5">
+      <c r="G315" s="12">
         <f t="array" ref="G315">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E314)))</f>
         <v>0</v>
       </c>
@@ -17036,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="I315" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F315,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F315,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F315,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F315,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F315,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H315,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H315,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H315,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H315,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H315,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17054,7 +17060,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G316" s="5">
+      <c r="G316" s="12">
         <f t="array" ref="G316">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E315)))</f>
         <v>0</v>
       </c>
@@ -17063,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="I316" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F316,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F316,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F316,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F316,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F316,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H316,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H316,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H316,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H316,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H316,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17081,7 +17087,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G317" s="5">
+      <c r="G317" s="12">
         <f t="array" ref="G317">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E316)))</f>
         <v>0</v>
       </c>
@@ -17090,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="I317" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F317,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F317,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F317,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F317,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F317,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H317,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H317,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H317,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H317,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H317,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17108,7 +17114,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G318" s="5">
+      <c r="G318" s="12">
         <f t="array" ref="G318">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E317)))</f>
         <v>0</v>
       </c>
@@ -17117,7 +17123,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F318,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F318,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F318,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F318,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F318,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H318,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H318,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H318,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H318,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H318,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17135,7 +17141,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G319" s="5">
+      <c r="G319" s="12">
         <f t="array" ref="G319">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E318)))</f>
         <v>0</v>
       </c>
@@ -17144,7 +17150,7 @@
         <v>0</v>
       </c>
       <c r="I319" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F319,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F319,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F319,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F319,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F319,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H319,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H319,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H319,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H319,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H319,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17162,7 +17168,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G320" s="5">
+      <c r="G320" s="12">
         <f t="array" ref="G320">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E319)))</f>
         <v>0</v>
       </c>
@@ -17171,7 +17177,7 @@
         <v>0</v>
       </c>
       <c r="I320" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F320,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F320,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F320,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F320,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F320,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H320,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H320,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H320,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H320,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H320,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17189,7 +17195,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G321" s="5">
+      <c r="G321" s="12">
         <f t="array" ref="G321">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E320)))</f>
         <v>0</v>
       </c>
@@ -17198,7 +17204,7 @@
         <v>0</v>
       </c>
       <c r="I321" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F321,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F321,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F321,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F321,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F321,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H321,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H321,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H321,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H321,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H321,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17216,7 +17222,7 @@
         <f t="shared" ref="F322:F385" si="16">IFERROR(MID(B322,FIND(" casts ",B322,1)+7,IFERROR(FIND(" on ",B322,1)-FIND(" casts ",B322,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G322" s="5">
+      <c r="G322" s="12">
         <f t="array" ref="G322">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E321)))</f>
         <v>0</v>
       </c>
@@ -17225,7 +17231,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F322,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F322,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F322,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F322,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F322,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H322,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H322,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H322,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H322,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H322,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17243,7 +17249,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G323" s="5">
+      <c r="G323" s="12">
         <f t="array" ref="G323">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E322)))</f>
         <v>0</v>
       </c>
@@ -17252,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F323,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F323,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F323,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F323,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F323,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H323,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H323,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H323,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H323,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H323,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17270,7 +17276,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G324" s="5">
+      <c r="G324" s="12">
         <f t="array" ref="G324">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E323)))</f>
         <v>0</v>
       </c>
@@ -17279,7 +17285,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F324,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F324,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F324,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F324,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F324,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H324,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H324,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H324,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H324,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H324,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17297,7 +17303,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G325" s="5">
+      <c r="G325" s="12">
         <f t="array" ref="G325">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E324)))</f>
         <v>0</v>
       </c>
@@ -17306,7 +17312,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F325,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F325,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F325,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F325,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F325,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H325,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H325,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H325,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H325,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H325,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17324,7 +17330,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G326" s="5">
+      <c r="G326" s="12">
         <f t="array" ref="G326">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E325)))</f>
         <v>0</v>
       </c>
@@ -17333,7 +17339,7 @@
         <v>0</v>
       </c>
       <c r="I326" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F326,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F326,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F326,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F326,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F326,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H326,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H326,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H326,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H326,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H326,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17351,7 +17357,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G327" s="5">
+      <c r="G327" s="12">
         <f t="array" ref="G327">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E326)))</f>
         <v>0</v>
       </c>
@@ -17360,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F327,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F327,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F327,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F327,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F327,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H327,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H327,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H327,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H327,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H327,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17378,7 +17384,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G328" s="5">
+      <c r="G328" s="12">
         <f t="array" ref="G328">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E327)))</f>
         <v>0</v>
       </c>
@@ -17387,7 +17393,7 @@
         <v>0</v>
       </c>
       <c r="I328" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F328,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F328,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F328,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F328,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F328,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H328,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H328,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H328,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H328,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H328,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17405,7 +17411,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G329" s="5">
+      <c r="G329" s="12">
         <f t="array" ref="G329">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E328)))</f>
         <v>0</v>
       </c>
@@ -17414,7 +17420,7 @@
         <v>0</v>
       </c>
       <c r="I329" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F329,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F329,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F329,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F329,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F329,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H329,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H329,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H329,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H329,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H329,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17432,7 +17438,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G330" s="5">
+      <c r="G330" s="12">
         <f t="array" ref="G330">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E329)))</f>
         <v>0</v>
       </c>
@@ -17441,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="I330" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F330,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F330,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F330,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F330,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F330,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H330,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H330,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H330,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H330,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H330,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17459,7 +17465,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G331" s="5">
+      <c r="G331" s="12">
         <f t="array" ref="G331">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E330)))</f>
         <v>0</v>
       </c>
@@ -17468,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="I331" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F331,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F331,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F331,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F331,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F331,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H331,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H331,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H331,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H331,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H331,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17486,7 +17492,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G332" s="5">
+      <c r="G332" s="12">
         <f t="array" ref="G332">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E331)))</f>
         <v>0</v>
       </c>
@@ -17495,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="I332" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F332,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F332,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F332,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F332,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F332,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H332,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H332,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H332,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H332,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H332,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17513,7 +17519,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G333" s="5">
+      <c r="G333" s="12">
         <f t="array" ref="G333">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E332)))</f>
         <v>0</v>
       </c>
@@ -17522,7 +17528,7 @@
         <v>0</v>
       </c>
       <c r="I333" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F333,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F333,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F333,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F333,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F333,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H333,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H333,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H333,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H333,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H333,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17540,7 +17546,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G334" s="5">
+      <c r="G334" s="12">
         <f t="array" ref="G334">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E333)))</f>
         <v>0</v>
       </c>
@@ -17549,7 +17555,7 @@
         <v>0</v>
       </c>
       <c r="I334" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F334,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F334,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F334,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F334,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F334,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H334,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H334,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H334,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H334,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H334,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17567,7 +17573,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G335" s="5">
+      <c r="G335" s="12">
         <f t="array" ref="G335">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E334)))</f>
         <v>0</v>
       </c>
@@ -17576,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="I335" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F335,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F335,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F335,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F335,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F335,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H335,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H335,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H335,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H335,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H335,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17594,7 +17600,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G336" s="5">
+      <c r="G336" s="12">
         <f t="array" ref="G336">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E335)))</f>
         <v>0</v>
       </c>
@@ -17603,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="I336" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F336,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F336,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F336,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F336,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F336,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H336,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H336,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H336,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H336,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H336,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17621,7 +17627,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G337" s="5">
+      <c r="G337" s="12">
         <f t="array" ref="G337">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E336)))</f>
         <v>0</v>
       </c>
@@ -17630,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="I337" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F337,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F337,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F337,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F337,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F337,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H337,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H337,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H337,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H337,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H337,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17648,7 +17654,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G338" s="5">
+      <c r="G338" s="12">
         <f t="array" ref="G338">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E337)))</f>
         <v>0</v>
       </c>
@@ -17657,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="I338" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F338,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F338,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F338,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F338,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F338,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H338,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H338,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H338,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H338,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H338,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17675,7 +17681,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G339" s="5">
+      <c r="G339" s="12">
         <f t="array" ref="G339">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E338)))</f>
         <v>0</v>
       </c>
@@ -17684,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="I339" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F339,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F339,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F339,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F339,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F339,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H339,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H339,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H339,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H339,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H339,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17702,7 +17708,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G340" s="5">
+      <c r="G340" s="12">
         <f t="array" ref="G340">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E339)))</f>
         <v>0</v>
       </c>
@@ -17711,7 +17717,7 @@
         <v>0</v>
       </c>
       <c r="I340" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F340,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F340,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F340,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F340,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F340,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H340,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H340,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H340,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H340,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H340,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17729,7 +17735,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G341" s="5">
+      <c r="G341" s="12">
         <f t="array" ref="G341">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E340)))</f>
         <v>0</v>
       </c>
@@ -17738,7 +17744,7 @@
         <v>0</v>
       </c>
       <c r="I341" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F341,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F341,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F341,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F341,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F341,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H341,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H341,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H341,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H341,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H341,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17756,7 +17762,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G342" s="5">
+      <c r="G342" s="12">
         <f t="array" ref="G342">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E341)))</f>
         <v>0</v>
       </c>
@@ -17765,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="I342" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F342,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F342,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F342,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F342,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F342,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H342,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H342,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H342,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H342,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H342,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17783,7 +17789,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G343" s="5">
+      <c r="G343" s="12">
         <f t="array" ref="G343">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E342)))</f>
         <v>0</v>
       </c>
@@ -17792,7 +17798,7 @@
         <v>0</v>
       </c>
       <c r="I343" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F343,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F343,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F343,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F343,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F343,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H343,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H343,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H343,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H343,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H343,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17810,7 +17816,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G344" s="5">
+      <c r="G344" s="12">
         <f t="array" ref="G344">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E343)))</f>
         <v>0</v>
       </c>
@@ -17819,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="I344" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F344,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F344,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F344,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F344,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F344,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H344,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H344,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H344,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H344,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H344,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17837,7 +17843,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G345" s="5">
+      <c r="G345" s="12">
         <f t="array" ref="G345">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E344)))</f>
         <v>0</v>
       </c>
@@ -17846,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="I345" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F345,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F345,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F345,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F345,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F345,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H345,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H345,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H345,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H345,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H345,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17864,7 +17870,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G346" s="5">
+      <c r="G346" s="12">
         <f t="array" ref="G346">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E345)))</f>
         <v>0</v>
       </c>
@@ -17873,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="I346" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F346,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F346,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F346,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F346,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F346,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H346,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H346,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H346,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H346,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H346,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17891,7 +17897,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G347" s="5">
+      <c r="G347" s="12">
         <f t="array" ref="G347">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E346)))</f>
         <v>0</v>
       </c>
@@ -17900,7 +17906,7 @@
         <v>0</v>
       </c>
       <c r="I347" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F347,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F347,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F347,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F347,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F347,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H347,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H347,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H347,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H347,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H347,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17918,7 +17924,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G348" s="5">
+      <c r="G348" s="12">
         <f t="array" ref="G348">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E347)))</f>
         <v>0</v>
       </c>
@@ -17927,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="I348" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F348,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F348,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F348,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F348,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F348,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H348,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H348,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H348,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H348,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H348,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17945,7 +17951,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G349" s="5">
+      <c r="G349" s="12">
         <f t="array" ref="G349">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E348)))</f>
         <v>0</v>
       </c>
@@ -17954,7 +17960,7 @@
         <v>0</v>
       </c>
       <c r="I349" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F349,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F349,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F349,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F349,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F349,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H349,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H349,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H349,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H349,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H349,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17972,7 +17978,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G350" s="5">
+      <c r="G350" s="12">
         <f t="array" ref="G350">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E349)))</f>
         <v>0</v>
       </c>
@@ -17981,7 +17987,7 @@
         <v>0</v>
       </c>
       <c r="I350" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F350,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F350,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F350,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F350,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F350,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H350,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H350,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H350,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H350,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H350,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -17999,7 +18005,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G351" s="5">
+      <c r="G351" s="12">
         <f t="array" ref="G351">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E350)))</f>
         <v>0</v>
       </c>
@@ -18008,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="I351" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F351,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F351,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F351,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F351,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F351,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H351,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H351,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H351,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H351,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H351,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18026,7 +18032,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G352" s="5">
+      <c r="G352" s="12">
         <f t="array" ref="G352">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E351)))</f>
         <v>0</v>
       </c>
@@ -18035,7 +18041,7 @@
         <v>0</v>
       </c>
       <c r="I352" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F352,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F352,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F352,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F352,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F352,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H352,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H352,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H352,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H352,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H352,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18053,7 +18059,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G353" s="5">
+      <c r="G353" s="12">
         <f t="array" ref="G353">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E352)))</f>
         <v>0</v>
       </c>
@@ -18062,7 +18068,7 @@
         <v>0</v>
       </c>
       <c r="I353" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F353,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F353,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F353,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F353,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F353,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H353,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H353,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H353,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H353,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H353,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18080,7 +18086,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G354" s="5">
+      <c r="G354" s="12">
         <f t="array" ref="G354">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E353)))</f>
         <v>0</v>
       </c>
@@ -18089,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="I354" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F354,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F354,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F354,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F354,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F354,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H354,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H354,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H354,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H354,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H354,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18107,7 +18113,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G355" s="5">
+      <c r="G355" s="12">
         <f t="array" ref="G355">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E354)))</f>
         <v>0</v>
       </c>
@@ -18116,7 +18122,7 @@
         <v>0</v>
       </c>
       <c r="I355" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F355,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F355,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F355,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F355,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F355,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H355,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H355,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H355,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H355,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H355,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18134,7 +18140,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G356" s="5">
+      <c r="G356" s="12">
         <f t="array" ref="G356">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E355)))</f>
         <v>0</v>
       </c>
@@ -18143,7 +18149,7 @@
         <v>0</v>
       </c>
       <c r="I356" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F356,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F356,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F356,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F356,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F356,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H356,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H356,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H356,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H356,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H356,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18161,7 +18167,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G357" s="5">
+      <c r="G357" s="12">
         <f t="array" ref="G357">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E356)))</f>
         <v>0</v>
       </c>
@@ -18170,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="I357" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F357,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F357,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F357,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F357,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F357,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H357,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H357,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H357,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H357,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H357,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18188,7 +18194,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G358" s="5">
+      <c r="G358" s="12">
         <f t="array" ref="G358">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E357)))</f>
         <v>0</v>
       </c>
@@ -18197,7 +18203,7 @@
         <v>0</v>
       </c>
       <c r="I358" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F358,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F358,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F358,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F358,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F358,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H358,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H358,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H358,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H358,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H358,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18215,7 +18221,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G359" s="5">
+      <c r="G359" s="12">
         <f t="array" ref="G359">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E358)))</f>
         <v>0</v>
       </c>
@@ -18224,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="I359" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F359,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F359,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F359,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F359,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F359,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H359,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H359,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H359,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H359,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H359,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18242,7 +18248,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G360" s="5">
+      <c r="G360" s="12">
         <f t="array" ref="G360">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E359)))</f>
         <v>0</v>
       </c>
@@ -18251,7 +18257,7 @@
         <v>0</v>
       </c>
       <c r="I360" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F360,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F360,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F360,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F360,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F360,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H360,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H360,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H360,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H360,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H360,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18269,7 +18275,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G361" s="5">
+      <c r="G361" s="12">
         <f t="array" ref="G361">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E360)))</f>
         <v>0</v>
       </c>
@@ -18278,7 +18284,7 @@
         <v>0</v>
       </c>
       <c r="I361" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F361,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F361,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F361,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F361,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F361,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H361,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H361,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H361,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H361,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H361,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18296,7 +18302,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G362" s="5">
+      <c r="G362" s="12">
         <f t="array" ref="G362">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E361)))</f>
         <v>0</v>
       </c>
@@ -18305,7 +18311,7 @@
         <v>0</v>
       </c>
       <c r="I362" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F362,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F362,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F362,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F362,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F362,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H362,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H362,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H362,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H362,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H362,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18323,7 +18329,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G363" s="5">
+      <c r="G363" s="12">
         <f t="array" ref="G363">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E362)))</f>
         <v>0</v>
       </c>
@@ -18332,7 +18338,7 @@
         <v>0</v>
       </c>
       <c r="I363" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F363,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F363,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F363,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F363,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F363,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H363,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H363,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H363,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H363,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H363,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18350,7 +18356,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G364" s="5">
+      <c r="G364" s="12">
         <f t="array" ref="G364">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E363)))</f>
         <v>0</v>
       </c>
@@ -18359,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="I364" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F364,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F364,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F364,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F364,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F364,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H364,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H364,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H364,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H364,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H364,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18377,7 +18383,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G365" s="5">
+      <c r="G365" s="12">
         <f t="array" ref="G365">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E364)))</f>
         <v>0</v>
       </c>
@@ -18386,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="I365" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F365,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F365,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F365,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F365,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F365,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H365,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H365,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H365,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H365,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H365,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18404,7 +18410,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G366" s="5">
+      <c r="G366" s="12">
         <f t="array" ref="G366">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E365)))</f>
         <v>0</v>
       </c>
@@ -18413,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="I366" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F366,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F366,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F366,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F366,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F366,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H366,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H366,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H366,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H366,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H366,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18431,7 +18437,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G367" s="5">
+      <c r="G367" s="12">
         <f t="array" ref="G367">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E366)))</f>
         <v>0</v>
       </c>
@@ -18440,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="I367" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F367,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F367,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F367,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F367,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F367,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H367,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H367,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H367,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H367,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H367,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18458,7 +18464,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G368" s="5">
+      <c r="G368" s="12">
         <f t="array" ref="G368">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E367)))</f>
         <v>0</v>
       </c>
@@ -18467,7 +18473,7 @@
         <v>0</v>
       </c>
       <c r="I368" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F368,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F368,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F368,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F368,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F368,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H368,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H368,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H368,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H368,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H368,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18485,7 +18491,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G369" s="5">
+      <c r="G369" s="12">
         <f t="array" ref="G369">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E368)))</f>
         <v>0</v>
       </c>
@@ -18494,7 +18500,7 @@
         <v>0</v>
       </c>
       <c r="I369" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F369,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F369,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F369,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F369,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F369,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H369,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H369,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H369,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H369,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H369,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18512,7 +18518,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G370" s="5">
+      <c r="G370" s="12">
         <f t="array" ref="G370">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E369)))</f>
         <v>0</v>
       </c>
@@ -18521,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="I370" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F370,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F370,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F370,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F370,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F370,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H370,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H370,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H370,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H370,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H370,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18539,7 +18545,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G371" s="5">
+      <c r="G371" s="12">
         <f t="array" ref="G371">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E370)))</f>
         <v>0</v>
       </c>
@@ -18548,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="I371" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F371,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F371,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F371,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F371,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F371,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H371,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H371,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H371,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H371,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H371,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18566,7 +18572,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G372" s="5">
+      <c r="G372" s="12">
         <f t="array" ref="G372">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E371)))</f>
         <v>0</v>
       </c>
@@ -18575,7 +18581,7 @@
         <v>0</v>
       </c>
       <c r="I372" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F372,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F372,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F372,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F372,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F372,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H372,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H372,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H372,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H372,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H372,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18593,7 +18599,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G373" s="5">
+      <c r="G373" s="12">
         <f t="array" ref="G373">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E372)))</f>
         <v>0</v>
       </c>
@@ -18602,7 +18608,7 @@
         <v>0</v>
       </c>
       <c r="I373" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F373,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F373,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F373,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F373,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F373,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H373,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H373,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H373,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H373,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H373,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18620,7 +18626,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G374" s="5">
+      <c r="G374" s="12">
         <f t="array" ref="G374">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E373)))</f>
         <v>0</v>
       </c>
@@ -18629,7 +18635,7 @@
         <v>0</v>
       </c>
       <c r="I374" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F374,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F374,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F374,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F374,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F374,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H374,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H374,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H374,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H374,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H374,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18647,7 +18653,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G375" s="5">
+      <c r="G375" s="12">
         <f t="array" ref="G375">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E374)))</f>
         <v>0</v>
       </c>
@@ -18656,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="I375" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F375,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F375,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F375,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F375,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F375,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H375,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H375,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H375,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H375,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H375,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18674,7 +18680,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G376" s="5">
+      <c r="G376" s="12">
         <f t="array" ref="G376">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E375)))</f>
         <v>0</v>
       </c>
@@ -18683,7 +18689,7 @@
         <v>0</v>
       </c>
       <c r="I376" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F376,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F376,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F376,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F376,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F376,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H376,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H376,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H376,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H376,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H376,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18701,7 +18707,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G377" s="5">
+      <c r="G377" s="12">
         <f t="array" ref="G377">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E376)))</f>
         <v>0</v>
       </c>
@@ -18710,7 +18716,7 @@
         <v>0</v>
       </c>
       <c r="I377" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F377,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F377,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F377,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F377,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F377,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H377,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H377,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H377,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H377,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H377,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18728,7 +18734,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G378" s="5">
+      <c r="G378" s="12">
         <f t="array" ref="G378">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E377)))</f>
         <v>0</v>
       </c>
@@ -18737,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="I378" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F378,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F378,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F378,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F378,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F378,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H378,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H378,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H378,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H378,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H378,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18755,7 +18761,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G379" s="5">
+      <c r="G379" s="12">
         <f t="array" ref="G379">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E378)))</f>
         <v>0</v>
       </c>
@@ -18764,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="I379" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F379,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F379,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F379,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F379,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F379,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H379,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H379,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H379,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H379,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H379,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18782,7 +18788,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G380" s="5">
+      <c r="G380" s="12">
         <f t="array" ref="G380">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E379)))</f>
         <v>0</v>
       </c>
@@ -18791,7 +18797,7 @@
         <v>0</v>
       </c>
       <c r="I380" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F380,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F380,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F380,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F380,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F380,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H380,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H380,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H380,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H380,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H380,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18809,7 +18815,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G381" s="5">
+      <c r="G381" s="12">
         <f t="array" ref="G381">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E380)))</f>
         <v>0</v>
       </c>
@@ -18818,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="I381" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F381,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F381,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F381,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F381,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F381,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H381,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H381,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H381,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H381,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H381,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18836,7 +18842,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G382" s="5">
+      <c r="G382" s="12">
         <f t="array" ref="G382">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E381)))</f>
         <v>0</v>
       </c>
@@ -18845,7 +18851,7 @@
         <v>0</v>
       </c>
       <c r="I382" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F382,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F382,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F382,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F382,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F382,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H382,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H382,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H382,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H382,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H382,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18863,7 +18869,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G383" s="5">
+      <c r="G383" s="12">
         <f t="array" ref="G383">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E382)))</f>
         <v>0</v>
       </c>
@@ -18872,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="I383" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F383,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F383,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F383,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F383,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F383,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H383,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H383,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H383,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H383,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H383,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18890,7 +18896,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G384" s="5">
+      <c r="G384" s="12">
         <f t="array" ref="G384">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E383)))</f>
         <v>0</v>
       </c>
@@ -18899,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="I384" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F384,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F384,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F384,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F384,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F384,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H384,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H384,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H384,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H384,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H384,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18917,7 +18923,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G385" s="5">
+      <c r="G385" s="12">
         <f t="array" ref="G385">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E384)))</f>
         <v>0</v>
       </c>
@@ -18926,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="I385" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F385,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F385,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F385,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F385,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F385,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H385,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H385,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H385,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H385,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H385,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18937,14 +18943,14 @@
         <v>0</v>
       </c>
       <c r="E386" t="str">
-        <f t="shared" ref="E386:E449" si="18">IF(F386="","",D386)</f>
+        <f t="shared" ref="E386:E401" si="18">IF(F386="","",D386)</f>
         <v/>
       </c>
       <c r="F386" t="str">
         <f t="shared" ref="F386:F401" si="19">IFERROR(MID(B386,FIND(" casts ",B386,1)+7,IFERROR(FIND(" on ",B386,1)-FIND(" casts ",B386,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G386" s="5">
+      <c r="G386" s="12">
         <f t="array" ref="G386">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E385)))</f>
         <v>0</v>
       </c>
@@ -18953,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="I386" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F386,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F386,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F386,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F386,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F386,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H386,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H386,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H386,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H386,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H386,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18971,7 +18977,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G387" s="5">
+      <c r="G387" s="12">
         <f t="array" ref="G387">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E386)))</f>
         <v>0</v>
       </c>
@@ -18980,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="I387" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F387,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F387,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F387,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F387,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F387,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H387,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H387,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H387,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H387,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H387,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -18998,7 +19004,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G388" s="5">
+      <c r="G388" s="12">
         <f t="array" ref="G388">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E387)))</f>
         <v>0</v>
       </c>
@@ -19007,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="I388" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F388,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F388,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F388,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F388,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F388,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H388,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H388,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H388,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H388,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H388,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19025,7 +19031,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G389" s="5">
+      <c r="G389" s="12">
         <f t="array" ref="G389">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E388)))</f>
         <v>0</v>
       </c>
@@ -19034,7 +19040,7 @@
         <v>0</v>
       </c>
       <c r="I389" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F389,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F389,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F389,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F389,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F389,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H389,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H389,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H389,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H389,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H389,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19052,7 +19058,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G390" s="5">
+      <c r="G390" s="12">
         <f t="array" ref="G390">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E389)))</f>
         <v>0</v>
       </c>
@@ -19061,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="I390" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F390,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F390,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F390,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F390,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F390,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H390,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H390,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H390,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H390,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H390,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19079,7 +19085,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G391" s="5">
+      <c r="G391" s="12">
         <f t="array" ref="G391">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E390)))</f>
         <v>0</v>
       </c>
@@ -19088,7 +19094,7 @@
         <v>0</v>
       </c>
       <c r="I391" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F391,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F391,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F391,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F391,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F391,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H391,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H391,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H391,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H391,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H391,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19106,7 +19112,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G392" s="5">
+      <c r="G392" s="12">
         <f t="array" ref="G392">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E391)))</f>
         <v>0</v>
       </c>
@@ -19115,7 +19121,7 @@
         <v>0</v>
       </c>
       <c r="I392" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F392,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F392,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F392,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F392,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F392,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H392,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H392,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H392,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H392,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H392,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19133,7 +19139,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G393" s="5">
+      <c r="G393" s="12">
         <f t="array" ref="G393">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E392)))</f>
         <v>0</v>
       </c>
@@ -19142,7 +19148,7 @@
         <v>0</v>
       </c>
       <c r="I393" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F393,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F393,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F393,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F393,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F393,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H393,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H393,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H393,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H393,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H393,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19160,7 +19166,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G394" s="5">
+      <c r="G394" s="12">
         <f t="array" ref="G394">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E393)))</f>
         <v>0</v>
       </c>
@@ -19169,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="I394" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F394,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F394,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F394,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F394,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F394,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H394,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H394,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H394,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H394,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H394,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19187,7 +19193,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G395" s="5">
+      <c r="G395" s="12">
         <f t="array" ref="G395">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E394)))</f>
         <v>0</v>
       </c>
@@ -19196,7 +19202,7 @@
         <v>0</v>
       </c>
       <c r="I395" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F395,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F395,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F395,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F395,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F395,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H395,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H395,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H395,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H395,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H395,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19214,7 +19220,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G396" s="5">
+      <c r="G396" s="12">
         <f t="array" ref="G396">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E395)))</f>
         <v>0</v>
       </c>
@@ -19223,7 +19229,7 @@
         <v>0</v>
       </c>
       <c r="I396" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F396,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F396,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F396,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F396,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F396,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H396,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H396,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H396,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H396,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H396,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19241,7 +19247,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G397" s="5">
+      <c r="G397" s="12">
         <f t="array" ref="G397">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E396)))</f>
         <v>0</v>
       </c>
@@ -19250,7 +19256,7 @@
         <v>0</v>
       </c>
       <c r="I397" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F397,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F397,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F397,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F397,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F397,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H397,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H397,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H397,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H397,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H397,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19268,7 +19274,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G398" s="5">
+      <c r="G398" s="12">
         <f t="array" ref="G398">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E397)))</f>
         <v>0</v>
       </c>
@@ -19277,7 +19283,7 @@
         <v>0</v>
       </c>
       <c r="I398" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F398,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F398,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F398,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F398,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F398,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H398,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H398,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H398,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H398,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H398,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19295,7 +19301,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G399" s="5">
+      <c r="G399" s="12">
         <f t="array" ref="G399">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E398)))</f>
         <v>0</v>
       </c>
@@ -19304,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="I399" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F399,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F399,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F399,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F399,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F399,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H399,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H399,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H399,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H399,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H399,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19322,7 +19328,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G400" s="5">
+      <c r="G400" s="12">
         <f t="array" ref="G400">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E399)))</f>
         <v>0</v>
       </c>
@@ -19331,7 +19337,7 @@
         <v>0</v>
       </c>
       <c r="I400" s="3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F400,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(F400,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(F400,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(F400,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(F400,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
+        <f>_xlfn.IFNA(VLOOKUP(H400,翻译对照!$A$1:$E$544,5,FALSE),_xlfn.IFNA(VLOOKUP(H400,翻译对照!$B$1:$E$544,4,FALSE),_xlfn.IFNA(VLOOKUP(H400,翻译对照!$C$1:$E$544,3,FALSE),_xlfn.IFNA(VLOOKUP(H400,翻译对照!$D$1:$E$544,2,FALSE),_xlfn.IFNA(VLOOKUP(H400,翻译对照!$E$1:$E$544,1,FALSE),"")))))</f>
         <v/>
       </c>
     </row>
@@ -19349,7 +19355,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G401" s="5" t="e">
+      <c r="G401" s="12" t="e">
         <f t="array" ref="G401">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E400)))</f>
         <v>#NUM!</v>
       </c>

--- a/csv/taikoSongs/谱面生成器.xlsx
+++ b/csv/taikoSongs/谱面生成器.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\csv\taikoSongs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA5DB1E-8B32-4C4A-B109-2CA4AD3B8EF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F7FC2-74E4-4933-AC3F-C90635DDEE2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="36360" windowHeight="16440" xr2:uid="{915F0882-252E-4FB9-BEA3-EEC9BD447592}"/>
+    <workbookView xWindow="18075" yWindow="3210" windowWidth="18045" windowHeight="11835" xr2:uid="{915F0882-252E-4FB9-BEA3-EEC9BD447592}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -7299,10 +7299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. 复制下方的结果到"生成"工作表的B2部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5. 右侧会生成谱面,复制走即可.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7737,6 +7733,10 @@
   </si>
   <si>
     <t>生成的谱面</t>
+  </si>
+  <si>
+    <t>4. 复制下方的结果到"生成"工作表的A2部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7744,7 +7744,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -7913,14 +7913,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8479,7 +8479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC01190E-B1D9-49CC-B12A-6758DE200E0C}">
   <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8493,7 +8495,7 @@
     </row>
     <row r="2" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -8508,17 +8510,17 @@
     </row>
     <row r="35" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>2421</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
   </sheetData>
@@ -8534,7 +8536,7 @@
   <dimension ref="A1:I466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8545,23 +8547,23 @@
     <col min="4" max="4" width="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="33.875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="10" customWidth="1"/>
     <col min="8" max="8" width="33.875" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.25" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>2417</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="G1" s="11" t="s">
-        <v>2563</v>
-      </c>
-      <c r="H1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="G1" s="12" t="s">
+        <v>2562</v>
+      </c>
+      <c r="H1" s="12"/>
       <c r="I1" s="9" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -8579,7 +8581,7 @@
         <f t="shared" ref="F2:F65" si="1">IFERROR(MID(B2,FIND(" casts ",B2,1)+7,IFERROR(FIND(" on ",B2,1)-FIND(" casts ",B2,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <f t="array" ref="G2">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E1)))</f>
         <v>0</v>
       </c>
@@ -8607,7 +8609,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <f t="array" ref="G3">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E2)))</f>
         <v>0</v>
       </c>
@@ -8635,7 +8637,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <f t="array" ref="G4">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E3)))</f>
         <v>0</v>
       </c>
@@ -8663,7 +8665,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <f t="array" ref="G5">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E4)))</f>
         <v>0</v>
       </c>
@@ -8690,7 +8692,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f t="array" ref="G6">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E5)))</f>
         <v>0</v>
       </c>
@@ -8717,7 +8719,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <f t="array" ref="G7">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E6)))</f>
         <v>0</v>
       </c>
@@ -8744,7 +8746,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <f t="array" ref="G8">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E7)))</f>
         <v>0</v>
       </c>
@@ -8771,7 +8773,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <f t="array" ref="G9">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E8)))</f>
         <v>0</v>
       </c>
@@ -8798,7 +8800,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <f t="array" ref="G10">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E9)))</f>
         <v>0</v>
       </c>
@@ -8825,7 +8827,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <f t="array" ref="G11">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E10)))</f>
         <v>0</v>
       </c>
@@ -8852,7 +8854,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <f t="array" ref="G12">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E11)))</f>
         <v>0</v>
       </c>
@@ -8879,7 +8881,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <f t="array" ref="G13">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E12)))</f>
         <v>0</v>
       </c>
@@ -8906,7 +8908,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <f t="array" ref="G14">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E13)))</f>
         <v>0</v>
       </c>
@@ -8933,7 +8935,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <f t="array" ref="G15">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E14)))</f>
         <v>0</v>
       </c>
@@ -8960,7 +8962,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <f t="array" ref="G16">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E15)))</f>
         <v>0</v>
       </c>
@@ -8987,7 +8989,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <f t="array" ref="G17">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E16)))</f>
         <v>0</v>
       </c>
@@ -9014,7 +9016,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <f t="array" ref="G18">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E17)))</f>
         <v>0</v>
       </c>
@@ -9041,7 +9043,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <f t="array" ref="G19">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E18)))</f>
         <v>0</v>
       </c>
@@ -9068,7 +9070,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <f t="array" ref="G20">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E19)))</f>
         <v>0</v>
       </c>
@@ -9095,7 +9097,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <f t="array" ref="G21">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E20)))</f>
         <v>0</v>
       </c>
@@ -9122,7 +9124,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <f t="array" ref="G22">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E21)))</f>
         <v>0</v>
       </c>
@@ -9149,7 +9151,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <f t="array" ref="G23">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E22)))</f>
         <v>0</v>
       </c>
@@ -9176,7 +9178,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <f t="array" ref="G24">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E23)))</f>
         <v>0</v>
       </c>
@@ -9203,7 +9205,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <f t="array" ref="G25">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E24)))</f>
         <v>0</v>
       </c>
@@ -9230,7 +9232,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <f t="array" ref="G26">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E25)))</f>
         <v>0</v>
       </c>
@@ -9257,7 +9259,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <f t="array" ref="G27">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E26)))</f>
         <v>0</v>
       </c>
@@ -9284,7 +9286,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <f t="array" ref="G28">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E27)))</f>
         <v>0</v>
       </c>
@@ -9311,7 +9313,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <f t="array" ref="G29">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E28)))</f>
         <v>0</v>
       </c>
@@ -9338,7 +9340,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <f t="array" ref="G30">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E29)))</f>
         <v>0</v>
       </c>
@@ -9365,7 +9367,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="10">
         <f t="array" ref="G31">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E30)))</f>
         <v>0</v>
       </c>
@@ -9392,7 +9394,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="10">
         <f t="array" ref="G32">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E31)))</f>
         <v>0</v>
       </c>
@@ -9419,7 +9421,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="10">
         <f t="array" ref="G33">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E32)))</f>
         <v>0</v>
       </c>
@@ -9446,7 +9448,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <f t="array" ref="G34">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E33)))</f>
         <v>0</v>
       </c>
@@ -9473,7 +9475,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <f t="array" ref="G35">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E34)))</f>
         <v>0</v>
       </c>
@@ -9500,7 +9502,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <f t="array" ref="G36">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E35)))</f>
         <v>0</v>
       </c>
@@ -9527,7 +9529,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="10">
         <f t="array" ref="G37">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E36)))</f>
         <v>0</v>
       </c>
@@ -9554,7 +9556,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <f t="array" ref="G38">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E37)))</f>
         <v>0</v>
       </c>
@@ -9581,7 +9583,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <f t="array" ref="G39">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E38)))</f>
         <v>0</v>
       </c>
@@ -9608,7 +9610,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <f t="array" ref="G40">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E39)))</f>
         <v>0</v>
       </c>
@@ -9635,7 +9637,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="10">
         <f t="array" ref="G41">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E40)))</f>
         <v>0</v>
       </c>
@@ -9662,7 +9664,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="10">
         <f t="array" ref="G42">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E41)))</f>
         <v>0</v>
       </c>
@@ -9689,7 +9691,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="10">
         <f t="array" ref="G43">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E42)))</f>
         <v>0</v>
       </c>
@@ -9716,7 +9718,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="10">
         <f t="array" ref="G44">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E43)))</f>
         <v>0</v>
       </c>
@@ -9743,7 +9745,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="10">
         <f t="array" ref="G45">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E44)))</f>
         <v>0</v>
       </c>
@@ -9770,7 +9772,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="10">
         <f t="array" ref="G46">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E45)))</f>
         <v>0</v>
       </c>
@@ -9797,7 +9799,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="10">
         <f t="array" ref="G47">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E46)))</f>
         <v>0</v>
       </c>
@@ -9824,7 +9826,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="10">
         <f t="array" ref="G48">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E47)))</f>
         <v>0</v>
       </c>
@@ -9851,7 +9853,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="10">
         <f t="array" ref="G49">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E48)))</f>
         <v>0</v>
       </c>
@@ -9878,7 +9880,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="10">
         <f t="array" ref="G50">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E49)))</f>
         <v>0</v>
       </c>
@@ -9905,7 +9907,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="10">
         <f t="array" ref="G51">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E50)))</f>
         <v>0</v>
       </c>
@@ -9932,7 +9934,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="10">
         <f t="array" ref="G52">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E51)))</f>
         <v>0</v>
       </c>
@@ -9959,7 +9961,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="10">
         <f t="array" ref="G53">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E52)))</f>
         <v>0</v>
       </c>
@@ -9986,7 +9988,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="10">
         <f t="array" ref="G54">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E53)))</f>
         <v>0</v>
       </c>
@@ -10013,7 +10015,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="10">
         <f t="array" ref="G55">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E54)))</f>
         <v>0</v>
       </c>
@@ -10040,7 +10042,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="10">
         <f t="array" ref="G56">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E55)))</f>
         <v>0</v>
       </c>
@@ -10067,7 +10069,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="10">
         <f t="array" ref="G57">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E56)))</f>
         <v>0</v>
       </c>
@@ -10094,7 +10096,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="10">
         <f t="array" ref="G58">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E57)))</f>
         <v>0</v>
       </c>
@@ -10121,7 +10123,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="10">
         <f t="array" ref="G59">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E58)))</f>
         <v>0</v>
       </c>
@@ -10148,7 +10150,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="10">
         <f t="array" ref="G60">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E59)))</f>
         <v>0</v>
       </c>
@@ -10175,7 +10177,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="10">
         <f t="array" ref="G61">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E60)))</f>
         <v>0</v>
       </c>
@@ -10202,7 +10204,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="10">
         <f t="array" ref="G62">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E61)))</f>
         <v>0</v>
       </c>
@@ -10229,7 +10231,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="10">
         <f t="array" ref="G63">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E62)))</f>
         <v>0</v>
       </c>
@@ -10256,7 +10258,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="10">
         <f t="array" ref="G64">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E63)))</f>
         <v>0</v>
       </c>
@@ -10283,7 +10285,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="10">
         <f t="array" ref="G65">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E64)))</f>
         <v>0</v>
       </c>
@@ -10310,7 +10312,7 @@
         <f t="shared" ref="F66:F129" si="4">IFERROR(MID(B66,FIND(" casts ",B66,1)+7,IFERROR(FIND(" on ",B66,1)-FIND(" casts ",B66,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="10">
         <f t="array" ref="G66">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E65)))</f>
         <v>0</v>
       </c>
@@ -10337,7 +10339,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="10">
         <f t="array" ref="G67">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E66)))</f>
         <v>0</v>
       </c>
@@ -10364,7 +10366,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="10">
         <f t="array" ref="G68">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E67)))</f>
         <v>0</v>
       </c>
@@ -10391,7 +10393,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="10">
         <f t="array" ref="G69">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E68)))</f>
         <v>0</v>
       </c>
@@ -10418,7 +10420,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="10">
         <f t="array" ref="G70">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E69)))</f>
         <v>0</v>
       </c>
@@ -10445,7 +10447,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="10">
         <f t="array" ref="G71">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E70)))</f>
         <v>0</v>
       </c>
@@ -10472,7 +10474,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="10">
         <f t="array" ref="G72">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E71)))</f>
         <v>0</v>
       </c>
@@ -10499,7 +10501,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="10">
         <f t="array" ref="G73">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E72)))</f>
         <v>0</v>
       </c>
@@ -10526,7 +10528,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="10">
         <f t="array" ref="G74">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E73)))</f>
         <v>0</v>
       </c>
@@ -10553,7 +10555,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="10">
         <f t="array" ref="G75">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E74)))</f>
         <v>0</v>
       </c>
@@ -10580,7 +10582,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="10">
         <f t="array" ref="G76">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E75)))</f>
         <v>0</v>
       </c>
@@ -10607,7 +10609,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="10">
         <f t="array" ref="G77">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E76)))</f>
         <v>0</v>
       </c>
@@ -10634,7 +10636,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="10">
         <f t="array" ref="G78">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E77)))</f>
         <v>0</v>
       </c>
@@ -10661,7 +10663,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="10">
         <f t="array" ref="G79">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E78)))</f>
         <v>0</v>
       </c>
@@ -10688,7 +10690,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="10">
         <f t="array" ref="G80">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E79)))</f>
         <v>0</v>
       </c>
@@ -10715,7 +10717,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="10">
         <f t="array" ref="G81">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E80)))</f>
         <v>0</v>
       </c>
@@ -10742,7 +10744,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="10">
         <f t="array" ref="G82">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E81)))</f>
         <v>0</v>
       </c>
@@ -10769,7 +10771,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="10">
         <f t="array" ref="G83">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E82)))</f>
         <v>0</v>
       </c>
@@ -10796,7 +10798,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="10">
         <f t="array" ref="G84">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E83)))</f>
         <v>0</v>
       </c>
@@ -10823,7 +10825,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="10">
         <f t="array" ref="G85">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E84)))</f>
         <v>0</v>
       </c>
@@ -10850,7 +10852,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="10">
         <f t="array" ref="G86">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E85)))</f>
         <v>0</v>
       </c>
@@ -10877,7 +10879,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="10">
         <f t="array" ref="G87">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E86)))</f>
         <v>0</v>
       </c>
@@ -10904,7 +10906,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="10">
         <f t="array" ref="G88">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E87)))</f>
         <v>0</v>
       </c>
@@ -10931,7 +10933,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="10">
         <f t="array" ref="G89">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E88)))</f>
         <v>0</v>
       </c>
@@ -10958,7 +10960,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G90" s="12">
+      <c r="G90" s="10">
         <f t="array" ref="G90">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E89)))</f>
         <v>0</v>
       </c>
@@ -10985,7 +10987,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="10">
         <f t="array" ref="G91">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E90)))</f>
         <v>0</v>
       </c>
@@ -11012,7 +11014,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G92" s="12">
+      <c r="G92" s="10">
         <f t="array" ref="G92">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E91)))</f>
         <v>0</v>
       </c>
@@ -11039,7 +11041,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G93" s="12">
+      <c r="G93" s="10">
         <f t="array" ref="G93">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E92)))</f>
         <v>0</v>
       </c>
@@ -11066,7 +11068,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="10">
         <f t="array" ref="G94">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E93)))</f>
         <v>0</v>
       </c>
@@ -11093,7 +11095,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="10">
         <f t="array" ref="G95">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E94)))</f>
         <v>0</v>
       </c>
@@ -11120,7 +11122,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G96" s="12">
+      <c r="G96" s="10">
         <f t="array" ref="G96">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E95)))</f>
         <v>0</v>
       </c>
@@ -11147,7 +11149,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="10">
         <f t="array" ref="G97">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E96)))</f>
         <v>0</v>
       </c>
@@ -11174,7 +11176,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="10">
         <f t="array" ref="G98">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E97)))</f>
         <v>0</v>
       </c>
@@ -11201,7 +11203,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="10">
         <f t="array" ref="G99">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E98)))</f>
         <v>0</v>
       </c>
@@ -11228,7 +11230,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G100" s="12">
+      <c r="G100" s="10">
         <f t="array" ref="G100">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E99)))</f>
         <v>0</v>
       </c>
@@ -11255,7 +11257,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G101" s="12">
+      <c r="G101" s="10">
         <f t="array" ref="G101">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E100)))</f>
         <v>0</v>
       </c>
@@ -11282,7 +11284,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="10">
         <f t="array" ref="G102">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E101)))</f>
         <v>0</v>
       </c>
@@ -11309,7 +11311,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="10">
         <f t="array" ref="G103">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E102)))</f>
         <v>0</v>
       </c>
@@ -11336,7 +11338,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="10">
         <f t="array" ref="G104">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E103)))</f>
         <v>0</v>
       </c>
@@ -11363,7 +11365,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="10">
         <f t="array" ref="G105">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E104)))</f>
         <v>0</v>
       </c>
@@ -11390,7 +11392,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="10">
         <f t="array" ref="G106">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E105)))</f>
         <v>0</v>
       </c>
@@ -11417,7 +11419,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="10">
         <f t="array" ref="G107">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E106)))</f>
         <v>0</v>
       </c>
@@ -11444,7 +11446,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G108" s="12">
+      <c r="G108" s="10">
         <f t="array" ref="G108">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E107)))</f>
         <v>0</v>
       </c>
@@ -11471,7 +11473,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="10">
         <f t="array" ref="G109">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E108)))</f>
         <v>0</v>
       </c>
@@ -11498,7 +11500,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="10">
         <f t="array" ref="G110">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E109)))</f>
         <v>0</v>
       </c>
@@ -11525,7 +11527,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="10">
         <f t="array" ref="G111">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E110)))</f>
         <v>0</v>
       </c>
@@ -11552,7 +11554,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="10">
         <f t="array" ref="G112">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E111)))</f>
         <v>0</v>
       </c>
@@ -11579,7 +11581,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="10">
         <f t="array" ref="G113">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E112)))</f>
         <v>0</v>
       </c>
@@ -11606,7 +11608,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G114" s="12">
+      <c r="G114" s="10">
         <f t="array" ref="G114">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E113)))</f>
         <v>0</v>
       </c>
@@ -11633,7 +11635,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="10">
         <f t="array" ref="G115">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E114)))</f>
         <v>0</v>
       </c>
@@ -11660,7 +11662,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G116" s="12">
+      <c r="G116" s="10">
         <f t="array" ref="G116">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E115)))</f>
         <v>0</v>
       </c>
@@ -11687,7 +11689,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G117" s="12">
+      <c r="G117" s="10">
         <f t="array" ref="G117">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E116)))</f>
         <v>0</v>
       </c>
@@ -11714,7 +11716,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G118" s="12">
+      <c r="G118" s="10">
         <f t="array" ref="G118">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E117)))</f>
         <v>0</v>
       </c>
@@ -11741,7 +11743,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G119" s="12">
+      <c r="G119" s="10">
         <f t="array" ref="G119">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E118)))</f>
         <v>0</v>
       </c>
@@ -11768,7 +11770,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G120" s="12">
+      <c r="G120" s="10">
         <f t="array" ref="G120">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E119)))</f>
         <v>0</v>
       </c>
@@ -11795,7 +11797,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G121" s="12">
+      <c r="G121" s="10">
         <f t="array" ref="G121">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E120)))</f>
         <v>0</v>
       </c>
@@ -11822,7 +11824,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G122" s="12">
+      <c r="G122" s="10">
         <f t="array" ref="G122">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E121)))</f>
         <v>0</v>
       </c>
@@ -11849,7 +11851,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G123" s="12">
+      <c r="G123" s="10">
         <f t="array" ref="G123">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E122)))</f>
         <v>0</v>
       </c>
@@ -11876,7 +11878,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G124" s="12">
+      <c r="G124" s="10">
         <f t="array" ref="G124">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E123)))</f>
         <v>0</v>
       </c>
@@ -11903,7 +11905,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G125" s="12">
+      <c r="G125" s="10">
         <f t="array" ref="G125">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E124)))</f>
         <v>0</v>
       </c>
@@ -11930,7 +11932,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G126" s="12">
+      <c r="G126" s="10">
         <f t="array" ref="G126">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E125)))</f>
         <v>0</v>
       </c>
@@ -11957,7 +11959,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G127" s="12">
+      <c r="G127" s="10">
         <f t="array" ref="G127">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E126)))</f>
         <v>0</v>
       </c>
@@ -11984,7 +11986,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G128" s="12">
+      <c r="G128" s="10">
         <f t="array" ref="G128">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E127)))</f>
         <v>0</v>
       </c>
@@ -12011,7 +12013,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G129" s="12">
+      <c r="G129" s="10">
         <f t="array" ref="G129">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E128)))</f>
         <v>0</v>
       </c>
@@ -12038,7 +12040,7 @@
         <f t="shared" ref="F130:F193" si="7">IFERROR(MID(B130,FIND(" casts ",B130,1)+7,IFERROR(FIND(" on ",B130,1)-FIND(" casts ",B130,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G130" s="12">
+      <c r="G130" s="10">
         <f t="array" ref="G130">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E129)))</f>
         <v>0</v>
       </c>
@@ -12065,7 +12067,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G131" s="12">
+      <c r="G131" s="10">
         <f t="array" ref="G131">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E130)))</f>
         <v>0</v>
       </c>
@@ -12092,7 +12094,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G132" s="12">
+      <c r="G132" s="10">
         <f t="array" ref="G132">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E131)))</f>
         <v>0</v>
       </c>
@@ -12119,7 +12121,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G133" s="12">
+      <c r="G133" s="10">
         <f t="array" ref="G133">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E132)))</f>
         <v>0</v>
       </c>
@@ -12146,7 +12148,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G134" s="12">
+      <c r="G134" s="10">
         <f t="array" ref="G134">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E133)))</f>
         <v>0</v>
       </c>
@@ -12173,7 +12175,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G135" s="12">
+      <c r="G135" s="10">
         <f t="array" ref="G135">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E134)))</f>
         <v>0</v>
       </c>
@@ -12200,7 +12202,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G136" s="12">
+      <c r="G136" s="10">
         <f t="array" ref="G136">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E135)))</f>
         <v>0</v>
       </c>
@@ -12227,7 +12229,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G137" s="12">
+      <c r="G137" s="10">
         <f t="array" ref="G137">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E136)))</f>
         <v>0</v>
       </c>
@@ -12254,7 +12256,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G138" s="12">
+      <c r="G138" s="10">
         <f t="array" ref="G138">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E137)))</f>
         <v>0</v>
       </c>
@@ -12281,7 +12283,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G139" s="12">
+      <c r="G139" s="10">
         <f t="array" ref="G139">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E138)))</f>
         <v>0</v>
       </c>
@@ -12308,7 +12310,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G140" s="12">
+      <c r="G140" s="10">
         <f t="array" ref="G140">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E139)))</f>
         <v>0</v>
       </c>
@@ -12335,7 +12337,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G141" s="12">
+      <c r="G141" s="10">
         <f t="array" ref="G141">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E140)))</f>
         <v>0</v>
       </c>
@@ -12362,7 +12364,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G142" s="12">
+      <c r="G142" s="10">
         <f t="array" ref="G142">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E141)))</f>
         <v>0</v>
       </c>
@@ -12389,7 +12391,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G143" s="12">
+      <c r="G143" s="10">
         <f t="array" ref="G143">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E142)))</f>
         <v>0</v>
       </c>
@@ -12416,7 +12418,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G144" s="12">
+      <c r="G144" s="10">
         <f t="array" ref="G144">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E143)))</f>
         <v>0</v>
       </c>
@@ -12443,7 +12445,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G145" s="12">
+      <c r="G145" s="10">
         <f t="array" ref="G145">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E144)))</f>
         <v>0</v>
       </c>
@@ -12470,7 +12472,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G146" s="12">
+      <c r="G146" s="10">
         <f t="array" ref="G146">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E145)))</f>
         <v>0</v>
       </c>
@@ -12497,7 +12499,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G147" s="12">
+      <c r="G147" s="10">
         <f t="array" ref="G147">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E146)))</f>
         <v>0</v>
       </c>
@@ -12524,7 +12526,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G148" s="12">
+      <c r="G148" s="10">
         <f t="array" ref="G148">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E147)))</f>
         <v>0</v>
       </c>
@@ -12551,7 +12553,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G149" s="12">
+      <c r="G149" s="10">
         <f t="array" ref="G149">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E148)))</f>
         <v>0</v>
       </c>
@@ -12578,7 +12580,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G150" s="12">
+      <c r="G150" s="10">
         <f t="array" ref="G150">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E149)))</f>
         <v>0</v>
       </c>
@@ -12605,7 +12607,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G151" s="12">
+      <c r="G151" s="10">
         <f t="array" ref="G151">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E150)))</f>
         <v>0</v>
       </c>
@@ -12632,7 +12634,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G152" s="12">
+      <c r="G152" s="10">
         <f t="array" ref="G152">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E151)))</f>
         <v>0</v>
       </c>
@@ -12659,7 +12661,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G153" s="12">
+      <c r="G153" s="10">
         <f t="array" ref="G153">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E152)))</f>
         <v>0</v>
       </c>
@@ -12686,7 +12688,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G154" s="12">
+      <c r="G154" s="10">
         <f t="array" ref="G154">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E153)))</f>
         <v>0</v>
       </c>
@@ -12713,7 +12715,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G155" s="12">
+      <c r="G155" s="10">
         <f t="array" ref="G155">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E154)))</f>
         <v>0</v>
       </c>
@@ -12740,7 +12742,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G156" s="12">
+      <c r="G156" s="10">
         <f t="array" ref="G156">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E155)))</f>
         <v>0</v>
       </c>
@@ -12767,7 +12769,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G157" s="12">
+      <c r="G157" s="10">
         <f t="array" ref="G157">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E156)))</f>
         <v>0</v>
       </c>
@@ -12794,7 +12796,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G158" s="12">
+      <c r="G158" s="10">
         <f t="array" ref="G158">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E157)))</f>
         <v>0</v>
       </c>
@@ -12821,7 +12823,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G159" s="12">
+      <c r="G159" s="10">
         <f t="array" ref="G159">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E158)))</f>
         <v>0</v>
       </c>
@@ -12848,7 +12850,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G160" s="12">
+      <c r="G160" s="10">
         <f t="array" ref="G160">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E159)))</f>
         <v>0</v>
       </c>
@@ -12875,7 +12877,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G161" s="12">
+      <c r="G161" s="10">
         <f t="array" ref="G161">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E160)))</f>
         <v>0</v>
       </c>
@@ -12902,7 +12904,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G162" s="12">
+      <c r="G162" s="10">
         <f t="array" ref="G162">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E161)))</f>
         <v>0</v>
       </c>
@@ -12929,7 +12931,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G163" s="12">
+      <c r="G163" s="10">
         <f t="array" ref="G163">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E162)))</f>
         <v>0</v>
       </c>
@@ -12956,7 +12958,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G164" s="12">
+      <c r="G164" s="10">
         <f t="array" ref="G164">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E163)))</f>
         <v>0</v>
       </c>
@@ -12983,7 +12985,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G165" s="12">
+      <c r="G165" s="10">
         <f t="array" ref="G165">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E164)))</f>
         <v>0</v>
       </c>
@@ -13010,7 +13012,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G166" s="12">
+      <c r="G166" s="10">
         <f t="array" ref="G166">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E165)))</f>
         <v>0</v>
       </c>
@@ -13037,7 +13039,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G167" s="12">
+      <c r="G167" s="10">
         <f t="array" ref="G167">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E166)))</f>
         <v>0</v>
       </c>
@@ -13064,7 +13066,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G168" s="12">
+      <c r="G168" s="10">
         <f t="array" ref="G168">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E167)))</f>
         <v>0</v>
       </c>
@@ -13091,7 +13093,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G169" s="12">
+      <c r="G169" s="10">
         <f t="array" ref="G169">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E168)))</f>
         <v>0</v>
       </c>
@@ -13118,7 +13120,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G170" s="12">
+      <c r="G170" s="10">
         <f t="array" ref="G170">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E169)))</f>
         <v>0</v>
       </c>
@@ -13145,7 +13147,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G171" s="12">
+      <c r="G171" s="10">
         <f t="array" ref="G171">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E170)))</f>
         <v>0</v>
       </c>
@@ -13172,7 +13174,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G172" s="12">
+      <c r="G172" s="10">
         <f t="array" ref="G172">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E171)))</f>
         <v>0</v>
       </c>
@@ -13199,7 +13201,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G173" s="12">
+      <c r="G173" s="10">
         <f t="array" ref="G173">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E172)))</f>
         <v>0</v>
       </c>
@@ -13226,7 +13228,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G174" s="12">
+      <c r="G174" s="10">
         <f t="array" ref="G174">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E173)))</f>
         <v>0</v>
       </c>
@@ -13253,7 +13255,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G175" s="12">
+      <c r="G175" s="10">
         <f t="array" ref="G175">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E174)))</f>
         <v>0</v>
       </c>
@@ -13280,7 +13282,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G176" s="12">
+      <c r="G176" s="10">
         <f t="array" ref="G176">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E175)))</f>
         <v>0</v>
       </c>
@@ -13307,7 +13309,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G177" s="12">
+      <c r="G177" s="10">
         <f t="array" ref="G177">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E176)))</f>
         <v>0</v>
       </c>
@@ -13334,7 +13336,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G178" s="12">
+      <c r="G178" s="10">
         <f t="array" ref="G178">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E177)))</f>
         <v>0</v>
       </c>
@@ -13361,7 +13363,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G179" s="12">
+      <c r="G179" s="10">
         <f t="array" ref="G179">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E178)))</f>
         <v>0</v>
       </c>
@@ -13388,7 +13390,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G180" s="12">
+      <c r="G180" s="10">
         <f t="array" ref="G180">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E179)))</f>
         <v>0</v>
       </c>
@@ -13415,7 +13417,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G181" s="12">
+      <c r="G181" s="10">
         <f t="array" ref="G181">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E180)))</f>
         <v>0</v>
       </c>
@@ -13442,7 +13444,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G182" s="12">
+      <c r="G182" s="10">
         <f t="array" ref="G182">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E181)))</f>
         <v>0</v>
       </c>
@@ -13469,7 +13471,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G183" s="12">
+      <c r="G183" s="10">
         <f t="array" ref="G183">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E182)))</f>
         <v>0</v>
       </c>
@@ -13496,7 +13498,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G184" s="12">
+      <c r="G184" s="10">
         <f t="array" ref="G184">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E183)))</f>
         <v>0</v>
       </c>
@@ -13523,7 +13525,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G185" s="12">
+      <c r="G185" s="10">
         <f t="array" ref="G185">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E184)))</f>
         <v>0</v>
       </c>
@@ -13550,7 +13552,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G186" s="12">
+      <c r="G186" s="10">
         <f t="array" ref="G186">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E185)))</f>
         <v>0</v>
       </c>
@@ -13577,7 +13579,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G187" s="12">
+      <c r="G187" s="10">
         <f t="array" ref="G187">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E186)))</f>
         <v>0</v>
       </c>
@@ -13604,7 +13606,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G188" s="12">
+      <c r="G188" s="10">
         <f t="array" ref="G188">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E187)))</f>
         <v>0</v>
       </c>
@@ -13631,7 +13633,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G189" s="12">
+      <c r="G189" s="10">
         <f t="array" ref="G189">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E188)))</f>
         <v>0</v>
       </c>
@@ -13658,7 +13660,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G190" s="12">
+      <c r="G190" s="10">
         <f t="array" ref="G190">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E189)))</f>
         <v>0</v>
       </c>
@@ -13685,7 +13687,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G191" s="12">
+      <c r="G191" s="10">
         <f t="array" ref="G191">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E190)))</f>
         <v>0</v>
       </c>
@@ -13712,7 +13714,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G192" s="12">
+      <c r="G192" s="10">
         <f t="array" ref="G192">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E191)))</f>
         <v>0</v>
       </c>
@@ -13739,7 +13741,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G193" s="12">
+      <c r="G193" s="10">
         <f t="array" ref="G193">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E192)))</f>
         <v>0</v>
       </c>
@@ -13766,7 +13768,7 @@
         <f t="shared" ref="F194:F257" si="10">IFERROR(MID(B194,FIND(" casts ",B194,1)+7,IFERROR(FIND(" on ",B194,1)-FIND(" casts ",B194,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G194" s="12">
+      <c r="G194" s="10">
         <f t="array" ref="G194">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E193)))</f>
         <v>0</v>
       </c>
@@ -13793,7 +13795,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G195" s="12">
+      <c r="G195" s="10">
         <f t="array" ref="G195">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E194)))</f>
         <v>0</v>
       </c>
@@ -13820,7 +13822,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G196" s="12">
+      <c r="G196" s="10">
         <f t="array" ref="G196">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E195)))</f>
         <v>0</v>
       </c>
@@ -13847,7 +13849,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G197" s="12">
+      <c r="G197" s="10">
         <f t="array" ref="G197">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E196)))</f>
         <v>0</v>
       </c>
@@ -13874,7 +13876,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G198" s="12">
+      <c r="G198" s="10">
         <f t="array" ref="G198">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E197)))</f>
         <v>0</v>
       </c>
@@ -13901,7 +13903,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G199" s="12">
+      <c r="G199" s="10">
         <f t="array" ref="G199">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E198)))</f>
         <v>0</v>
       </c>
@@ -13928,7 +13930,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G200" s="12">
+      <c r="G200" s="10">
         <f t="array" ref="G200">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E199)))</f>
         <v>0</v>
       </c>
@@ -13955,7 +13957,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G201" s="12">
+      <c r="G201" s="10">
         <f t="array" ref="G201">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E200)))</f>
         <v>0</v>
       </c>
@@ -13982,7 +13984,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G202" s="12">
+      <c r="G202" s="10">
         <f t="array" ref="G202">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E201)))</f>
         <v>0</v>
       </c>
@@ -14009,7 +14011,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G203" s="12">
+      <c r="G203" s="10">
         <f t="array" ref="G203">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E202)))</f>
         <v>0</v>
       </c>
@@ -14036,7 +14038,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G204" s="12">
+      <c r="G204" s="10">
         <f t="array" ref="G204">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E203)))</f>
         <v>0</v>
       </c>
@@ -14063,7 +14065,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G205" s="12">
+      <c r="G205" s="10">
         <f t="array" ref="G205">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E204)))</f>
         <v>0</v>
       </c>
@@ -14090,7 +14092,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G206" s="12">
+      <c r="G206" s="10">
         <f t="array" ref="G206">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E205)))</f>
         <v>0</v>
       </c>
@@ -14117,7 +14119,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G207" s="12">
+      <c r="G207" s="10">
         <f t="array" ref="G207">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E206)))</f>
         <v>0</v>
       </c>
@@ -14144,7 +14146,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G208" s="12">
+      <c r="G208" s="10">
         <f t="array" ref="G208">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E207)))</f>
         <v>0</v>
       </c>
@@ -14171,7 +14173,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G209" s="12">
+      <c r="G209" s="10">
         <f t="array" ref="G209">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E208)))</f>
         <v>0</v>
       </c>
@@ -14198,7 +14200,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G210" s="12">
+      <c r="G210" s="10">
         <f t="array" ref="G210">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E209)))</f>
         <v>0</v>
       </c>
@@ -14225,7 +14227,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G211" s="12">
+      <c r="G211" s="10">
         <f t="array" ref="G211">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E210)))</f>
         <v>0</v>
       </c>
@@ -14252,7 +14254,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G212" s="12">
+      <c r="G212" s="10">
         <f t="array" ref="G212">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E211)))</f>
         <v>0</v>
       </c>
@@ -14279,7 +14281,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G213" s="12">
+      <c r="G213" s="10">
         <f t="array" ref="G213">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E212)))</f>
         <v>0</v>
       </c>
@@ -14306,7 +14308,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G214" s="12">
+      <c r="G214" s="10">
         <f t="array" ref="G214">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E213)))</f>
         <v>0</v>
       </c>
@@ -14333,7 +14335,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G215" s="12">
+      <c r="G215" s="10">
         <f t="array" ref="G215">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E214)))</f>
         <v>0</v>
       </c>
@@ -14360,7 +14362,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G216" s="12">
+      <c r="G216" s="10">
         <f t="array" ref="G216">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E215)))</f>
         <v>0</v>
       </c>
@@ -14387,7 +14389,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G217" s="12">
+      <c r="G217" s="10">
         <f t="array" ref="G217">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E216)))</f>
         <v>0</v>
       </c>
@@ -14414,7 +14416,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G218" s="12">
+      <c r="G218" s="10">
         <f t="array" ref="G218">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E217)))</f>
         <v>0</v>
       </c>
@@ -14441,7 +14443,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G219" s="12">
+      <c r="G219" s="10">
         <f t="array" ref="G219">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E218)))</f>
         <v>0</v>
       </c>
@@ -14468,7 +14470,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G220" s="12">
+      <c r="G220" s="10">
         <f t="array" ref="G220">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E219)))</f>
         <v>0</v>
       </c>
@@ -14495,7 +14497,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G221" s="12">
+      <c r="G221" s="10">
         <f t="array" ref="G221">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E220)))</f>
         <v>0</v>
       </c>
@@ -14522,7 +14524,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G222" s="12">
+      <c r="G222" s="10">
         <f t="array" ref="G222">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E221)))</f>
         <v>0</v>
       </c>
@@ -14549,7 +14551,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G223" s="12">
+      <c r="G223" s="10">
         <f t="array" ref="G223">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E222)))</f>
         <v>0</v>
       </c>
@@ -14576,7 +14578,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G224" s="12">
+      <c r="G224" s="10">
         <f t="array" ref="G224">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E223)))</f>
         <v>0</v>
       </c>
@@ -14603,7 +14605,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G225" s="12">
+      <c r="G225" s="10">
         <f t="array" ref="G225">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E224)))</f>
         <v>0</v>
       </c>
@@ -14630,7 +14632,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G226" s="12">
+      <c r="G226" s="10">
         <f t="array" ref="G226">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E225)))</f>
         <v>0</v>
       </c>
@@ -14657,7 +14659,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G227" s="12">
+      <c r="G227" s="10">
         <f t="array" ref="G227">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E226)))</f>
         <v>0</v>
       </c>
@@ -14684,7 +14686,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G228" s="12">
+      <c r="G228" s="10">
         <f t="array" ref="G228">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E227)))</f>
         <v>0</v>
       </c>
@@ -14711,7 +14713,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G229" s="12">
+      <c r="G229" s="10">
         <f t="array" ref="G229">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E228)))</f>
         <v>0</v>
       </c>
@@ -14738,7 +14740,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G230" s="12">
+      <c r="G230" s="10">
         <f t="array" ref="G230">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E229)))</f>
         <v>0</v>
       </c>
@@ -14765,7 +14767,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G231" s="12">
+      <c r="G231" s="10">
         <f t="array" ref="G231">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E230)))</f>
         <v>0</v>
       </c>
@@ -14792,7 +14794,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G232" s="12">
+      <c r="G232" s="10">
         <f t="array" ref="G232">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E231)))</f>
         <v>0</v>
       </c>
@@ -14819,7 +14821,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G233" s="12">
+      <c r="G233" s="10">
         <f t="array" ref="G233">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E232)))</f>
         <v>0</v>
       </c>
@@ -14846,7 +14848,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G234" s="12">
+      <c r="G234" s="10">
         <f t="array" ref="G234">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E233)))</f>
         <v>0</v>
       </c>
@@ -14873,7 +14875,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G235" s="12">
+      <c r="G235" s="10">
         <f t="array" ref="G235">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E234)))</f>
         <v>0</v>
       </c>
@@ -14900,7 +14902,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G236" s="12">
+      <c r="G236" s="10">
         <f t="array" ref="G236">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E235)))</f>
         <v>0</v>
       </c>
@@ -14927,7 +14929,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G237" s="12">
+      <c r="G237" s="10">
         <f t="array" ref="G237">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E236)))</f>
         <v>0</v>
       </c>
@@ -14954,7 +14956,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G238" s="12">
+      <c r="G238" s="10">
         <f t="array" ref="G238">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E237)))</f>
         <v>0</v>
       </c>
@@ -14981,7 +14983,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G239" s="12">
+      <c r="G239" s="10">
         <f t="array" ref="G239">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E238)))</f>
         <v>0</v>
       </c>
@@ -15008,7 +15010,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G240" s="12">
+      <c r="G240" s="10">
         <f t="array" ref="G240">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E239)))</f>
         <v>0</v>
       </c>
@@ -15035,7 +15037,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G241" s="12">
+      <c r="G241" s="10">
         <f t="array" ref="G241">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E240)))</f>
         <v>0</v>
       </c>
@@ -15062,7 +15064,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G242" s="12">
+      <c r="G242" s="10">
         <f t="array" ref="G242">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E241)))</f>
         <v>0</v>
       </c>
@@ -15089,7 +15091,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G243" s="12">
+      <c r="G243" s="10">
         <f t="array" ref="G243">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E242)))</f>
         <v>0</v>
       </c>
@@ -15116,7 +15118,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G244" s="12">
+      <c r="G244" s="10">
         <f t="array" ref="G244">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E243)))</f>
         <v>0</v>
       </c>
@@ -15143,7 +15145,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G245" s="12">
+      <c r="G245" s="10">
         <f t="array" ref="G245">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E244)))</f>
         <v>0</v>
       </c>
@@ -15170,7 +15172,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G246" s="12">
+      <c r="G246" s="10">
         <f t="array" ref="G246">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E245)))</f>
         <v>0</v>
       </c>
@@ -15197,7 +15199,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G247" s="12">
+      <c r="G247" s="10">
         <f t="array" ref="G247">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E246)))</f>
         <v>0</v>
       </c>
@@ -15224,7 +15226,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G248" s="12">
+      <c r="G248" s="10">
         <f t="array" ref="G248">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E247)))</f>
         <v>0</v>
       </c>
@@ -15251,7 +15253,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G249" s="12">
+      <c r="G249" s="10">
         <f t="array" ref="G249">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E248)))</f>
         <v>0</v>
       </c>
@@ -15278,7 +15280,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G250" s="12">
+      <c r="G250" s="10">
         <f t="array" ref="G250">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E249)))</f>
         <v>0</v>
       </c>
@@ -15305,7 +15307,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G251" s="12">
+      <c r="G251" s="10">
         <f t="array" ref="G251">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E250)))</f>
         <v>0</v>
       </c>
@@ -15332,7 +15334,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G252" s="12">
+      <c r="G252" s="10">
         <f t="array" ref="G252">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E251)))</f>
         <v>0</v>
       </c>
@@ -15359,7 +15361,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G253" s="12">
+      <c r="G253" s="10">
         <f t="array" ref="G253">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E252)))</f>
         <v>0</v>
       </c>
@@ -15386,7 +15388,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G254" s="12">
+      <c r="G254" s="10">
         <f t="array" ref="G254">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E253)))</f>
         <v>0</v>
       </c>
@@ -15413,7 +15415,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G255" s="12">
+      <c r="G255" s="10">
         <f t="array" ref="G255">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E254)))</f>
         <v>0</v>
       </c>
@@ -15440,7 +15442,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G256" s="12">
+      <c r="G256" s="10">
         <f t="array" ref="G256">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E255)))</f>
         <v>0</v>
       </c>
@@ -15467,7 +15469,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G257" s="12">
+      <c r="G257" s="10">
         <f t="array" ref="G257">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E256)))</f>
         <v>0</v>
       </c>
@@ -15494,7 +15496,7 @@
         <f t="shared" ref="F258:F321" si="13">IFERROR(MID(B258,FIND(" casts ",B258,1)+7,IFERROR(FIND(" on ",B258,1)-FIND(" casts ",B258,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G258" s="12">
+      <c r="G258" s="10">
         <f t="array" ref="G258">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E257)))</f>
         <v>0</v>
       </c>
@@ -15521,7 +15523,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G259" s="12">
+      <c r="G259" s="10">
         <f t="array" ref="G259">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E258)))</f>
         <v>0</v>
       </c>
@@ -15548,7 +15550,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G260" s="12">
+      <c r="G260" s="10">
         <f t="array" ref="G260">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E259)))</f>
         <v>0</v>
       </c>
@@ -15575,7 +15577,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G261" s="12">
+      <c r="G261" s="10">
         <f t="array" ref="G261">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E260)))</f>
         <v>0</v>
       </c>
@@ -15602,7 +15604,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G262" s="12">
+      <c r="G262" s="10">
         <f t="array" ref="G262">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E261)))</f>
         <v>0</v>
       </c>
@@ -15629,7 +15631,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G263" s="12">
+      <c r="G263" s="10">
         <f t="array" ref="G263">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E262)))</f>
         <v>0</v>
       </c>
@@ -15656,7 +15658,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G264" s="12">
+      <c r="G264" s="10">
         <f t="array" ref="G264">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E263)))</f>
         <v>0</v>
       </c>
@@ -15683,7 +15685,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G265" s="12">
+      <c r="G265" s="10">
         <f t="array" ref="G265">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E264)))</f>
         <v>0</v>
       </c>
@@ -15710,7 +15712,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G266" s="12">
+      <c r="G266" s="10">
         <f t="array" ref="G266">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E265)))</f>
         <v>0</v>
       </c>
@@ -15737,7 +15739,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G267" s="12">
+      <c r="G267" s="10">
         <f t="array" ref="G267">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E266)))</f>
         <v>0</v>
       </c>
@@ -15764,7 +15766,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G268" s="12">
+      <c r="G268" s="10">
         <f t="array" ref="G268">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E267)))</f>
         <v>0</v>
       </c>
@@ -15791,7 +15793,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G269" s="12">
+      <c r="G269" s="10">
         <f t="array" ref="G269">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E268)))</f>
         <v>0</v>
       </c>
@@ -15818,7 +15820,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G270" s="12">
+      <c r="G270" s="10">
         <f t="array" ref="G270">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E269)))</f>
         <v>0</v>
       </c>
@@ -15845,7 +15847,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G271" s="12">
+      <c r="G271" s="10">
         <f t="array" ref="G271">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E270)))</f>
         <v>0</v>
       </c>
@@ -15872,7 +15874,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G272" s="12">
+      <c r="G272" s="10">
         <f t="array" ref="G272">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E271)))</f>
         <v>0</v>
       </c>
@@ -15899,7 +15901,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G273" s="12">
+      <c r="G273" s="10">
         <f t="array" ref="G273">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E272)))</f>
         <v>0</v>
       </c>
@@ -15926,7 +15928,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G274" s="12">
+      <c r="G274" s="10">
         <f t="array" ref="G274">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E273)))</f>
         <v>0</v>
       </c>
@@ -15953,7 +15955,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G275" s="12">
+      <c r="G275" s="10">
         <f t="array" ref="G275">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E274)))</f>
         <v>0</v>
       </c>
@@ -15980,7 +15982,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G276" s="12">
+      <c r="G276" s="10">
         <f t="array" ref="G276">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E275)))</f>
         <v>0</v>
       </c>
@@ -16007,7 +16009,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G277" s="12">
+      <c r="G277" s="10">
         <f t="array" ref="G277">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E276)))</f>
         <v>0</v>
       </c>
@@ -16034,7 +16036,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G278" s="12">
+      <c r="G278" s="10">
         <f t="array" ref="G278">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E277)))</f>
         <v>0</v>
       </c>
@@ -16061,7 +16063,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G279" s="12">
+      <c r="G279" s="10">
         <f t="array" ref="G279">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E278)))</f>
         <v>0</v>
       </c>
@@ -16088,7 +16090,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G280" s="12">
+      <c r="G280" s="10">
         <f t="array" ref="G280">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E279)))</f>
         <v>0</v>
       </c>
@@ -16115,7 +16117,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G281" s="12">
+      <c r="G281" s="10">
         <f t="array" ref="G281">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E280)))</f>
         <v>0</v>
       </c>
@@ -16142,7 +16144,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G282" s="12">
+      <c r="G282" s="10">
         <f t="array" ref="G282">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E281)))</f>
         <v>0</v>
       </c>
@@ -16169,7 +16171,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G283" s="12">
+      <c r="G283" s="10">
         <f t="array" ref="G283">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E282)))</f>
         <v>0</v>
       </c>
@@ -16196,7 +16198,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G284" s="12">
+      <c r="G284" s="10">
         <f t="array" ref="G284">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E283)))</f>
         <v>0</v>
       </c>
@@ -16223,7 +16225,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G285" s="12">
+      <c r="G285" s="10">
         <f t="array" ref="G285">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E284)))</f>
         <v>0</v>
       </c>
@@ -16250,7 +16252,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G286" s="12">
+      <c r="G286" s="10">
         <f t="array" ref="G286">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E285)))</f>
         <v>0</v>
       </c>
@@ -16277,7 +16279,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G287" s="12">
+      <c r="G287" s="10">
         <f t="array" ref="G287">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E286)))</f>
         <v>0</v>
       </c>
@@ -16304,7 +16306,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G288" s="12">
+      <c r="G288" s="10">
         <f t="array" ref="G288">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E287)))</f>
         <v>0</v>
       </c>
@@ -16331,7 +16333,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G289" s="12">
+      <c r="G289" s="10">
         <f t="array" ref="G289">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E288)))</f>
         <v>0</v>
       </c>
@@ -16358,7 +16360,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G290" s="12">
+      <c r="G290" s="10">
         <f t="array" ref="G290">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E289)))</f>
         <v>0</v>
       </c>
@@ -16385,7 +16387,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G291" s="12">
+      <c r="G291" s="10">
         <f t="array" ref="G291">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E290)))</f>
         <v>0</v>
       </c>
@@ -16412,7 +16414,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G292" s="12">
+      <c r="G292" s="10">
         <f t="array" ref="G292">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E291)))</f>
         <v>0</v>
       </c>
@@ -16439,7 +16441,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G293" s="12">
+      <c r="G293" s="10">
         <f t="array" ref="G293">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E292)))</f>
         <v>0</v>
       </c>
@@ -16466,7 +16468,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G294" s="12">
+      <c r="G294" s="10">
         <f t="array" ref="G294">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E293)))</f>
         <v>0</v>
       </c>
@@ -16493,7 +16495,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G295" s="12">
+      <c r="G295" s="10">
         <f t="array" ref="G295">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E294)))</f>
         <v>0</v>
       </c>
@@ -16520,7 +16522,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G296" s="12">
+      <c r="G296" s="10">
         <f t="array" ref="G296">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E295)))</f>
         <v>0</v>
       </c>
@@ -16547,7 +16549,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G297" s="12">
+      <c r="G297" s="10">
         <f t="array" ref="G297">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E296)))</f>
         <v>0</v>
       </c>
@@ -16574,7 +16576,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G298" s="12">
+      <c r="G298" s="10">
         <f t="array" ref="G298">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E297)))</f>
         <v>0</v>
       </c>
@@ -16601,7 +16603,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G299" s="12">
+      <c r="G299" s="10">
         <f t="array" ref="G299">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E298)))</f>
         <v>0</v>
       </c>
@@ -16628,7 +16630,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G300" s="12">
+      <c r="G300" s="10">
         <f t="array" ref="G300">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E299)))</f>
         <v>0</v>
       </c>
@@ -16655,7 +16657,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G301" s="12">
+      <c r="G301" s="10">
         <f t="array" ref="G301">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E300)))</f>
         <v>0</v>
       </c>
@@ -16682,7 +16684,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G302" s="12">
+      <c r="G302" s="10">
         <f t="array" ref="G302">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E301)))</f>
         <v>0</v>
       </c>
@@ -16709,7 +16711,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G303" s="12">
+      <c r="G303" s="10">
         <f t="array" ref="G303">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E302)))</f>
         <v>0</v>
       </c>
@@ -16736,7 +16738,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G304" s="12">
+      <c r="G304" s="10">
         <f t="array" ref="G304">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E303)))</f>
         <v>0</v>
       </c>
@@ -16763,7 +16765,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G305" s="12">
+      <c r="G305" s="10">
         <f t="array" ref="G305">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E304)))</f>
         <v>0</v>
       </c>
@@ -16790,7 +16792,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G306" s="12">
+      <c r="G306" s="10">
         <f t="array" ref="G306">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E305)))</f>
         <v>0</v>
       </c>
@@ -16817,7 +16819,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G307" s="12">
+      <c r="G307" s="10">
         <f t="array" ref="G307">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E306)))</f>
         <v>0</v>
       </c>
@@ -16844,7 +16846,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G308" s="12">
+      <c r="G308" s="10">
         <f t="array" ref="G308">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E307)))</f>
         <v>0</v>
       </c>
@@ -16871,7 +16873,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G309" s="12">
+      <c r="G309" s="10">
         <f t="array" ref="G309">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E308)))</f>
         <v>0</v>
       </c>
@@ -16898,7 +16900,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G310" s="12">
+      <c r="G310" s="10">
         <f t="array" ref="G310">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E309)))</f>
         <v>0</v>
       </c>
@@ -16925,7 +16927,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G311" s="12">
+      <c r="G311" s="10">
         <f t="array" ref="G311">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E310)))</f>
         <v>0</v>
       </c>
@@ -16952,7 +16954,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G312" s="12">
+      <c r="G312" s="10">
         <f t="array" ref="G312">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E311)))</f>
         <v>0</v>
       </c>
@@ -16979,7 +16981,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G313" s="12">
+      <c r="G313" s="10">
         <f t="array" ref="G313">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E312)))</f>
         <v>0</v>
       </c>
@@ -17006,7 +17008,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G314" s="12">
+      <c r="G314" s="10">
         <f t="array" ref="G314">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E313)))</f>
         <v>0</v>
       </c>
@@ -17033,7 +17035,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G315" s="12">
+      <c r="G315" s="10">
         <f t="array" ref="G315">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E314)))</f>
         <v>0</v>
       </c>
@@ -17060,7 +17062,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G316" s="12">
+      <c r="G316" s="10">
         <f t="array" ref="G316">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E315)))</f>
         <v>0</v>
       </c>
@@ -17087,7 +17089,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G317" s="12">
+      <c r="G317" s="10">
         <f t="array" ref="G317">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E316)))</f>
         <v>0</v>
       </c>
@@ -17114,7 +17116,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G318" s="12">
+      <c r="G318" s="10">
         <f t="array" ref="G318">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E317)))</f>
         <v>0</v>
       </c>
@@ -17141,7 +17143,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G319" s="12">
+      <c r="G319" s="10">
         <f t="array" ref="G319">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E318)))</f>
         <v>0</v>
       </c>
@@ -17168,7 +17170,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G320" s="12">
+      <c r="G320" s="10">
         <f t="array" ref="G320">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E319)))</f>
         <v>0</v>
       </c>
@@ -17195,7 +17197,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G321" s="12">
+      <c r="G321" s="10">
         <f t="array" ref="G321">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E320)))</f>
         <v>0</v>
       </c>
@@ -17222,7 +17224,7 @@
         <f t="shared" ref="F322:F385" si="16">IFERROR(MID(B322,FIND(" casts ",B322,1)+7,IFERROR(FIND(" on ",B322,1)-FIND(" casts ",B322,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G322" s="12">
+      <c r="G322" s="10">
         <f t="array" ref="G322">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E321)))</f>
         <v>0</v>
       </c>
@@ -17249,7 +17251,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G323" s="12">
+      <c r="G323" s="10">
         <f t="array" ref="G323">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E322)))</f>
         <v>0</v>
       </c>
@@ -17276,7 +17278,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G324" s="12">
+      <c r="G324" s="10">
         <f t="array" ref="G324">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E323)))</f>
         <v>0</v>
       </c>
@@ -17303,7 +17305,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G325" s="12">
+      <c r="G325" s="10">
         <f t="array" ref="G325">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E324)))</f>
         <v>0</v>
       </c>
@@ -17330,7 +17332,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G326" s="12">
+      <c r="G326" s="10">
         <f t="array" ref="G326">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E325)))</f>
         <v>0</v>
       </c>
@@ -17357,7 +17359,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G327" s="12">
+      <c r="G327" s="10">
         <f t="array" ref="G327">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E326)))</f>
         <v>0</v>
       </c>
@@ -17384,7 +17386,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G328" s="12">
+      <c r="G328" s="10">
         <f t="array" ref="G328">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E327)))</f>
         <v>0</v>
       </c>
@@ -17411,7 +17413,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G329" s="12">
+      <c r="G329" s="10">
         <f t="array" ref="G329">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E328)))</f>
         <v>0</v>
       </c>
@@ -17438,7 +17440,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G330" s="12">
+      <c r="G330" s="10">
         <f t="array" ref="G330">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E329)))</f>
         <v>0</v>
       </c>
@@ -17465,7 +17467,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G331" s="12">
+      <c r="G331" s="10">
         <f t="array" ref="G331">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E330)))</f>
         <v>0</v>
       </c>
@@ -17492,7 +17494,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G332" s="12">
+      <c r="G332" s="10">
         <f t="array" ref="G332">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E331)))</f>
         <v>0</v>
       </c>
@@ -17519,7 +17521,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G333" s="12">
+      <c r="G333" s="10">
         <f t="array" ref="G333">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E332)))</f>
         <v>0</v>
       </c>
@@ -17546,7 +17548,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G334" s="12">
+      <c r="G334" s="10">
         <f t="array" ref="G334">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E333)))</f>
         <v>0</v>
       </c>
@@ -17573,7 +17575,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G335" s="12">
+      <c r="G335" s="10">
         <f t="array" ref="G335">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E334)))</f>
         <v>0</v>
       </c>
@@ -17600,7 +17602,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G336" s="12">
+      <c r="G336" s="10">
         <f t="array" ref="G336">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E335)))</f>
         <v>0</v>
       </c>
@@ -17627,7 +17629,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G337" s="12">
+      <c r="G337" s="10">
         <f t="array" ref="G337">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E336)))</f>
         <v>0</v>
       </c>
@@ -17654,7 +17656,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G338" s="12">
+      <c r="G338" s="10">
         <f t="array" ref="G338">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E337)))</f>
         <v>0</v>
       </c>
@@ -17681,7 +17683,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G339" s="12">
+      <c r="G339" s="10">
         <f t="array" ref="G339">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E338)))</f>
         <v>0</v>
       </c>
@@ -17708,7 +17710,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G340" s="12">
+      <c r="G340" s="10">
         <f t="array" ref="G340">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E339)))</f>
         <v>0</v>
       </c>
@@ -17735,7 +17737,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G341" s="12">
+      <c r="G341" s="10">
         <f t="array" ref="G341">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E340)))</f>
         <v>0</v>
       </c>
@@ -17762,7 +17764,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G342" s="12">
+      <c r="G342" s="10">
         <f t="array" ref="G342">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E341)))</f>
         <v>0</v>
       </c>
@@ -17789,7 +17791,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G343" s="12">
+      <c r="G343" s="10">
         <f t="array" ref="G343">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E342)))</f>
         <v>0</v>
       </c>
@@ -17816,7 +17818,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G344" s="12">
+      <c r="G344" s="10">
         <f t="array" ref="G344">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E343)))</f>
         <v>0</v>
       </c>
@@ -17843,7 +17845,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G345" s="12">
+      <c r="G345" s="10">
         <f t="array" ref="G345">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E344)))</f>
         <v>0</v>
       </c>
@@ -17870,7 +17872,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G346" s="12">
+      <c r="G346" s="10">
         <f t="array" ref="G346">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E345)))</f>
         <v>0</v>
       </c>
@@ -17897,7 +17899,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G347" s="12">
+      <c r="G347" s="10">
         <f t="array" ref="G347">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E346)))</f>
         <v>0</v>
       </c>
@@ -17924,7 +17926,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G348" s="12">
+      <c r="G348" s="10">
         <f t="array" ref="G348">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E347)))</f>
         <v>0</v>
       </c>
@@ -17951,7 +17953,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G349" s="12">
+      <c r="G349" s="10">
         <f t="array" ref="G349">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E348)))</f>
         <v>0</v>
       </c>
@@ -17978,7 +17980,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G350" s="12">
+      <c r="G350" s="10">
         <f t="array" ref="G350">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E349)))</f>
         <v>0</v>
       </c>
@@ -18005,7 +18007,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G351" s="12">
+      <c r="G351" s="10">
         <f t="array" ref="G351">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E350)))</f>
         <v>0</v>
       </c>
@@ -18032,7 +18034,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G352" s="12">
+      <c r="G352" s="10">
         <f t="array" ref="G352">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E351)))</f>
         <v>0</v>
       </c>
@@ -18059,7 +18061,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G353" s="12">
+      <c r="G353" s="10">
         <f t="array" ref="G353">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E352)))</f>
         <v>0</v>
       </c>
@@ -18086,7 +18088,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G354" s="12">
+      <c r="G354" s="10">
         <f t="array" ref="G354">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E353)))</f>
         <v>0</v>
       </c>
@@ -18113,7 +18115,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G355" s="12">
+      <c r="G355" s="10">
         <f t="array" ref="G355">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E354)))</f>
         <v>0</v>
       </c>
@@ -18140,7 +18142,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G356" s="12">
+      <c r="G356" s="10">
         <f t="array" ref="G356">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E355)))</f>
         <v>0</v>
       </c>
@@ -18167,7 +18169,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G357" s="12">
+      <c r="G357" s="10">
         <f t="array" ref="G357">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E356)))</f>
         <v>0</v>
       </c>
@@ -18194,7 +18196,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G358" s="12">
+      <c r="G358" s="10">
         <f t="array" ref="G358">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E357)))</f>
         <v>0</v>
       </c>
@@ -18221,7 +18223,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G359" s="12">
+      <c r="G359" s="10">
         <f t="array" ref="G359">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E358)))</f>
         <v>0</v>
       </c>
@@ -18248,7 +18250,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G360" s="12">
+      <c r="G360" s="10">
         <f t="array" ref="G360">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E359)))</f>
         <v>0</v>
       </c>
@@ -18275,7 +18277,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G361" s="12">
+      <c r="G361" s="10">
         <f t="array" ref="G361">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E360)))</f>
         <v>0</v>
       </c>
@@ -18302,7 +18304,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G362" s="12">
+      <c r="G362" s="10">
         <f t="array" ref="G362">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E361)))</f>
         <v>0</v>
       </c>
@@ -18329,7 +18331,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G363" s="12">
+      <c r="G363" s="10">
         <f t="array" ref="G363">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E362)))</f>
         <v>0</v>
       </c>
@@ -18356,7 +18358,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G364" s="12">
+      <c r="G364" s="10">
         <f t="array" ref="G364">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E363)))</f>
         <v>0</v>
       </c>
@@ -18383,7 +18385,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G365" s="12">
+      <c r="G365" s="10">
         <f t="array" ref="G365">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E364)))</f>
         <v>0</v>
       </c>
@@ -18410,7 +18412,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G366" s="12">
+      <c r="G366" s="10">
         <f t="array" ref="G366">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E365)))</f>
         <v>0</v>
       </c>
@@ -18437,7 +18439,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G367" s="12">
+      <c r="G367" s="10">
         <f t="array" ref="G367">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E366)))</f>
         <v>0</v>
       </c>
@@ -18464,7 +18466,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G368" s="12">
+      <c r="G368" s="10">
         <f t="array" ref="G368">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E367)))</f>
         <v>0</v>
       </c>
@@ -18491,7 +18493,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G369" s="12">
+      <c r="G369" s="10">
         <f t="array" ref="G369">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E368)))</f>
         <v>0</v>
       </c>
@@ -18518,7 +18520,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G370" s="12">
+      <c r="G370" s="10">
         <f t="array" ref="G370">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E369)))</f>
         <v>0</v>
       </c>
@@ -18545,7 +18547,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G371" s="12">
+      <c r="G371" s="10">
         <f t="array" ref="G371">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E370)))</f>
         <v>0</v>
       </c>
@@ -18572,7 +18574,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G372" s="12">
+      <c r="G372" s="10">
         <f t="array" ref="G372">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E371)))</f>
         <v>0</v>
       </c>
@@ -18599,7 +18601,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G373" s="12">
+      <c r="G373" s="10">
         <f t="array" ref="G373">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E372)))</f>
         <v>0</v>
       </c>
@@ -18626,7 +18628,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G374" s="12">
+      <c r="G374" s="10">
         <f t="array" ref="G374">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E373)))</f>
         <v>0</v>
       </c>
@@ -18653,7 +18655,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G375" s="12">
+      <c r="G375" s="10">
         <f t="array" ref="G375">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E374)))</f>
         <v>0</v>
       </c>
@@ -18680,7 +18682,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G376" s="12">
+      <c r="G376" s="10">
         <f t="array" ref="G376">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E375)))</f>
         <v>0</v>
       </c>
@@ -18707,7 +18709,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G377" s="12">
+      <c r="G377" s="10">
         <f t="array" ref="G377">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E376)))</f>
         <v>0</v>
       </c>
@@ -18734,7 +18736,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G378" s="12">
+      <c r="G378" s="10">
         <f t="array" ref="G378">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E377)))</f>
         <v>0</v>
       </c>
@@ -18761,7 +18763,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G379" s="12">
+      <c r="G379" s="10">
         <f t="array" ref="G379">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E378)))</f>
         <v>0</v>
       </c>
@@ -18788,7 +18790,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G380" s="12">
+      <c r="G380" s="10">
         <f t="array" ref="G380">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E379)))</f>
         <v>0</v>
       </c>
@@ -18815,7 +18817,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G381" s="12">
+      <c r="G381" s="10">
         <f t="array" ref="G381">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E380)))</f>
         <v>0</v>
       </c>
@@ -18842,7 +18844,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G382" s="12">
+      <c r="G382" s="10">
         <f t="array" ref="G382">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E381)))</f>
         <v>0</v>
       </c>
@@ -18869,7 +18871,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G383" s="12">
+      <c r="G383" s="10">
         <f t="array" ref="G383">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E382)))</f>
         <v>0</v>
       </c>
@@ -18896,7 +18898,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G384" s="12">
+      <c r="G384" s="10">
         <f t="array" ref="G384">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E383)))</f>
         <v>0</v>
       </c>
@@ -18923,7 +18925,7 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G385" s="12">
+      <c r="G385" s="10">
         <f t="array" ref="G385">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E384)))</f>
         <v>0</v>
       </c>
@@ -18950,7 +18952,7 @@
         <f t="shared" ref="F386:F401" si="19">IFERROR(MID(B386,FIND(" casts ",B386,1)+7,IFERROR(FIND(" on ",B386,1)-FIND(" casts ",B386,1)-7,99)),"")</f>
         <v/>
       </c>
-      <c r="G386" s="12">
+      <c r="G386" s="10">
         <f t="array" ref="G386">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E385)))</f>
         <v>0</v>
       </c>
@@ -18977,7 +18979,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G387" s="12">
+      <c r="G387" s="10">
         <f t="array" ref="G387">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E386)))</f>
         <v>0</v>
       </c>
@@ -19004,7 +19006,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G388" s="12">
+      <c r="G388" s="10">
         <f t="array" ref="G388">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E387)))</f>
         <v>0</v>
       </c>
@@ -19031,7 +19033,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G389" s="12">
+      <c r="G389" s="10">
         <f t="array" ref="G389">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E388)))</f>
         <v>0</v>
       </c>
@@ -19058,7 +19060,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G390" s="12">
+      <c r="G390" s="10">
         <f t="array" ref="G390">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E389)))</f>
         <v>0</v>
       </c>
@@ -19085,7 +19087,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G391" s="12">
+      <c r="G391" s="10">
         <f t="array" ref="G391">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E390)))</f>
         <v>0</v>
       </c>
@@ -19112,7 +19114,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G392" s="12">
+      <c r="G392" s="10">
         <f t="array" ref="G392">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E391)))</f>
         <v>0</v>
       </c>
@@ -19139,7 +19141,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G393" s="12">
+      <c r="G393" s="10">
         <f t="array" ref="G393">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E392)))</f>
         <v>0</v>
       </c>
@@ -19166,7 +19168,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G394" s="12">
+      <c r="G394" s="10">
         <f t="array" ref="G394">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E393)))</f>
         <v>0</v>
       </c>
@@ -19193,7 +19195,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G395" s="12">
+      <c r="G395" s="10">
         <f t="array" ref="G395">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E394)))</f>
         <v>0</v>
       </c>
@@ -19220,7 +19222,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G396" s="12">
+      <c r="G396" s="10">
         <f t="array" ref="G396">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E395)))</f>
         <v>0</v>
       </c>
@@ -19247,7 +19249,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G397" s="12">
+      <c r="G397" s="10">
         <f t="array" ref="G397">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E396)))</f>
         <v>0</v>
       </c>
@@ -19274,7 +19276,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G398" s="12">
+      <c r="G398" s="10">
         <f t="array" ref="G398">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E397)))</f>
         <v>0</v>
       </c>
@@ -19301,7 +19303,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G399" s="12">
+      <c r="G399" s="10">
         <f t="array" ref="G399">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E398)))</f>
         <v>0</v>
       </c>
@@ -19328,7 +19330,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G400" s="12">
+      <c r="G400" s="10">
         <f t="array" ref="G400">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E399)))</f>
         <v>0</v>
       </c>
@@ -19355,7 +19357,7 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G401" s="12" t="e">
+      <c r="G401" s="10" t="e">
         <f t="array" ref="G401">INDEX(E:E,SMALL(IF(E$2:E$400&lt;&gt;"",ROW(E$2:E$400),4^8),ROW(E400)))</f>
         <v>#NUM!</v>
       </c>
@@ -19592,19 +19594,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2560</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -19646,7 +19648,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -19720,7 +19722,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -19737,7 +19739,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -19754,7 +19756,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>36</v>
@@ -19924,7 +19926,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>84</v>
@@ -20003,7 +20005,7 @@
         <v>107</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>108</v>
@@ -20204,7 +20206,7 @@
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>162</v>
@@ -20357,7 +20359,7 @@
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>204</v>
@@ -20374,7 +20376,7 @@
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>208</v>
@@ -20408,7 +20410,7 @@
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>217</v>
@@ -20425,7 +20427,7 @@
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>221</v>
@@ -20493,10 +20495,10 @@
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>2437</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>2438</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>239</v>
@@ -20714,7 +20716,7 @@
     </row>
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>303</v>
@@ -20765,7 +20767,7 @@
     </row>
     <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>317</v>
@@ -20774,7 +20776,7 @@
         <v>316</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>315</v>
@@ -21125,7 +21127,7 @@
         <v>418</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>419</v>
@@ -21241,7 +21243,7 @@
     </row>
     <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>452</v>
@@ -21309,7 +21311,7 @@
     </row>
     <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>471</v>
@@ -21462,7 +21464,7 @@
     </row>
     <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>512</v>
@@ -21615,7 +21617,7 @@
     </row>
     <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>555</v>
@@ -22006,7 +22008,7 @@
     </row>
     <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>665</v>
@@ -22159,7 +22161,7 @@
     </row>
     <row r="152" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>707</v>
@@ -22349,7 +22351,7 @@
         <v>743</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>743</v>
@@ -22366,7 +22368,7 @@
         <v>746</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>746</v>
@@ -22440,7 +22442,7 @@
         <v>761</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>759</v>
@@ -22502,7 +22504,7 @@
         <v>779</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>780</v>
@@ -22533,7 +22535,7 @@
     </row>
     <row r="174" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>789</v>
@@ -22618,7 +22620,7 @@
     </row>
     <row r="179" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>811</v>
@@ -22754,7 +22756,7 @@
     </row>
     <row r="187" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>847</v>
@@ -22873,7 +22875,7 @@
     </row>
     <row r="194" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>879</v>
@@ -22924,7 +22926,7 @@
     </row>
     <row r="197" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>893</v>
@@ -22978,7 +22980,7 @@
         <v>906</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>906</v>
@@ -22992,7 +22994,7 @@
     </row>
     <row r="201" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>910</v>
@@ -23077,7 +23079,7 @@
     </row>
     <row r="206" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>934</v>
@@ -23128,7 +23130,7 @@
     </row>
     <row r="209" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>948</v>
@@ -23358,7 +23360,7 @@
         <v>1011</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>1009</v>
@@ -23528,7 +23530,7 @@
         <v>1058</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>1056</v>
@@ -23613,7 +23615,7 @@
         <v>1081</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>1079</v>
@@ -23828,7 +23830,7 @@
         <v>1143</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>1144</v>
@@ -23910,7 +23912,7 @@
     </row>
     <row r="255" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>1168</v>
@@ -24055,7 +24057,7 @@
         <v>1207</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>1205</v>
@@ -24463,7 +24465,7 @@
         <v>1315</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>1313</v>
@@ -24573,7 +24575,7 @@
     </row>
     <row r="294" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>1347</v>
@@ -24590,7 +24592,7 @@
     </row>
     <row r="295" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>1351</v>
@@ -24709,7 +24711,7 @@
     </row>
     <row r="302" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>1385</v>
@@ -24718,7 +24720,7 @@
         <v>1384</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>1383</v>
@@ -24760,7 +24762,7 @@
     </row>
     <row r="305" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>1394</v>
@@ -24845,7 +24847,7 @@
     </row>
     <row r="310" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>1416</v>
@@ -24879,7 +24881,7 @@
     </row>
     <row r="312" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>1425</v>
@@ -24896,7 +24898,7 @@
     </row>
     <row r="313" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>1429</v>
@@ -24913,7 +24915,7 @@
     </row>
     <row r="314" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>1433</v>
@@ -24956,7 +24958,7 @@
         <v>1442</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>1440</v>
@@ -25049,7 +25051,7 @@
     </row>
     <row r="322" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>1471</v>
@@ -25100,7 +25102,7 @@
     </row>
     <row r="325" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>1485</v>
@@ -25109,7 +25111,7 @@
         <v>1484</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>1483</v>
@@ -25126,7 +25128,7 @@
         <v>1488</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>1486</v>
@@ -25168,7 +25170,7 @@
     </row>
     <row r="329" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>1502</v>
@@ -25304,7 +25306,7 @@
     </row>
     <row r="337" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>1540</v>
@@ -25321,7 +25323,7 @@
     </row>
     <row r="338" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>1544</v>
@@ -25392,7 +25394,7 @@
         <v>1560</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>1560</v>
@@ -25409,7 +25411,7 @@
         <v>1563</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>1563</v>
@@ -25426,7 +25428,7 @@
         <v>1566</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>1566</v>
@@ -25460,7 +25462,7 @@
         <v>1572</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>1572</v>
@@ -25551,7 +25553,7 @@
         <v>1586</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>1585</v>
@@ -25562,13 +25564,13 @@
         <v>1589</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>1589</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>1588</v>
@@ -25579,13 +25581,13 @@
         <v>1591</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>1591</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>1590</v>
@@ -25602,7 +25604,7 @@
         <v>1593</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>1592</v>
@@ -25619,7 +25621,7 @@
         <v>1596</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>1595</v>
@@ -25653,7 +25655,7 @@
         <v>1602</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>1601</v>
@@ -25664,7 +25666,7 @@
         <v>1605</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>1606</v>
@@ -25681,7 +25683,7 @@
         <v>1609</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>1610</v>
@@ -25698,7 +25700,7 @@
         <v>1612</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>1612</v>
@@ -25721,7 +25723,7 @@
         <v>1615</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>1614</v>
@@ -25746,7 +25748,7 @@
     </row>
     <row r="363" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>1623</v>
@@ -25806,7 +25808,7 @@
         <v>1634</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>1633</v>
@@ -25933,7 +25935,7 @@
     </row>
     <row r="374" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>1669</v>
@@ -25984,7 +25986,7 @@
     </row>
     <row r="377" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>1680</v>
@@ -26086,7 +26088,7 @@
     </row>
     <row r="383" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>1706</v>
@@ -26528,7 +26530,7 @@
     </row>
     <row r="409" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>1830</v>
@@ -26537,7 +26539,7 @@
         <v>1829</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>1828</v>
@@ -26562,7 +26564,7 @@
     </row>
     <row r="411" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>1838</v>
@@ -26596,7 +26598,7 @@
     </row>
     <row r="413" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>1845</v>
@@ -26630,7 +26632,7 @@
     </row>
     <row r="415" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>1854</v>
@@ -26752,7 +26754,7 @@
         <v>1887</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>1888</v>
@@ -26868,7 +26870,7 @@
     </row>
     <row r="429" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>1922</v>
@@ -26885,7 +26887,7 @@
     </row>
     <row r="430" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>1926</v>
@@ -26902,7 +26904,7 @@
     </row>
     <row r="431" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>1930</v>
@@ -26928,7 +26930,7 @@
         <v>1933</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>1932</v>
@@ -27047,7 +27049,7 @@
         <v>1965</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>1963</v>
@@ -27089,7 +27091,7 @@
     </row>
     <row r="442" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>1977</v>
@@ -27174,7 +27176,7 @@
     </row>
     <row r="447" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>2001</v>
@@ -27327,7 +27329,7 @@
     </row>
     <row r="456" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>2042</v>
@@ -27339,7 +27341,7 @@
         <v>2043</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -27398,13 +27400,13 @@
         <v>2060</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>2061</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>2059</v>
@@ -27415,13 +27417,13 @@
         <v>2063</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>2064</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>2062</v>
@@ -27429,7 +27431,7 @@
     </row>
     <row r="462" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>2067</v>
@@ -27506,7 +27508,7 @@
         <v>2086</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>2084</v>
@@ -27523,7 +27525,7 @@
         <v>2090</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>2088</v>
@@ -27540,7 +27542,7 @@
         <v>2094</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>2092</v>
@@ -27557,7 +27559,7 @@
         <v>2098</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>2096</v>
@@ -27574,7 +27576,7 @@
         <v>2102</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>2100</v>
@@ -27591,7 +27593,7 @@
         <v>2106</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>2104</v>
@@ -27718,7 +27720,7 @@
     </row>
     <row r="479" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>2142</v>
@@ -27803,7 +27805,7 @@
     </row>
     <row r="484" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>2166</v>
@@ -27914,7 +27916,7 @@
         <v>2190</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>2189</v>
@@ -27925,7 +27927,7 @@
         <v>2193</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>2193</v>
@@ -28010,7 +28012,7 @@
         <v>2212</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>2212</v>
@@ -28061,7 +28063,7 @@
         <v>2219</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>2219</v>
@@ -28078,7 +28080,7 @@
         <v>2222</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>2222</v>
@@ -28186,7 +28188,7 @@
         <v>2250</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>2248</v>
@@ -28203,7 +28205,7 @@
         <v>2254</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>2252</v>
@@ -28231,7 +28233,7 @@
         <v>2262</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>2263</v>
@@ -28313,7 +28315,7 @@
     </row>
     <row r="514" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>2287</v>
@@ -28322,7 +28324,7 @@
         <v>2286</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>2285</v>
@@ -28330,7 +28332,7 @@
     </row>
     <row r="515" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>2290</v>
@@ -28339,7 +28341,7 @@
         <v>2289</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>2288</v>
@@ -28381,7 +28383,7 @@
     </row>
     <row r="518" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>2302</v>
@@ -28458,7 +28460,7 @@
         <v>2319</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>2317</v>
@@ -28509,7 +28511,7 @@
         <v>2332</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>2330</v>
@@ -28526,7 +28528,7 @@
         <v>2336</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>2334</v>
@@ -28636,7 +28638,7 @@
     </row>
     <row r="533" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>2368</v>
@@ -28645,7 +28647,7 @@
         <v>2367</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>2366</v>
@@ -28789,7 +28791,7 @@
     </row>
     <row r="542" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>2409</v>
@@ -28798,7 +28800,7 @@
         <v>2408</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>2407</v>
@@ -28806,7 +28808,7 @@
     </row>
     <row r="543" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>2412</v>
@@ -28815,7 +28817,7 @@
         <v>2411</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>2410</v>
@@ -28823,7 +28825,7 @@
     </row>
     <row r="544" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>2415</v>

--- a/csv/taikoSongs/谱面生成器.xlsx
+++ b/csv/taikoSongs/谱面生成器.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\csv\taikoSongs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F7FC2-74E4-4933-AC3F-C90635DDEE2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF79FB35-79E9-4330-A82F-2F84FB47DFBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18075" yWindow="3210" windowWidth="18045" windowHeight="11835" xr2:uid="{915F0882-252E-4FB9-BEA3-EEC9BD447592}"/>
+    <workbookView xWindow="17805" yWindow="1050" windowWidth="18045" windowHeight="11835" xr2:uid="{915F0882-252E-4FB9-BEA3-EEC9BD447592}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -7735,7 +7735,7 @@
     <t>生成的谱面</t>
   </si>
   <si>
-    <t>4. 复制下方的结果到"生成"工作表的A2部分</t>
+    <t>4. 复制下方的结果到"生成"工作表的A2部分(右键 - 粘贴 - 匹配目标格式)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8479,9 +8479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC01190E-B1D9-49CC-B12A-6758DE200E0C}">
   <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8536,7 +8534,7 @@
   <dimension ref="A1:I466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
